--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CA0F0-A9EC-4619-A0FE-10EE80E3F91B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DF0424-DFFE-40DD-9D51-881BB579C5A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
     <sheet name="HOBO" sheetId="4" r:id="rId2"/>
     <sheet name="Metadata" sheetId="6" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="206">
   <si>
     <t>DATE</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>MAXN_SANDFISH</t>
+  </si>
+  <si>
+    <t>MAXN_YELLOWSTRIPE</t>
+  </si>
+  <si>
+    <t>TIME_1STYELLOWSTRIPE</t>
+  </si>
+  <si>
+    <t>T1_YELLOWSTRIPE</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1059,6 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,20 +1349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CY22"/>
+  <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="CF17" sqref="CF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="5" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
     <col min="29" max="35" width="8.7265625" customWidth="1"/>
@@ -1363,17 +1372,19 @@
     <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="8.7265625" style="73"/>
     <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1627,64 +1638,73 @@
         <v>125</v>
       </c>
       <c r="CG1" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI1" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CL1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CM1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CO1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CP1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CR1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CS1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CU1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CV1" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CX1" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="CY1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="DA1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="CY1" s="28" t="s">
+      <c r="DB1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
         <v>147</v>
       </c>
@@ -1925,19 +1945,25 @@
         <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CV2" s="59">
+      <c r="CV2" s="59"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="33" t="str">
+        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY2" s="59">
         <v>3</v>
       </c>
-      <c r="CW2" s="72">
+      <c r="CZ2" s="72">
         <v>2.2129629629629628E-2</v>
       </c>
-      <c r="CX2" s="33">
-        <f t="shared" ref="CX2:CX13" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+      <c r="DA2" s="33">
+        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="CY2" s="35"/>
+      <c r="DB2" s="35"/>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
         <v>147</v>
       </c>
@@ -1951,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="23">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
         <v>L6</v>
       </c>
       <c r="F3" s="97">
@@ -1987,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="24">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="25">I3-H3</f>
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="Q3" s="101" t="s">
@@ -2016,7 +2042,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="25">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="26">SUM(V3:AA3)</f>
         <v>6.008101851851852E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2170,29 +2196,35 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="31">
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="33" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV3" s="31">
         <v>2</v>
       </c>
-      <c r="CT3" s="34">
+      <c r="CW3" s="34">
         <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="CU3" s="33">
-        <f t="shared" si="21"/>
-        <v>1.6203703703703692E-4</v>
-      </c>
-      <c r="CV3" s="31">
-        <v>4</v>
-      </c>
-      <c r="CW3" s="34">
-        <v>4.409722222222222E-3</v>
       </c>
       <c r="CX3" s="33">
         <f t="shared" si="22"/>
+        <v>1.6203703703703692E-4</v>
+      </c>
+      <c r="CY3" s="31">
+        <v>4</v>
+      </c>
+      <c r="CZ3" s="34">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="DA3" s="33">
+        <f t="shared" si="23"/>
         <v>4.0509259259259231E-4</v>
       </c>
-      <c r="CY3" s="35"/>
+      <c r="DB3" s="35"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" s="96" t="s">
         <v>147</v>
       </c>
@@ -2206,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L5</v>
       </c>
       <c r="F4" s="97">
@@ -2242,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="Q4" s="101" t="s">
@@ -2267,7 +2299,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC4" s="20"/>
@@ -2413,9 +2445,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY4" s="35"/>
+      <c r="CY4" s="31"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB4" s="35"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" s="96" t="s">
         <v>147</v>
       </c>
@@ -2429,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D5</v>
       </c>
       <c r="F5" s="97">
@@ -2465,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q5" s="101" t="s">
@@ -2490,7 +2528,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2636,9 +2674,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY5" s="35"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB5" s="35"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" s="96" t="s">
         <v>147</v>
       </c>
@@ -2652,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L4</v>
       </c>
       <c r="F6" s="97">
@@ -2688,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="Q6" s="101" t="s">
@@ -2704,27 +2748,37 @@
         <v>149</v>
       </c>
       <c r="U6" s="97"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="19">
+        <v>2.2789351851851852E-2</v>
+      </c>
+      <c r="W6" s="20">
+        <v>1.9398148148148147E-2</v>
+      </c>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.2187500000000003E-2</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5937500000000004E-2</v>
       </c>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
       <c r="AH6" s="22"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="30"/>
+      <c r="AI6" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="30">
+        <v>2</v>
+      </c>
       <c r="AK6" s="31"/>
       <c r="AL6" s="34"/>
       <c r="AM6" s="33" t="str">
@@ -2737,11 +2791,15 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="33" t="str">
+      <c r="AQ6" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="34">
+        <v>2.6064814814814815E-2</v>
+      </c>
+      <c r="AS6" s="33">
         <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>1.9814814814814816E-2</v>
       </c>
       <c r="AT6" s="31"/>
       <c r="AU6" s="32"/>
@@ -2857,9 +2915,19 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="35"/>
+      <c r="CY6" s="31">
+        <v>3</v>
+      </c>
+      <c r="CZ6" s="34">
+        <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="DA6" s="33">
+        <f t="shared" si="23"/>
+        <v>1.7361111111111223E-4</v>
+      </c>
+      <c r="DB6" s="35"/>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" s="96" t="s">
         <v>147</v>
       </c>
@@ -2873,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D6</v>
       </c>
       <c r="F7" s="97">
@@ -2909,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q7" s="101" t="s">
@@ -2925,27 +2993,43 @@
         <v>149</v>
       </c>
       <c r="U7" s="97"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="V7" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W7" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X7" s="20">
+        <v>4.3981481481481484E-3</v>
+      </c>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.0115740740740743E-2</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>4.0277777777777777E-3</v>
+      </c>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
+        <v>3.6087962962962968E-2</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>50</v>
+      </c>
       <c r="AH7" s="22"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
+      <c r="AI7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>2</v>
+      </c>
       <c r="AK7" s="31"/>
       <c r="AL7" s="34"/>
       <c r="AM7" s="33" t="str">
@@ -3072,15 +3156,29 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="31"/>
-      <c r="CW7" s="32"/>
-      <c r="CX7" s="33" t="str">
+      <c r="CV7" s="31">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="34">
+        <v>1.0567129629629629E-2</v>
+      </c>
+      <c r="CX7" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY7" s="35"/>
+        <v>6.5393518518518517E-3</v>
+      </c>
+      <c r="CY7" s="31">
+        <v>4</v>
+      </c>
+      <c r="CZ7" s="34">
+        <v>5.9143518518518521E-3</v>
+      </c>
+      <c r="DA7" s="33">
+        <f t="shared" si="23"/>
+        <v>1.8865740740740744E-3</v>
+      </c>
+      <c r="DB7" s="35"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
         <v>151</v>
       </c>
@@ -3094,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D5</v>
       </c>
       <c r="F8" s="97">
@@ -3130,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.27013888888888887</v>
       </c>
       <c r="Q8" s="101" t="s">
@@ -3148,38 +3246,62 @@
       <c r="U8" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="V8" s="19">
+        <v>2.1354166666666664E-2</v>
+      </c>
+      <c r="W8" s="20">
+        <v>1.8113425925925925E-2</v>
+      </c>
+      <c r="X8" s="20">
+        <v>4.9074074074074072E-3</v>
+      </c>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.4374999999999998E-2</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>3.9120370370370368E-3</v>
+      </c>
       <c r="AD8" s="20"/>
       <c r="AE8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+        <v>4.0462962962962964E-2</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>70</v>
+      </c>
       <c r="AH8" s="22"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="33" t="str">
+      <c r="AI8" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="30">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="34">
+        <v>3.3425925925925921E-2</v>
+      </c>
+      <c r="AM8" s="33">
         <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="33" t="str">
+        <v>2.9513888888888885E-2</v>
+      </c>
+      <c r="AN8" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="71">
+        <v>3.1585648148148147E-2</v>
+      </c>
+      <c r="AP8" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>2.7673611111111111E-2</v>
       </c>
       <c r="AQ8" s="31"/>
       <c r="AR8" s="32"/>
@@ -3284,7 +3406,7 @@
         <v>NA</v>
       </c>
       <c r="CP8" s="31"/>
-      <c r="CQ8" s="71"/>
+      <c r="CQ8" s="32"/>
       <c r="CR8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3295,15 +3417,29 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="31"/>
-      <c r="CW8" s="71"/>
-      <c r="CX8" s="33" t="str">
+      <c r="CV8" s="31">
+        <v>3</v>
+      </c>
+      <c r="CW8" s="71">
+        <v>4.0856481481481481E-3</v>
+      </c>
+      <c r="CX8" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY8" s="35"/>
+        <v>1.7361111111111136E-4</v>
+      </c>
+      <c r="CY8" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="71">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="DA8" s="33">
+        <f t="shared" si="23"/>
+        <v>2.2129629629629631E-2</v>
+      </c>
+      <c r="DB8" s="35"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
         <v>151</v>
       </c>
@@ -3317,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L5</v>
       </c>
       <c r="F9" s="97">
@@ -3353,7 +3489,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.26944444444444443</v>
       </c>
       <c r="Q9" s="101" t="s">
@@ -3371,38 +3507,60 @@
       <c r="U9" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="V9" s="19">
+        <v>2.5914351851851855E-2</v>
+      </c>
+      <c r="W9" s="20">
+        <v>2.1759259259259259E-2</v>
+      </c>
+      <c r="X9" s="20">
+        <v>1.2650462962962962E-2</v>
+      </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
+        <f t="shared" si="26"/>
+        <v>6.0324074074074072E-2</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>1.2650462962962962E-2</v>
+      </c>
       <c r="AE9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
+        <v>4.3043981481481482E-2</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>15</v>
+      </c>
       <c r="AH9" s="22"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="30"/>
+      <c r="AI9" s="29">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="30">
+        <v>2</v>
+      </c>
       <c r="AK9" s="31"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="33" t="str">
+      <c r="AN9" s="31">
+        <v>27</v>
+      </c>
+      <c r="AO9" s="34">
+        <v>8.0439814814814818E-3</v>
+      </c>
+      <c r="AP9" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>3.4143518518518516E-3</v>
       </c>
       <c r="AQ9" s="31"/>
       <c r="AR9" s="32"/>
@@ -3507,7 +3665,7 @@
         <v>NA</v>
       </c>
       <c r="CP9" s="31"/>
-      <c r="CQ9" s="57"/>
+      <c r="CQ9" s="32"/>
       <c r="CR9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3524,9 +3682,19 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="35"/>
+      <c r="CY9" s="31">
+        <v>2</v>
+      </c>
+      <c r="CZ9" s="57">
+        <v>1.7141203703703704E-2</v>
+      </c>
+      <c r="DA9" s="33">
+        <f t="shared" si="23"/>
+        <v>1.2511574074074074E-2</v>
+      </c>
+      <c r="DB9" s="35"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
         <v>151</v>
       </c>
@@ -3540,7 +3708,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E6</v>
       </c>
       <c r="F10" s="97">
@@ -3576,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="Q10" s="101" t="s">
@@ -3601,7 +3769,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC10" s="20"/>
@@ -3747,9 +3915,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY10" s="35"/>
+      <c r="CY10" s="31"/>
+      <c r="CZ10" s="34"/>
+      <c r="DA10" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB10" s="35"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
         <v>151</v>
       </c>
@@ -3763,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E4</v>
       </c>
       <c r="F11" s="97">
@@ -3799,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.8749999999999978E-2</v>
       </c>
       <c r="Q11" s="101" t="s">
@@ -3815,32 +3989,56 @@
         <v>188</v>
       </c>
       <c r="U11" s="97"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
+      <c r="V11" s="19">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="W11" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X11" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>1.269675925925926E-2</v>
+      </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
+        <f t="shared" si="26"/>
+        <v>5.7280092592592591E-2</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>3.9814814814814817E-3</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>1.2002314814814815E-2</v>
+      </c>
       <c r="AE11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
+        <v>4.1296296296296296E-2</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>100</v>
+      </c>
       <c r="AH11" s="22"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="33" t="str">
+      <c r="AI11" s="29">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="30">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="34">
+        <v>2.7974537037037034E-2</v>
+      </c>
+      <c r="AM11" s="33">
         <f t="shared" si="1"/>
-        <v>NA</v>
+        <v>2.3993055555555552E-2</v>
       </c>
       <c r="AN11" s="31"/>
       <c r="AO11" s="34"/>
@@ -3866,11 +4064,15 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="33" t="str">
+      <c r="AZ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="34">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="BB11" s="33">
         <f t="shared" si="6"/>
-        <v>NA</v>
+        <v>1.3032407407407406E-2</v>
       </c>
       <c r="BC11" s="31"/>
       <c r="BD11" s="32"/>
@@ -3884,11 +4086,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33" t="str">
+      <c r="BI11" s="31">
+        <v>39</v>
+      </c>
+      <c r="BJ11" s="34">
+        <v>5.0810185185185186E-3</v>
+      </c>
+      <c r="BK11" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>1.0995370370370369E-3</v>
       </c>
       <c r="BL11" s="31"/>
       <c r="BM11" s="34"/>
@@ -3902,11 +4108,13 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="31"/>
+      <c r="BR11" s="102">
+        <v>4.6018518518518514E-2</v>
+      </c>
       <c r="BS11" s="32"/>
-      <c r="BT11" s="33" t="str">
+      <c r="BT11" s="33">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>-3.9814814814814817E-3</v>
       </c>
       <c r="BU11" s="31"/>
       <c r="BV11" s="32"/>
@@ -3914,11 +4122,15 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="41"/>
-      <c r="BY11" s="57"/>
-      <c r="BZ11" s="33" t="str">
+      <c r="BX11" s="41">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="57">
+        <v>4.3518518518518515E-3</v>
+      </c>
+      <c r="BZ11" s="33">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>3.7037037037036986E-4</v>
       </c>
       <c r="CA11" s="31"/>
       <c r="CB11" s="34"/>
@@ -3956,11 +4168,15 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="33" t="str">
+      <c r="CS11" s="31">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="34">
+        <v>4.1655092592592598E-2</v>
+      </c>
+      <c r="CU11" s="33">
         <f t="shared" si="21"/>
-        <v>NA</v>
+        <v>3.7673611111111116E-2</v>
       </c>
       <c r="CV11" s="31"/>
       <c r="CW11" s="34"/>
@@ -3968,9 +4184,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="35"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB11" s="35"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
         <v>151</v>
       </c>
@@ -3984,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E5</v>
       </c>
       <c r="F12" s="97">
@@ -4020,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q12" s="101" t="s">
@@ -4036,27 +4258,43 @@
         <v>188</v>
       </c>
       <c r="U12" s="97"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="V12" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W12" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X12" s="20">
+        <v>3.425925925925926E-3</v>
+      </c>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20"/>
+        <f t="shared" si="26"/>
+        <v>3.9143518518518522E-2</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>3.8657407407407408E-3</v>
+      </c>
       <c r="AD12" s="20"/>
       <c r="AE12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+        <v>3.5277777777777783E-2</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>100</v>
+      </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
+      <c r="AI12" s="29">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="30">
+        <v>4</v>
+      </c>
       <c r="AK12" s="31"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="33" t="str">
@@ -4069,11 +4307,15 @@
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="33" t="str">
+      <c r="AQ12" s="31">
+        <v>13</v>
+      </c>
+      <c r="AR12" s="34">
+        <v>2.0439814814814817E-2</v>
+      </c>
+      <c r="AS12" s="33">
         <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>1.6574074074074074E-2</v>
       </c>
       <c r="AT12" s="31"/>
       <c r="AU12" s="32"/>
@@ -4105,11 +4347,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="33" t="str">
+      <c r="BI12" s="31">
+        <v>9</v>
+      </c>
+      <c r="BJ12" s="34">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="BK12" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="BL12" s="31"/>
       <c r="BM12" s="32"/>
@@ -4153,11 +4399,15 @@
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="33" t="str">
+      <c r="CG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="CH12" s="71">
+        <v>2.9953703703703705E-2</v>
+      </c>
+      <c r="CI12" s="33">
         <f t="shared" si="17"/>
-        <v>NA</v>
+        <v>2.6087962962962966E-2</v>
       </c>
       <c r="CJ12" s="31"/>
       <c r="CK12" s="71"/>
@@ -4189,9 +4439,19 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY12" s="35"/>
+      <c r="CY12" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ12" s="71">
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="DA12" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="DB12" s="35"/>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
         <v>153</v>
       </c>
@@ -4205,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L2</v>
       </c>
       <c r="F13" s="97">
@@ -4241,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.11805555555555552</v>
       </c>
       <c r="Q13" s="101" t="s">
@@ -4257,38 +4517,58 @@
         <v>188</v>
       </c>
       <c r="U13" s="97"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
+      <c r="V13" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W13" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X13" s="20">
+        <v>9.2592592592592605E-3</v>
+      </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.4976851851851851E-2</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="AD13" s="20"/>
       <c r="AE13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
+        <v>3.9421296296296295E-2</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG13" s="21">
+        <v>60</v>
+      </c>
       <c r="AH13" s="22"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="30"/>
+      <c r="AI13" s="29">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="30">
+        <v>7</v>
+      </c>
       <c r="AK13" s="31"/>
       <c r="AL13" s="34"/>
       <c r="AM13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33" t="str">
+      <c r="AN13" s="31">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="34">
+        <v>5.8680555555555543E-3</v>
+      </c>
+      <c r="AP13" s="33">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>3.1249999999999854E-4</v>
       </c>
       <c r="AQ13" s="31"/>
       <c r="AR13" s="32"/>
@@ -4314,23 +4594,35 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33" t="str">
+      <c r="BC13" s="31">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="34">
+        <v>3.3680555555555554E-2</v>
+      </c>
+      <c r="BE13" s="33">
         <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="33" t="str">
+        <v>2.8124999999999997E-2</v>
+      </c>
+      <c r="BF13" s="31">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="34">
+        <v>3.3692129629629627E-2</v>
+      </c>
+      <c r="BH13" s="33">
         <f t="shared" si="8"/>
-        <v>NA</v>
-      </c>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="33" t="str">
+        <v>2.8136574074074071E-2</v>
+      </c>
+      <c r="BI13" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ13" s="34">
+        <v>8.6342592592592599E-3</v>
+      </c>
+      <c r="BK13" s="33">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>3.0787037037037042E-3</v>
       </c>
       <c r="BL13" s="31"/>
       <c r="BM13" s="32"/>
@@ -4350,17 +4642,25 @@
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="33" t="str">
+      <c r="BU13" s="31">
+        <v>3</v>
+      </c>
+      <c r="BV13" s="34">
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="BW13" s="33">
         <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="57"/>
-      <c r="BZ13" s="33" t="str">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="BX13" s="41">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="57">
+        <v>9.7916666666666655E-3</v>
+      </c>
+      <c r="BZ13" s="33">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>4.2361111111111098E-3</v>
       </c>
       <c r="CA13" s="31"/>
       <c r="CB13" s="32"/>
@@ -4381,7 +4681,7 @@
         <v>NA</v>
       </c>
       <c r="CJ13" s="31"/>
-      <c r="CK13" s="34"/>
+      <c r="CK13" s="32"/>
       <c r="CL13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
@@ -4393,7 +4693,7 @@
         <v>NA</v>
       </c>
       <c r="CP13" s="31"/>
-      <c r="CQ13" s="32"/>
+      <c r="CQ13" s="34"/>
       <c r="CR13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -4410,9 +4710,19 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="35"/>
+      <c r="CY13" s="31">
+        <v>2</v>
+      </c>
+      <c r="CZ13" s="34">
+        <v>5.6365740740740742E-3</v>
+      </c>
+      <c r="DA13" s="33">
+        <f t="shared" si="23"/>
+        <v>8.1018518518518462E-5</v>
+      </c>
+      <c r="DB13" s="35"/>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
         <v>153</v>
       </c>
@@ -4426,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F14" s="97">
@@ -4462,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1159722222222222</v>
       </c>
       <c r="Q14" s="101" t="s">
@@ -4478,49 +4788,67 @@
         <v>188</v>
       </c>
       <c r="U14" s="97"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="V14" s="19">
+        <v>2.0937499999999998E-2</v>
+      </c>
+      <c r="W14" s="20">
+        <v>2.148148148148148E-2</v>
+      </c>
+      <c r="X14" s="20">
+        <v>2.449074074074074E-2</v>
+      </c>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
+        <f t="shared" si="26"/>
+        <v>6.6909722222222218E-2</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>1.8831018518518518E-2</v>
+      </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="26">AB14-AC14-AD14</f>
-        <v>0</v>
+        <f t="shared" ref="AE14:AE22" si="27">AB14-AC14-AD14</f>
+        <v>4.1828703703703701E-2</v>
       </c>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
       <c r="AH14" s="22"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
-        <v>NA</v>
+      <c r="AI14" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="30">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="34">
+        <v>2.732638888888889E-2</v>
+      </c>
+      <c r="AM14" s="33">
+        <f t="shared" ref="AM14:AM22" si="28">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <v>2.1076388888888891E-2</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="29">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31"/>
       <c r="AR14" s="32"/>
       <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="30">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="31">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -4532,43 +4860,51 @@
       <c r="AZ14" s="31"/>
       <c r="BA14" s="34"/>
       <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="32">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="31"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
-        <v>NA</v>
+        <f t="shared" ref="BE14:BE22" si="33">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF14" s="31">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="34">
+        <v>2.4201388888888887E-2</v>
+      </c>
+      <c r="BH14" s="33">
+        <f t="shared" ref="BH14:BH22" si="34">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <v>1.7951388888888888E-2</v>
+      </c>
+      <c r="BI14" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ14" s="34">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="BK14" s="33">
+        <f t="shared" ref="BK14:BK22" si="35">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <v>1.7881944444444447E-2</v>
       </c>
       <c r="BL14" s="31"/>
       <c r="BM14" s="32"/>
       <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="36">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="37">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="34"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="38">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="31"/>
@@ -4628,12 +4964,18 @@
       <c r="CV14" s="31"/>
       <c r="CW14" s="32"/>
       <c r="CX14" s="33" t="str">
-        <f t="shared" ref="CX14:CX22" si="38">IF(CV14=0,"NA",CW14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY14" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="32"/>
+      <c r="DA14" s="33" t="str">
+        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB14" s="35"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
         <v>153</v>
       </c>
@@ -4647,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F15" s="97">
@@ -4683,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.5833333333333381E-2</v>
       </c>
       <c r="Q15" s="101" t="s">
@@ -4706,13 +5048,13 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21"/>
@@ -4723,25 +5065,25 @@
       <c r="AK15" s="31"/>
       <c r="AL15" s="34"/>
       <c r="AM15" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN15" s="31"/>
       <c r="AO15" s="32"/>
       <c r="AP15" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ15" s="31"/>
       <c r="AR15" s="32"/>
       <c r="AS15" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -4753,43 +5095,43 @@
       <c r="AZ15" s="31"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="34"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="31"/>
       <c r="BJ15" s="32"/>
       <c r="BK15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="31"/>
       <c r="BM15" s="32"/>
       <c r="BN15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="31"/>
       <c r="BS15" s="34"/>
       <c r="BT15" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU15" s="31"/>
@@ -4849,12 +5191,18 @@
       <c r="CV15" s="31"/>
       <c r="CW15" s="32"/>
       <c r="CX15" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY15" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="32"/>
+      <c r="DA15" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB15" s="35"/>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>153</v>
       </c>
@@ -4868,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F16" s="97">
@@ -4904,7 +5252,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.8888888888888851E-2</v>
       </c>
       <c r="Q16" s="101" t="s">
@@ -4927,13 +5275,13 @@
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF16" s="21"/>
@@ -4944,25 +5292,25 @@
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -4974,43 +5322,43 @@
       <c r="AZ16" s="31"/>
       <c r="BA16" s="34"/>
       <c r="BB16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
       <c r="BH16" s="57" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="41"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="31"/>
       <c r="BM16" s="32"/>
       <c r="BN16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="31"/>
       <c r="BS16" s="57"/>
       <c r="BT16" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU16" s="31"/>
@@ -5070,12 +5418,18 @@
       <c r="CV16" s="31"/>
       <c r="CW16" s="34"/>
       <c r="CX16" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY16" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="34"/>
+      <c r="DA16" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="35"/>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
         <v>153</v>
       </c>
@@ -5089,7 +5443,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E6</v>
       </c>
       <c r="F17" s="97">
@@ -5125,7 +5479,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q17" s="101" t="s">
@@ -5143,49 +5497,65 @@
       <c r="U17" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="V17" s="19">
+        <v>1.832175925925926E-2</v>
+      </c>
+      <c r="W17" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X17" s="20">
+        <v>8.6458333333333335E-3</v>
+      </c>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.4826388888888888E-2</v>
+      </c>
+      <c r="AC17" s="20">
+        <v>3.8194444444444443E-3</v>
+      </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.1006944444444443E-2</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>25</v>
+      </c>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
+      <c r="AI17" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="30">
+        <v>3</v>
+      </c>
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -5194,47 +5564,55 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+      <c r="AZ17" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="34">
+        <v>1.5416666666666667E-2</v>
+      </c>
+      <c r="BB17" s="33">
+        <f t="shared" si="32"/>
+        <v>1.1597222222222222E-2</v>
       </c>
       <c r="BC17" s="31"/>
       <c r="BD17" s="34"/>
       <c r="BE17" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="41"/>
       <c r="BJ17" s="34"/>
       <c r="BK17" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="41"/>
       <c r="BM17" s="34"/>
       <c r="BN17" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
+      </c>
+      <c r="BR17" s="31">
+        <v>6</v>
+      </c>
+      <c r="BS17" s="34">
+        <v>4.0509259259259257E-3</v>
+      </c>
+      <c r="BT17" s="33">
+        <f t="shared" si="38"/>
+        <v>2.3148148148148138E-4</v>
       </c>
       <c r="BU17" s="31"/>
       <c r="BV17" s="32"/>
@@ -5254,11 +5632,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CD17" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE17" s="34">
+        <v>1.0937500000000001E-2</v>
+      </c>
+      <c r="CF17" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>7.1180555555555563E-3</v>
       </c>
       <c r="CG17" s="31"/>
       <c r="CH17" s="34"/>
@@ -5293,12 +5675,18 @@
       <c r="CV17" s="31"/>
       <c r="CW17" s="34"/>
       <c r="CX17" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY17" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY17" s="31"/>
+      <c r="CZ17" s="34"/>
+      <c r="DA17" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB17" s="35"/>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
         <v>155</v>
       </c>
@@ -5312,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D2</v>
       </c>
       <c r="F18" s="97">
@@ -5348,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1152777777777777</v>
       </c>
       <c r="Q18" s="101" t="s">
@@ -5364,49 +5752,73 @@
         <v>188</v>
       </c>
       <c r="U18" s="97"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
+      <c r="V18" s="19">
+        <v>2.3321759259259261E-2</v>
+      </c>
+      <c r="W18" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X18" s="20">
+        <v>3.483796296296296E-3</v>
+      </c>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="20"/>
+        <f t="shared" si="26"/>
+        <v>4.4664351851851851E-2</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>4.1666666666666666E-3</v>
+      </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
+        <f t="shared" si="27"/>
+        <v>4.0497685185185185E-2</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>70</v>
+      </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>NA</v>
-      </c>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="33" t="str">
+      <c r="AI18" s="29">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="30">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="34">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="AM18" s="33">
         <f t="shared" si="28"/>
-        <v>NA</v>
+        <v>2.1122685185185185E-2</v>
+      </c>
+      <c r="AN18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="34">
+        <v>2.3252314814814812E-2</v>
+      </c>
+      <c r="AP18" s="33">
+        <f t="shared" si="29"/>
+        <v>1.9085648148148147E-2</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -5415,47 +5827,59 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>NA</v>
+      <c r="AZ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="34">
+        <v>3.1828703703703706E-2</v>
+      </c>
+      <c r="BB18" s="33">
+        <f t="shared" si="32"/>
+        <v>2.7662037037037041E-2</v>
       </c>
       <c r="BC18" s="31"/>
       <c r="BD18" s="34"/>
       <c r="BE18" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
-      </c>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
+      </c>
+      <c r="BI18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="34">
+        <v>2.6643518518518521E-2</v>
+      </c>
+      <c r="BK18" s="33">
+        <f t="shared" si="35"/>
+        <v>2.2476851851851855E-2</v>
       </c>
       <c r="BL18" s="31"/>
       <c r="BM18" s="34"/>
       <c r="BN18" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
+      </c>
+      <c r="BR18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="34">
+        <v>3.5891203703703703E-2</v>
+      </c>
+      <c r="BT18" s="33">
+        <f t="shared" si="38"/>
+        <v>3.1724537037037037E-2</v>
       </c>
       <c r="BU18" s="31"/>
       <c r="BV18" s="32"/>
@@ -5469,17 +5893,25 @@
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="33" t="str">
+      <c r="CA18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="34">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="CC18" s="33">
         <f t="shared" si="15"/>
-        <v>NA</v>
-      </c>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="33" t="str">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="CD18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="34">
+        <v>1.7534722222222222E-2</v>
+      </c>
+      <c r="CF18" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>1.3368055555555557E-2</v>
       </c>
       <c r="CG18" s="31"/>
       <c r="CH18" s="34"/>
@@ -5514,12 +5946,22 @@
       <c r="CV18" s="31"/>
       <c r="CW18" s="34"/>
       <c r="CX18" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY18" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY18" s="31">
+        <v>4</v>
+      </c>
+      <c r="CZ18" s="34">
+        <v>1.3587962962962963E-2</v>
+      </c>
+      <c r="DA18" s="33">
+        <f t="shared" si="39"/>
+        <v>9.4212962962962957E-3</v>
+      </c>
+      <c r="DB18" s="35"/>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
         <v>155</v>
       </c>
@@ -5533,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D3</v>
       </c>
       <c r="F19" s="97">
@@ -5569,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q19" s="101" t="s">
@@ -5592,13 +6034,13 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF19" s="21"/>
@@ -5609,25 +6051,25 @@
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31"/>
       <c r="AO19" s="34"/>
       <c r="AP19" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -5639,43 +6081,43 @@
       <c r="AZ19" s="31"/>
       <c r="BA19" s="34"/>
       <c r="BB19" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="31"/>
       <c r="BJ19" s="34"/>
       <c r="BK19" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="31"/>
       <c r="BM19" s="34"/>
       <c r="BN19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="31"/>
       <c r="BS19" s="32"/>
       <c r="BT19" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="31"/>
@@ -5735,12 +6177,18 @@
       <c r="CV19" s="31"/>
       <c r="CW19" s="34"/>
       <c r="CX19" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY19" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="34"/>
+      <c r="DA19" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB19" s="35"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
         <v>155</v>
       </c>
@@ -5754,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E2</v>
       </c>
       <c r="F20" s="97">
@@ -5790,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q20" s="101" t="s">
@@ -5813,13 +6261,13 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF20" s="21"/>
@@ -5830,25 +6278,25 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31"/>
       <c r="AO20" s="34"/>
       <c r="AP20" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -5860,43 +6308,43 @@
       <c r="AZ20" s="31"/>
       <c r="BA20" s="34"/>
       <c r="BB20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="31"/>
       <c r="BJ20" s="34"/>
       <c r="BK20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="31"/>
       <c r="BM20" s="34"/>
       <c r="BN20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="31"/>
@@ -5956,12 +6404,18 @@
       <c r="CV20" s="31"/>
       <c r="CW20" s="34"/>
       <c r="CX20" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY20" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY20" s="31"/>
+      <c r="CZ20" s="34"/>
+      <c r="DA20" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB20" s="35"/>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
         <v>155</v>
       </c>
@@ -5975,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E3</v>
       </c>
       <c r="F21" s="97">
@@ -6011,7 +6465,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="Q21" s="101" t="s">
@@ -6034,13 +6488,13 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF21" s="21"/>
@@ -6051,25 +6505,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -6081,43 +6535,43 @@
       <c r="AZ21" s="31"/>
       <c r="BA21" s="34"/>
       <c r="BB21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC21" s="31"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="31"/>
       <c r="BJ21" s="57"/>
       <c r="BK21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL21" s="31"/>
       <c r="BM21" s="32"/>
       <c r="BN21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="31"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="31"/>
@@ -6169,7 +6623,7 @@
         <v>NA</v>
       </c>
       <c r="CS21" s="31"/>
-      <c r="CT21" s="57"/>
+      <c r="CT21" s="32"/>
       <c r="CU21" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
@@ -6177,12 +6631,18 @@
       <c r="CV21" s="31"/>
       <c r="CW21" s="57"/>
       <c r="CX21" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY21" s="35"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY21" s="31"/>
+      <c r="CZ21" s="57"/>
+      <c r="DA21" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB21" s="35"/>
     </row>
-    <row r="22" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="99" t="s">
         <v>155</v>
       </c>
@@ -6196,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E1</v>
       </c>
       <c r="F22" s="11">
@@ -6232,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -6255,13 +6715,13 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
       <c r="AE22" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AF22" s="24"/>
@@ -6272,25 +6732,25 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -6302,43 +6762,43 @@
       <c r="AZ22" s="38"/>
       <c r="BA22" s="40"/>
       <c r="BB22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BC22" s="38"/>
       <c r="BD22" s="85"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="38"/>
       <c r="BJ22" s="40"/>
       <c r="BK22" s="42" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BL22" s="38"/>
       <c r="BM22" s="85"/>
       <c r="BN22" s="42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="38"/>
@@ -6384,7 +6844,7 @@
         <v>NA</v>
       </c>
       <c r="CP22" s="38"/>
-      <c r="CQ22" s="40"/>
+      <c r="CQ22" s="85"/>
       <c r="CR22" s="42" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -6398,10 +6858,16 @@
       <c r="CV22" s="38"/>
       <c r="CW22" s="40"/>
       <c r="CX22" s="42" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="CY22" s="39"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY22" s="38"/>
+      <c r="CZ22" s="40"/>
+      <c r="DA22" s="42" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DF0424-DFFE-40DD-9D51-881BB579C5A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EAEA2-C587-429A-8C27-4CC28CA92410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,10 +1352,10 @@
   <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CF17" sqref="CF17"/>
+      <selection pane="bottomRight" activeCell="BS12" sqref="BS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1375,6 +1375,7 @@
     <col min="55" max="55" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.7265625" style="73"/>
     <col min="76" max="76" width="8.7265625" style="73"/>
     <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
@@ -1592,7 +1593,7 @@
       <c r="BQ1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="83" t="s">
+      <c r="BR1" s="84" t="s">
         <v>117</v>
       </c>
       <c r="BS1" s="27" t="s">
@@ -1881,7 +1882,7 @@
         <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BR2" s="59"/>
+      <c r="BR2" s="102"/>
       <c r="BS2" s="74"/>
       <c r="BT2" s="33" t="str">
         <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
@@ -2142,7 +2143,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="31"/>
+      <c r="BR3" s="41"/>
       <c r="BS3" s="32"/>
       <c r="BT3" s="33" t="str">
         <f t="shared" si="12"/>
@@ -2379,7 +2380,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31"/>
+      <c r="BR4" s="41"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="33" t="str">
         <f t="shared" si="12"/>
@@ -2608,7 +2609,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31"/>
+      <c r="BR5" s="41"/>
       <c r="BS5" s="32"/>
       <c r="BT5" s="33" t="str">
         <f t="shared" si="12"/>
@@ -2849,7 +2850,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31"/>
+      <c r="BR6" s="41"/>
       <c r="BS6" s="32"/>
       <c r="BT6" s="33" t="str">
         <f t="shared" si="12"/>
@@ -3096,7 +3097,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="31"/>
+      <c r="BR7" s="41"/>
       <c r="BS7" s="32"/>
       <c r="BT7" s="33" t="str">
         <f t="shared" si="12"/>
@@ -3357,7 +3358,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="31"/>
+      <c r="BR8" s="41"/>
       <c r="BS8" s="32"/>
       <c r="BT8" s="33" t="str">
         <f t="shared" si="12"/>
@@ -3616,7 +3617,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="31"/>
+      <c r="BR9" s="41"/>
       <c r="BS9" s="32"/>
       <c r="BT9" s="33" t="str">
         <f t="shared" si="12"/>
@@ -3849,7 +3850,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="31"/>
+      <c r="BR10" s="41"/>
       <c r="BS10" s="32"/>
       <c r="BT10" s="33" t="str">
         <f t="shared" si="12"/>
@@ -4108,13 +4109,15 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="102">
-        <v>4.6018518518518514E-2</v>
-      </c>
-      <c r="BS11" s="32"/>
+      <c r="BR11" s="41">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="71">
+        <v>4.3518518518518515E-3</v>
+      </c>
       <c r="BT11" s="33">
         <f t="shared" si="12"/>
-        <v>-3.9814814814814817E-3</v>
+        <v>3.7037037037036986E-4</v>
       </c>
       <c r="BU11" s="31"/>
       <c r="BV11" s="32"/>
@@ -4369,7 +4372,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="31"/>
+      <c r="BR12" s="41"/>
       <c r="BS12" s="32"/>
       <c r="BT12" s="33" t="str">
         <f t="shared" si="12"/>
@@ -4636,7 +4639,7 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="31"/>
+      <c r="BR13" s="41"/>
       <c r="BS13" s="34"/>
       <c r="BT13" s="33" t="str">
         <f t="shared" si="12"/>
@@ -4901,7 +4904,7 @@
         <f t="shared" ref="BQ14:BQ22" si="37">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
-      <c r="BR14" s="31"/>
+      <c r="BR14" s="41"/>
       <c r="BS14" s="34"/>
       <c r="BT14" s="33" t="str">
         <f t="shared" ref="BT14:BT22" si="38">IF(BR14=0,"NA",BS14-$AC14)</f>
@@ -5128,7 +5131,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="31"/>
+      <c r="BR15" s="41"/>
       <c r="BS15" s="34"/>
       <c r="BT15" s="33" t="str">
         <f t="shared" si="38"/>
@@ -5355,7 +5358,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="31"/>
+      <c r="BR16" s="41"/>
       <c r="BS16" s="57"/>
       <c r="BT16" s="33" t="str">
         <f t="shared" si="38"/>
@@ -5604,7 +5607,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="31">
+      <c r="BR17" s="41">
         <v>6</v>
       </c>
       <c r="BS17" s="34">
@@ -5871,7 +5874,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="31">
+      <c r="BR18" s="41">
         <v>1</v>
       </c>
       <c r="BS18" s="34">
@@ -6114,7 +6117,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="31"/>
+      <c r="BR19" s="41"/>
       <c r="BS19" s="32"/>
       <c r="BT19" s="33" t="str">
         <f t="shared" si="38"/>
@@ -6341,7 +6344,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR20" s="31"/>
+      <c r="BR20" s="41"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
         <f t="shared" si="38"/>
@@ -6568,7 +6571,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="31"/>
+      <c r="BR21" s="41"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
         <f t="shared" si="38"/>
@@ -6795,7 +6798,7 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR22" s="38"/>
+      <c r="BR22" s="86"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
         <f t="shared" si="38"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EAEA2-C587-429A-8C27-4CC28CA92410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EF54E-C9B0-4707-A494-E20288F6B44A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11270" yWindow="2800" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="207">
   <si>
     <t>DATE</t>
   </si>
@@ -500,9 +500,6 @@
     <t>TOMPOTANA</t>
   </si>
   <si>
-    <t>28/02/20204</t>
-  </si>
-  <si>
     <t>CNEW</t>
   </si>
   <si>
@@ -651,6 +648,12 @@
   </si>
   <si>
     <t>T1_YELLOWSTRIPE</t>
+  </si>
+  <si>
+    <t>28/04/20204</t>
+  </si>
+  <si>
+    <t>FOOTAGE SHORT. MAYBE CHECK IF BEGINNING CAN BE USED</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,6 +1072,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,10 +1356,10 @@
   <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AF6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS12" sqref="BS12"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,13 +1643,13 @@
         <v>125</v>
       </c>
       <c r="CG1" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CI1" s="60" t="s">
         <v>204</v>
-      </c>
-      <c r="CI1" s="60" t="s">
-        <v>205</v>
       </c>
       <c r="CJ1" s="83" t="s">
         <v>132</v>
@@ -1684,13 +1688,13 @@
         <v>143</v>
       </c>
       <c r="CV1" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CW1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="CX1" s="60" t="s">
         <v>200</v>
-      </c>
-      <c r="CX1" s="60" t="s">
-        <v>201</v>
       </c>
       <c r="CY1" s="83" t="s">
         <v>12</v>
@@ -1749,7 +1753,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O2" s="95">
         <v>4</v>
@@ -1759,10 +1763,10 @@
         <v>0.11180555555555549</v>
       </c>
       <c r="Q2" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2" s="95" t="s">
         <v>179</v>
-      </c>
-      <c r="R2" s="95" t="s">
-        <v>180</v>
       </c>
       <c r="S2" s="95">
         <v>0.27</v>
@@ -2008,7 +2012,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O3" s="97">
         <v>4</v>
@@ -2018,10 +2022,10 @@
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R3" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S3" s="97">
         <v>0.26</v>
@@ -2269,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O4" s="97">
         <v>3</v>
@@ -2279,10 +2283,10 @@
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R4" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S4" s="97">
         <v>0.26</v>
@@ -2291,7 +2295,7 @@
         <v>149</v>
       </c>
       <c r="U4" s="97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V4" s="19"/>
       <c r="W4" s="20"/>
@@ -2475,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" s="101">
         <v>0.54166666666666663</v>
@@ -2498,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O5" s="97">
         <v>4</v>
@@ -2508,10 +2512,10 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q5" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R5" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S5" s="97">
         <v>0.26</v>
@@ -2520,7 +2524,7 @@
         <v>149</v>
       </c>
       <c r="U5" s="97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V5" s="19"/>
       <c r="W5" s="20"/>
@@ -2727,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="N6" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O6" s="97">
         <v>2</v>
@@ -2737,10 +2741,10 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="Q6" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S6" s="97">
         <v>0.24</v>
@@ -2972,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O7" s="97">
         <v>3</v>
@@ -2982,10 +2986,10 @@
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q7" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R7" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S7" s="97">
         <v>0.24</v>
@@ -3220,10 +3224,10 @@
         <v>29</v>
       </c>
       <c r="M8" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="97" t="s">
         <v>163</v>
-      </c>
-      <c r="N8" s="97" t="s">
-        <v>164</v>
       </c>
       <c r="O8" s="97">
         <v>3</v>
@@ -3233,19 +3237,19 @@
         <v>0.27013888888888887</v>
       </c>
       <c r="Q8" s="101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" s="97">
         <v>0.21</v>
       </c>
       <c r="T8" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" s="97" t="s">
         <v>188</v>
-      </c>
-      <c r="U8" s="97" t="s">
-        <v>189</v>
       </c>
       <c r="V8" s="19">
         <v>2.1354166666666664E-2</v>
@@ -3481,10 +3485,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N9" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O9" s="97">
         <v>3</v>
@@ -3494,19 +3498,19 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="Q9" s="101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R9" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S9" s="97">
         <v>0.21</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U9" s="97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V9" s="19">
         <v>2.5914351851851855E-2</v>
@@ -3739,7 +3743,7 @@
         <v>37</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O10" s="97">
         <v>3</v>
@@ -3749,19 +3753,19 @@
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="Q10" s="101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R10" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S10" s="97">
         <v>0.23</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U10" s="97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V10" s="19"/>
       <c r="W10" s="20"/>
@@ -3945,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="101">
         <v>0.44166666666666665</v>
@@ -3968,7 +3972,7 @@
         <v>62</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O11" s="97">
         <v>4</v>
@@ -3978,16 +3982,16 @@
         <v>6.8749999999999978E-2</v>
       </c>
       <c r="Q11" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R11" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S11" s="97">
         <v>0.23</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U11" s="97"/>
       <c r="V11" s="19">
@@ -4239,7 +4243,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O12" s="97">
         <v>3</v>
@@ -4249,16 +4253,16 @@
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q12" s="101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S12" s="97">
         <v>0.25</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U12" s="97"/>
       <c r="V12" s="19">
@@ -4498,7 +4502,7 @@
         <v>50</v>
       </c>
       <c r="N13" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O13" s="97">
         <v>3</v>
@@ -4508,16 +4512,16 @@
         <v>0.11805555555555552</v>
       </c>
       <c r="Q13" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R13" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S13" s="97">
         <v>0.24</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U13" s="97"/>
       <c r="V13" s="19">
@@ -4769,7 +4773,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O14" s="97">
         <v>4</v>
@@ -4779,16 +4783,16 @@
         <v>0.1159722222222222</v>
       </c>
       <c r="Q14" s="101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R14" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S14" s="97">
         <v>0.24</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U14" s="97"/>
       <c r="V14" s="19">
@@ -5022,7 +5026,7 @@
         <v>70</v>
       </c>
       <c r="N15" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O15" s="97">
         <v>3</v>
@@ -5032,50 +5036,76 @@
         <v>9.5833333333333381E-2</v>
       </c>
       <c r="Q15" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="R15" s="97" t="s">
         <v>179</v>
-      </c>
-      <c r="R15" s="97" t="s">
-        <v>180</v>
       </c>
       <c r="S15" s="97">
         <v>0.24</v>
       </c>
       <c r="T15" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U15" s="97"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
+      <c r="V15" s="19">
+        <v>2.1261574074074075E-2</v>
+      </c>
+      <c r="W15" s="20">
+        <v>2.8761574074074075E-2</v>
+      </c>
+      <c r="X15" s="20">
+        <v>5.9027777777777776E-3</v>
+      </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
+        <v>5.5925925925925928E-2</v>
+      </c>
+      <c r="AC15" s="20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD15" s="20">
+        <v>5.9027777777777776E-3</v>
+      </c>
       <c r="AE15" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
+        <v>4.5023148148148152E-2</v>
+      </c>
+      <c r="AF15" s="103">
+        <v>80</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>70</v>
+      </c>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="33" t="str">
+      <c r="AI15" s="29">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="34">
+        <v>3.6354166666666667E-2</v>
+      </c>
+      <c r="AM15" s="33">
         <f t="shared" si="28"/>
-        <v>NA</v>
-      </c>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33" t="str">
+        <v>3.1354166666666669E-2</v>
+      </c>
+      <c r="AN15" s="31">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="34">
+        <v>8.3912037037037045E-3</v>
+      </c>
+      <c r="AP15" s="33">
         <f t="shared" si="29"/>
-        <v>NA</v>
+        <v>3.3912037037037044E-3</v>
       </c>
       <c r="AQ15" s="31"/>
       <c r="AR15" s="32"/>
@@ -5113,11 +5143,15 @@
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="33" t="str">
+      <c r="BI15" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ15" s="34">
+        <v>1.0300925925925927E-2</v>
+      </c>
+      <c r="BK15" s="33">
         <f t="shared" si="35"/>
-        <v>NA</v>
+        <v>5.3009259259259268E-3</v>
       </c>
       <c r="BL15" s="31"/>
       <c r="BM15" s="32"/>
@@ -5131,11 +5165,15 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="41"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="33" t="str">
+      <c r="BR15" s="41">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="34">
+        <v>3.8310185185185183E-2</v>
+      </c>
+      <c r="BT15" s="33">
         <f t="shared" si="38"/>
-        <v>NA</v>
+        <v>3.3310185185185186E-2</v>
       </c>
       <c r="BU15" s="31"/>
       <c r="BV15" s="71"/>
@@ -5191,11 +5229,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="31"/>
-      <c r="CW15" s="32"/>
-      <c r="CX15" s="33" t="str">
+      <c r="CV15" s="31">
+        <v>2</v>
+      </c>
+      <c r="CW15" s="71">
+        <v>8.0208333333333329E-3</v>
+      </c>
+      <c r="CX15" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
+        <v>3.0208333333333328E-3</v>
       </c>
       <c r="CY15" s="31"/>
       <c r="CZ15" s="32"/>
@@ -5226,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="101">
         <v>0.42708333333333331</v>
@@ -5249,7 +5291,7 @@
         <v>71</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O16" s="97">
         <v>6</v>
@@ -5259,16 +5301,16 @@
         <v>8.8888888888888851E-2</v>
       </c>
       <c r="Q16" s="101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S16" s="97">
         <v>0.24</v>
       </c>
       <c r="T16" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" s="97"/>
       <c r="V16" s="19"/>
@@ -5476,7 +5518,7 @@
         <v>41</v>
       </c>
       <c r="N17" s="97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O17" s="97">
         <v>3</v>
@@ -5486,19 +5528,19 @@
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q17" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R17" s="97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S17" s="97">
         <v>0.26</v>
       </c>
       <c r="T17" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U17" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V17" s="19">
         <v>1.832175925925926E-2</v>
@@ -5691,7 +5733,7 @@
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>154</v>
@@ -5733,7 +5775,7 @@
         <v>41</v>
       </c>
       <c r="N18" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O18" s="97">
         <v>3</v>
@@ -5743,16 +5785,16 @@
         <v>0.1152777777777777</v>
       </c>
       <c r="Q18" s="101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R18" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S18" s="97">
         <v>0.32</v>
       </c>
       <c r="T18" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U18" s="97"/>
       <c r="V18" s="19">
@@ -5966,7 +6008,7 @@
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>154</v>
@@ -6008,7 +6050,7 @@
         <v>53</v>
       </c>
       <c r="N19" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O19" s="97">
         <v>3</v>
@@ -6018,50 +6060,70 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q19" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R19" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S19" s="97">
         <v>0.32</v>
       </c>
       <c r="T19" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U19" s="97"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
+      <c r="V19" s="19">
+        <v>1.9571759259259257E-2</v>
+      </c>
+      <c r="W19" s="20">
+        <v>1.9872685185185184E-2</v>
+      </c>
+      <c r="X19" s="20">
+        <v>6.5046296296296302E-3</v>
+      </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="20"/>
+        <v>4.5949074074074073E-2</v>
+      </c>
+      <c r="AC19" s="20">
+        <v>4.108796296296297E-3</v>
+      </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+        <v>4.1840277777777775E-2</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>80</v>
+      </c>
       <c r="AH19" s="22"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="30"/>
+      <c r="AI19" s="29">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>5</v>
+      </c>
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="33" t="str">
+      <c r="AN19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>9.6064814814814815E-3</v>
+      </c>
+      <c r="AP19" s="33">
         <f t="shared" si="29"/>
-        <v>NA</v>
+        <v>5.4976851851851844E-3</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
@@ -6099,11 +6161,15 @@
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="33" t="str">
+      <c r="BI19" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ19" s="34">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="BK19" s="33">
         <f t="shared" si="35"/>
-        <v>NA</v>
+        <v>9.8379629629629511E-4</v>
       </c>
       <c r="BL19" s="31"/>
       <c r="BM19" s="34"/>
@@ -6117,11 +6183,15 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="41"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="33" t="str">
+      <c r="BR19" s="41">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="34">
+        <v>1.0231481481481482E-2</v>
+      </c>
+      <c r="BT19" s="33">
         <f t="shared" si="38"/>
-        <v>NA</v>
+        <v>6.122685185185185E-3</v>
       </c>
       <c r="BU19" s="31"/>
       <c r="BV19" s="32"/>
@@ -6177,11 +6247,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="31"/>
-      <c r="CW19" s="34"/>
-      <c r="CX19" s="33" t="str">
+      <c r="CV19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CW19" s="34">
+        <v>3.5196759259259254E-2</v>
+      </c>
+      <c r="CX19" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
+        <v>3.1087962962962956E-2</v>
       </c>
       <c r="CY19" s="31"/>
       <c r="CZ19" s="34"/>
@@ -6193,7 +6267,7 @@
     </row>
     <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>154</v>
@@ -6235,7 +6309,7 @@
         <v>73</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O20" s="97">
         <v>3</v>
@@ -6245,50 +6319,72 @@
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q20" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R20" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S20" s="97">
         <v>0.34</v>
       </c>
       <c r="T20" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U20" s="97"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
+      <c r="V20" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W20" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X20" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
+        <v>5.3576388888888889E-2</v>
+      </c>
+      <c r="AC20" s="20">
+        <v>3.9930555555555561E-3</v>
+      </c>
+      <c r="AD20" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AE20" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
+        <v>4.2638888888888893E-2</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>100</v>
+      </c>
       <c r="AH20" s="22"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
+      <c r="AI20" s="29">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="30">
+        <v>3</v>
+      </c>
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="33" t="str">
+      <c r="AN20" s="31">
+        <v>16</v>
+      </c>
+      <c r="AO20" s="34">
+        <v>2.344907407407407E-2</v>
+      </c>
+      <c r="AP20" s="33">
         <f t="shared" si="29"/>
-        <v>NA</v>
+        <v>1.9456018518518515E-2</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
@@ -6326,11 +6422,15 @@
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="33" t="str">
+      <c r="BI20" s="31">
+        <v>17</v>
+      </c>
+      <c r="BJ20" s="34">
+        <v>3.9930555555555561E-3</v>
+      </c>
+      <c r="BK20" s="33">
         <f t="shared" si="35"/>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="31"/>
       <c r="BM20" s="34"/>
@@ -6404,11 +6504,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="31"/>
-      <c r="CW20" s="34"/>
-      <c r="CX20" s="33" t="str">
+      <c r="CV20" s="31">
+        <v>1</v>
+      </c>
+      <c r="CW20" s="34">
+        <v>1.6793981481481483E-2</v>
+      </c>
+      <c r="CX20" s="33">
         <f t="shared" si="22"/>
-        <v>NA</v>
+        <v>1.2800925925925927E-2</v>
       </c>
       <c r="CY20" s="31"/>
       <c r="CZ20" s="34"/>
@@ -6420,7 +6524,7 @@
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>154</v>
@@ -6439,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H21" s="101">
         <v>0.54652777777777783</v>
@@ -6462,7 +6566,7 @@
         <v>62</v>
       </c>
       <c r="N21" s="97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O21" s="97">
         <v>3</v>
@@ -6472,39 +6576,57 @@
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="Q21" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R21" s="97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S21" s="97">
         <v>0.34</v>
       </c>
       <c r="T21" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U21" s="97"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
+      <c r="V21" s="78">
+        <v>1.5891203703703703E-2</v>
+      </c>
+      <c r="W21" s="79">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X21" s="79">
+        <v>3.1134259259259257E-3</v>
+      </c>
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="80"/>
+        <v>3.3865740740740738E-2</v>
+      </c>
+      <c r="AC21" s="80">
+        <v>4.1666666666666666E-3</v>
+      </c>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
+        <v>2.9699074074074072E-2</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>90</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI21" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="30">
+        <v>3</v>
+      </c>
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
@@ -6553,11 +6675,15 @@
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="33" t="str">
+      <c r="BI21" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="57">
+        <v>3.2858796296296296E-2</v>
+      </c>
+      <c r="BK21" s="33">
         <f t="shared" si="35"/>
-        <v>NA</v>
+        <v>2.869212962962963E-2</v>
       </c>
       <c r="BL21" s="31"/>
       <c r="BM21" s="32"/>
@@ -6571,11 +6697,15 @@
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="41"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="33" t="str">
+      <c r="BR21" s="41">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="34">
+        <v>2.1956018518518517E-2</v>
+      </c>
+      <c r="BT21" s="33">
         <f t="shared" si="38"/>
-        <v>NA</v>
+        <v>1.7789351851851851E-2</v>
       </c>
       <c r="BU21" s="31"/>
       <c r="BV21" s="32"/>
@@ -6595,11 +6725,15 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="33" t="str">
+      <c r="CD21" s="31">
+        <v>2</v>
+      </c>
+      <c r="CE21" s="34">
+        <v>1.7615740740740741E-2</v>
+      </c>
+      <c r="CF21" s="33">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>1.3449074074074075E-2</v>
       </c>
       <c r="CG21" s="31"/>
       <c r="CH21" s="32"/>
@@ -6647,7 +6781,7 @@
     </row>
     <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="99" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>154</v>
@@ -6689,7 +6823,7 @@
         <v>80</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22" s="11">
         <v>3</v>
@@ -6699,16 +6833,16 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S22" s="11">
         <v>0.36</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="81"/>
@@ -6957,13 +7091,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D226-4FD3-43E7-AD2C-117D056F41E4}">
   <dimension ref="A1:CW22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1"/>
     <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EF54E-C9B0-4707-A494-E20288F6B44A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC0723-C43C-4D37-A281-DCD791CAE7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11270" yWindow="2800" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>FOOTAGE SHORT. MAYBE CHECK IF BEGINNING CAN BE USED</t>
+  </si>
+  <si>
+    <t>MAXN_YELLOWGUPPY</t>
+  </si>
+  <si>
+    <t>TIME_1STYELLOWGUPPY</t>
+  </si>
+  <si>
+    <t>T1_YELLOWGUPPY</t>
+  </si>
+  <si>
+    <t>MAXN_CHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>TIME_1STCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>T1_CHEETAGIRLZ</t>
   </si>
 </sst>
 </file>
@@ -1353,13 +1371,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DB22"/>
+  <dimension ref="A1:DH30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AF6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="BH9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
+      <selection pane="bottomRight" activeCell="BH31" sqref="BH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,20 +1394,21 @@
     <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.7265625" style="73"/>
-    <col min="76" max="76" width="8.7265625" style="73"/>
-    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.7265625" style="73"/>
+    <col min="79" max="79" width="8.7265625" style="73"/>
+    <col min="81" max="81" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,172 +1563,190 @@
         <v>131</v>
       </c>
       <c r="AZ1" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA1" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB1" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="60" t="s">
+      <c r="BE1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="83" t="s">
+      <c r="BF1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BH1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="83" t="s">
+      <c r="BI1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BJ1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="60" t="s">
+      <c r="BK1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="83" t="s">
+      <c r="BL1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BM1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="60" t="s">
+      <c r="BN1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="83" t="s">
+      <c r="BO1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BP1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="60" t="s">
+      <c r="BQ1" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="83" t="s">
+      <c r="BR1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="27" t="s">
+      <c r="BS1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="60" t="s">
+      <c r="BT1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="84" t="s">
+      <c r="BU1" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="27" t="s">
+      <c r="BV1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="60" t="s">
+      <c r="BW1" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="83" t="s">
+      <c r="BX1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="27" t="s">
+      <c r="BY1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="60" t="s">
+      <c r="BZ1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="84" t="s">
+      <c r="CA1" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="CB1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="60" t="s">
+      <c r="CC1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="CA1" s="83" t="s">
+      <c r="CD1" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" s="27" t="s">
+      <c r="CE1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" s="60" t="s">
+      <c r="CF1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" s="83" t="s">
+      <c r="CG1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CH1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CI1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CJ1" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="CK1" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="CL1" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM1" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CO1" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CP1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CR1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CS1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CU1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CV1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CX1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CY1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="DA1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="DB1" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="DC1" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="DD1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" s="83" t="s">
+      <c r="DE1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DA1" s="60" t="s">
+      <c r="DG1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="28" t="s">
+      <c r="DH1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
         <v>147</v>
       </c>
@@ -1849,7 +1886,7 @@
       <c r="AZ2" s="59"/>
       <c r="BA2" s="58"/>
       <c r="BB2" s="33" t="str">
-        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
+        <f t="shared" ref="BB2:BB22" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BC2" s="59"/>
@@ -1864,21 +1901,21 @@
         <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BI2" s="59">
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="58"/>
+      <c r="BK2" s="33" t="str">
+        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BL2" s="59">
         <v>10</v>
       </c>
-      <c r="BJ2" s="72">
+      <c r="BM2" s="72">
         <v>8.8310185185185176E-3</v>
       </c>
-      <c r="BK2" s="33">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
+      <c r="BN2" s="33">
+        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
         <v>5.0347222222222217E-3</v>
-      </c>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="33" t="str">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
-        <v>NA</v>
       </c>
       <c r="BO2" s="59"/>
       <c r="BP2" s="58"/>
@@ -1886,33 +1923,33 @@
         <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="74"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="58"/>
       <c r="BT2" s="33" t="str">
         <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="58"/>
+      <c r="BU2" s="102"/>
+      <c r="BV2" s="74"/>
       <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="41">
+        <f t="shared" ref="BW2:BW13" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BX2" s="59"/>
+      <c r="BY2" s="58"/>
+      <c r="BZ2" s="33" t="str">
+        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CA2" s="41">
         <v>1</v>
       </c>
-      <c r="BY2" s="57">
+      <c r="CB2" s="57">
         <v>2.1270833333333332</v>
       </c>
-      <c r="BZ2" s="33">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+      <c r="CC2" s="33">
+        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
         <v>2.1232870370370369</v>
-      </c>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="33" t="str">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
       </c>
       <c r="CD2" s="59"/>
       <c r="CE2" s="72"/>
@@ -1956,19 +1993,31 @@
         <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CY2" s="59">
+      <c r="CY2" s="59"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="33" t="str">
+        <f t="shared" ref="DA2:DA22" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB2" s="59"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="33" t="str">
+        <f t="shared" ref="DD2:DD22" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DE2" s="59">
         <v>3</v>
       </c>
-      <c r="CZ2" s="72">
+      <c r="DF2" s="72">
         <v>2.2129629629629628E-2</v>
       </c>
-      <c r="DA2" s="33">
-        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+      <c r="DG2" s="33">
+        <f t="shared" ref="DG2:DG13" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="DB2" s="35"/>
+      <c r="DH2" s="35"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
         <v>147</v>
       </c>
@@ -1982,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="26">C3&amp;""&amp;D3</f>
         <v>L6</v>
       </c>
       <c r="F3" s="97">
@@ -2018,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="25">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="27">I3-H3</f>
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="Q3" s="101" t="s">
@@ -2047,7 +2096,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="26">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="28">SUM(V3:AA3)</f>
         <v>6.008101851851852E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2125,21 +2174,21 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31">
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="BL3" s="31">
         <v>2</v>
       </c>
-      <c r="BJ3" s="34">
+      <c r="BM3" s="34">
         <v>2.8749999999999998E-2</v>
       </c>
-      <c r="BK3" s="33">
-        <f t="shared" si="9"/>
+      <c r="BN3" s="33">
+        <f t="shared" si="10"/>
         <v>2.4745370370370369E-2</v>
-      </c>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
       </c>
       <c r="BO3" s="31"/>
       <c r="BP3" s="32"/>
@@ -2147,26 +2196,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="41"/>
+      <c r="BR3" s="31"/>
       <c r="BS3" s="32"/>
       <c r="BT3" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="31"/>
+      <c r="BU3" s="41"/>
       <c r="BV3" s="32"/>
       <c r="BW3" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="57"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="32"/>
       <c r="BZ3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="32"/>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="57"/>
       <c r="CC3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2207,29 +2256,41 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="31">
+      <c r="CV3" s="31"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB3" s="31">
         <v>2</v>
       </c>
-      <c r="CW3" s="34">
+      <c r="DC3" s="34">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="CX3" s="33">
-        <f t="shared" si="22"/>
+      <c r="DD3" s="33">
+        <f t="shared" si="24"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="CY3" s="31">
+      <c r="DE3" s="31">
         <v>4</v>
       </c>
-      <c r="CZ3" s="34">
+      <c r="DF3" s="34">
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="DA3" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG3" s="33">
+        <f t="shared" si="25"/>
         <v>4.0509259259259231E-4</v>
       </c>
-      <c r="DB3" s="35"/>
+      <c r="DH3" s="35"/>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A4" s="96" t="s">
         <v>147</v>
       </c>
@@ -2243,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L5</v>
       </c>
       <c r="F4" s="97">
@@ -2279,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="Q4" s="101" t="s">
@@ -2304,7 +2365,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC4" s="20"/>
@@ -2361,7 +2422,7 @@
         <v>NA</v>
       </c>
       <c r="BF4" s="31"/>
-      <c r="BG4" s="34"/>
+      <c r="BG4" s="32"/>
       <c r="BH4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
@@ -2373,7 +2434,7 @@
         <v>NA</v>
       </c>
       <c r="BL4" s="31"/>
-      <c r="BM4" s="32"/>
+      <c r="BM4" s="34"/>
       <c r="BN4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
@@ -2384,26 +2445,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="41"/>
+      <c r="BR4" s="31"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="31"/>
+      <c r="BU4" s="41"/>
       <c r="BV4" s="32"/>
       <c r="BW4" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="57"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="32"/>
       <c r="BZ4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="34"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="57"/>
       <c r="CC4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2456,9 +2517,21 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB4" s="35"/>
+      <c r="DB4" s="31"/>
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE4" s="31"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH4" s="35"/>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A5" s="96" t="s">
         <v>147</v>
       </c>
@@ -2472,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="F5" s="97">
@@ -2508,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q5" s="101" t="s">
@@ -2533,7 +2606,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2613,26 +2686,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="41"/>
+      <c r="BR5" s="31"/>
       <c r="BS5" s="32"/>
       <c r="BT5" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="31"/>
+      <c r="BU5" s="41"/>
       <c r="BV5" s="32"/>
       <c r="BW5" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="57"/>
+      <c r="BX5" s="31"/>
+      <c r="BY5" s="32"/>
       <c r="BZ5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="32"/>
+      <c r="CA5" s="41"/>
+      <c r="CB5" s="57"/>
       <c r="CC5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2685,9 +2758,21 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB5" s="35"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="32"/>
+      <c r="DD5" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="32"/>
+      <c r="DG5" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH5" s="35"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A6" s="96" t="s">
         <v>147</v>
       </c>
@@ -2701,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L4</v>
       </c>
       <c r="F6" s="97">
@@ -2737,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="Q6" s="101" t="s">
@@ -2764,7 +2849,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.2187500000000003E-2</v>
       </c>
       <c r="AC6" s="20">
@@ -2854,26 +2939,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="41"/>
+      <c r="BR6" s="31"/>
       <c r="BS6" s="32"/>
       <c r="BT6" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="31"/>
+      <c r="BU6" s="41"/>
       <c r="BV6" s="32"/>
       <c r="BW6" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="57"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="32"/>
       <c r="BZ6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="32"/>
+      <c r="CA6" s="41"/>
+      <c r="CB6" s="57"/>
       <c r="CC6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -2920,19 +3005,31 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="31">
+      <c r="CY6" s="31"/>
+      <c r="CZ6" s="32"/>
+      <c r="DA6" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB6" s="31"/>
+      <c r="DC6" s="32"/>
+      <c r="DD6" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE6" s="31">
         <v>3</v>
       </c>
-      <c r="CZ6" s="34">
+      <c r="DF6" s="34">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="DA6" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG6" s="33">
+        <f t="shared" si="25"/>
         <v>1.7361111111111223E-4</v>
       </c>
-      <c r="DB6" s="35"/>
+      <c r="DH6" s="35"/>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A7" s="96" t="s">
         <v>147</v>
       </c>
@@ -2946,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D6</v>
       </c>
       <c r="F7" s="97">
@@ -2982,7 +3079,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q7" s="101" t="s">
@@ -3011,7 +3108,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.0115740740740743E-2</v>
       </c>
       <c r="AC7" s="20">
@@ -3101,26 +3198,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="41"/>
+      <c r="BR7" s="31"/>
       <c r="BS7" s="32"/>
       <c r="BT7" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="31"/>
+      <c r="BU7" s="41"/>
       <c r="BV7" s="32"/>
       <c r="BW7" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="57"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="32"/>
       <c r="BZ7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="32"/>
+      <c r="CA7" s="41"/>
+      <c r="CB7" s="57"/>
       <c r="CC7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3161,29 +3258,41 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="31">
+      <c r="CV7" s="31"/>
+      <c r="CW7" s="32"/>
+      <c r="CX7" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="32"/>
+      <c r="DA7" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB7" s="31">
         <v>1</v>
       </c>
-      <c r="CW7" s="34">
+      <c r="DC7" s="34">
         <v>1.0567129629629629E-2</v>
       </c>
-      <c r="CX7" s="33">
-        <f t="shared" si="22"/>
+      <c r="DD7" s="33">
+        <f t="shared" si="24"/>
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="CY7" s="31">
+      <c r="DE7" s="31">
         <v>4</v>
       </c>
-      <c r="CZ7" s="34">
+      <c r="DF7" s="34">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="DA7" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG7" s="33">
+        <f t="shared" si="25"/>
         <v>1.8865740740740744E-3</v>
       </c>
-      <c r="DB7" s="35"/>
+      <c r="DH7" s="35"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
         <v>151</v>
       </c>
@@ -3197,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="F8" s="97">
@@ -3233,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.27013888888888887</v>
       </c>
       <c r="Q8" s="101" t="s">
@@ -3264,7 +3373,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.4374999999999998E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3362,26 +3471,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="41"/>
+      <c r="BR8" s="31"/>
       <c r="BS8" s="32"/>
       <c r="BT8" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="31"/>
+      <c r="BU8" s="41"/>
       <c r="BV8" s="32"/>
       <c r="BW8" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="57"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="32"/>
       <c r="BZ8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
+      <c r="CA8" s="41"/>
+      <c r="CB8" s="57"/>
       <c r="CC8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3417,34 +3526,46 @@
         <v>NA</v>
       </c>
       <c r="CS8" s="31"/>
-      <c r="CT8" s="71"/>
+      <c r="CT8" s="32"/>
       <c r="CU8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="31">
+      <c r="CV8" s="31"/>
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY8" s="31"/>
+      <c r="CZ8" s="71"/>
+      <c r="DA8" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB8" s="31">
         <v>3</v>
       </c>
-      <c r="CW8" s="71">
+      <c r="DC8" s="71">
         <v>4.0856481481481481E-3</v>
       </c>
-      <c r="CX8" s="33">
-        <f t="shared" si="22"/>
+      <c r="DD8" s="33">
+        <f t="shared" si="24"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="CY8" s="31">
+      <c r="DE8" s="31">
         <v>1</v>
       </c>
-      <c r="CZ8" s="71">
+      <c r="DF8" s="71">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="DA8" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG8" s="33">
+        <f t="shared" si="25"/>
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="DB8" s="35"/>
+      <c r="DH8" s="35"/>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
         <v>151</v>
       </c>
@@ -3458,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L5</v>
       </c>
       <c r="F9" s="97">
@@ -3494,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.26944444444444443</v>
       </c>
       <c r="Q9" s="101" t="s">
@@ -3525,7 +3646,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0324074074074072E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3604,13 +3725,13 @@
         <v>NA</v>
       </c>
       <c r="BI9" s="31"/>
-      <c r="BJ9" s="34"/>
+      <c r="BJ9" s="32"/>
       <c r="BK9" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL9" s="31"/>
-      <c r="BM9" s="32"/>
+      <c r="BM9" s="34"/>
       <c r="BN9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
@@ -3621,26 +3742,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="41"/>
+      <c r="BR9" s="31"/>
       <c r="BS9" s="32"/>
       <c r="BT9" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="31"/>
+      <c r="BU9" s="41"/>
       <c r="BV9" s="32"/>
       <c r="BW9" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="57"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="32"/>
       <c r="BZ9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
+      <c r="CA9" s="41"/>
+      <c r="CB9" s="57"/>
       <c r="CC9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3676,30 +3797,42 @@
         <v>NA</v>
       </c>
       <c r="CS9" s="31"/>
-      <c r="CT9" s="57"/>
+      <c r="CT9" s="32"/>
       <c r="CU9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV9" s="31"/>
-      <c r="CW9" s="57"/>
+      <c r="CW9" s="32"/>
       <c r="CX9" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="31">
+      <c r="CY9" s="31"/>
+      <c r="CZ9" s="57"/>
+      <c r="DA9" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB9" s="31"/>
+      <c r="DC9" s="57"/>
+      <c r="DD9" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE9" s="31">
         <v>2</v>
       </c>
-      <c r="CZ9" s="57">
+      <c r="DF9" s="57">
         <v>1.7141203703703704E-2</v>
       </c>
-      <c r="DA9" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG9" s="33">
+        <f t="shared" si="25"/>
         <v>1.2511574074074074E-2</v>
       </c>
-      <c r="DB9" s="35"/>
+      <c r="DH9" s="35"/>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
         <v>151</v>
       </c>
@@ -3713,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="F10" s="97">
@@ -3749,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="Q10" s="101" t="s">
@@ -3774,7 +3907,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC10" s="20"/>
@@ -3854,26 +3987,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="41"/>
+      <c r="BR10" s="31"/>
       <c r="BS10" s="32"/>
       <c r="BT10" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="31"/>
+      <c r="BU10" s="41"/>
       <c r="BV10" s="32"/>
       <c r="BW10" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="57"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="32"/>
       <c r="BZ10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="34"/>
+      <c r="CA10" s="41"/>
+      <c r="CB10" s="57"/>
       <c r="CC10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -3926,9 +4059,21 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB10" s="35"/>
+      <c r="DB10" s="31"/>
+      <c r="DC10" s="34"/>
+      <c r="DD10" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE10" s="31"/>
+      <c r="DF10" s="34"/>
+      <c r="DG10" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH10" s="35"/>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
         <v>151</v>
       </c>
@@ -3942,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E4</v>
       </c>
       <c r="F11" s="97">
@@ -3978,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.8749999999999978E-2</v>
       </c>
       <c r="Q11" s="101" t="s">
@@ -4009,7 +4154,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.7280092592592591E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -4069,81 +4214,81 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31">
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BC11" s="31">
         <v>1</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BD11" s="34">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="BB11" s="33">
-        <f t="shared" si="6"/>
+      <c r="BE11" s="33">
+        <f t="shared" si="7"/>
         <v>1.3032407407407406E-2</v>
       </c>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
       <c r="BF11" s="31"/>
-      <c r="BG11" s="34"/>
+      <c r="BG11" s="32"/>
       <c r="BH11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31">
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="BL11" s="31">
         <v>39</v>
       </c>
-      <c r="BJ11" s="34">
+      <c r="BM11" s="34">
         <v>5.0810185185185186E-3</v>
       </c>
-      <c r="BK11" s="33">
-        <f t="shared" si="9"/>
+      <c r="BN11" s="33">
+        <f t="shared" si="10"/>
         <v>1.0995370370370369E-3</v>
       </c>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
       <c r="BO11" s="31"/>
-      <c r="BP11" s="32"/>
+      <c r="BP11" s="34"/>
       <c r="BQ11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="41">
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="33" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU11" s="41">
         <v>1</v>
       </c>
-      <c r="BS11" s="71">
+      <c r="BV11" s="71">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="BT11" s="33">
-        <f t="shared" si="12"/>
+      <c r="BW11" s="33">
+        <f t="shared" si="13"/>
         <v>3.7037037037036986E-4</v>
       </c>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX11" s="41">
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="CA11" s="41">
         <v>1</v>
       </c>
-      <c r="BY11" s="57">
+      <c r="CB11" s="57">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="BZ11" s="33">
-        <f t="shared" si="14"/>
+      <c r="CC11" s="33">
+        <f t="shared" si="15"/>
         <v>3.7037037037036986E-4</v>
-      </c>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>NA</v>
       </c>
       <c r="CD11" s="31"/>
       <c r="CE11" s="34"/>
@@ -4175,15 +4320,11 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31">
-        <v>1</v>
-      </c>
-      <c r="CT11" s="34">
-        <v>4.1655092592592598E-2</v>
-      </c>
-      <c r="CU11" s="33">
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="33" t="str">
         <f t="shared" si="21"/>
-        <v>3.7673611111111116E-2</v>
+        <v>NA</v>
       </c>
       <c r="CV11" s="31"/>
       <c r="CW11" s="34"/>
@@ -4191,15 +4332,31 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="31"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33" t="str">
+      <c r="CY11" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="34">
+        <v>4.1655092592592598E-2</v>
+      </c>
+      <c r="DA11" s="33">
         <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB11" s="35"/>
+        <v>3.7673611111111116E-2</v>
+      </c>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="34"/>
+      <c r="DD11" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH11" s="35"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
         <v>151</v>
       </c>
@@ -4213,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E5</v>
       </c>
       <c r="F12" s="97">
@@ -4249,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q12" s="101" t="s">
@@ -4278,7 +4435,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9143518518518522E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4354,21 +4511,21 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31">
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="BL12" s="31">
         <v>9</v>
       </c>
-      <c r="BJ12" s="34">
+      <c r="BM12" s="34">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="BK12" s="33">
-        <f t="shared" si="9"/>
+      <c r="BN12" s="33">
+        <f t="shared" si="10"/>
         <v>4.6296296296296016E-5</v>
-      </c>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
       </c>
       <c r="BO12" s="31"/>
       <c r="BP12" s="32"/>
@@ -4376,26 +4533,26 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="41"/>
+      <c r="BR12" s="31"/>
       <c r="BS12" s="32"/>
       <c r="BT12" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="31"/>
+      <c r="BU12" s="41"/>
       <c r="BV12" s="32"/>
       <c r="BW12" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="57"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="32"/>
       <c r="BZ12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="71"/>
+      <c r="CA12" s="41"/>
+      <c r="CB12" s="57"/>
       <c r="CC12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -4406,15 +4563,11 @@
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31">
-        <v>1</v>
-      </c>
-      <c r="CH12" s="71">
-        <v>2.9953703703703705E-2</v>
-      </c>
-      <c r="CI12" s="33">
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="71"/>
+      <c r="CI12" s="33" t="str">
         <f t="shared" si="17"/>
-        <v>2.6087962962962966E-2</v>
+        <v>NA</v>
       </c>
       <c r="CJ12" s="31"/>
       <c r="CK12" s="71"/>
@@ -4422,11 +4575,15 @@
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="33" t="str">
+      <c r="CM12" s="31">
+        <v>1</v>
+      </c>
+      <c r="CN12" s="71">
+        <v>2.9953703703703705E-2</v>
+      </c>
+      <c r="CO12" s="33">
         <f t="shared" si="19"/>
-        <v>NA</v>
+        <v>2.6087962962962966E-2</v>
       </c>
       <c r="CP12" s="31"/>
       <c r="CQ12" s="71"/>
@@ -4446,19 +4603,31 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY12" s="31">
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="71"/>
+      <c r="DA12" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="71"/>
+      <c r="DD12" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE12" s="31">
         <v>1</v>
       </c>
-      <c r="CZ12" s="71">
+      <c r="DF12" s="71">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="DA12" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG12" s="33">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="DB12" s="35"/>
+      <c r="DH12" s="35"/>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
         <v>153</v>
       </c>
@@ -4472,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L2</v>
       </c>
       <c r="F13" s="97">
@@ -4508,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.11805555555555552</v>
       </c>
       <c r="Q13" s="101" t="s">
@@ -4537,7 +4706,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.4976851851851851E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4601,41 +4770,41 @@
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="34">
-        <v>3.3680555555555554E-2</v>
-      </c>
-      <c r="BE13" s="33">
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>2.8124999999999997E-2</v>
+        <v>NA</v>
       </c>
       <c r="BF13" s="31">
         <v>1</v>
       </c>
       <c r="BG13" s="34">
-        <v>3.3692129629629627E-2</v>
+        <v>3.3680555555555554E-2</v>
       </c>
       <c r="BH13" s="33">
         <f t="shared" si="8"/>
-        <v>2.8136574074074071E-2</v>
+        <v>2.8124999999999997E-2</v>
       </c>
       <c r="BI13" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ13" s="34">
-        <v>8.6342592592592599E-3</v>
+        <v>3.3692129629629627E-2</v>
       </c>
       <c r="BK13" s="33">
         <f t="shared" si="9"/>
+        <v>2.8136574074074071E-2</v>
+      </c>
+      <c r="BL13" s="31">
+        <v>2</v>
+      </c>
+      <c r="BM13" s="34">
+        <v>8.6342592592592599E-3</v>
+      </c>
+      <c r="BN13" s="33">
+        <f t="shared" si="10"/>
         <v>3.0787037037037042E-3</v>
-      </c>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
       </c>
       <c r="BO13" s="31"/>
       <c r="BP13" s="32"/>
@@ -4643,37 +4812,37 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="41"/>
-      <c r="BS13" s="34"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="32"/>
       <c r="BT13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="31">
+      <c r="BU13" s="41"/>
+      <c r="BV13" s="34"/>
+      <c r="BW13" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX13" s="31">
         <v>3</v>
       </c>
-      <c r="BV13" s="34">
+      <c r="BY13" s="34">
         <v>8.8888888888888889E-3</v>
-      </c>
-      <c r="BW13" s="33">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="BX13" s="41">
-        <v>1</v>
-      </c>
-      <c r="BY13" s="57">
-        <v>9.7916666666666655E-3</v>
       </c>
       <c r="BZ13" s="33">
         <f t="shared" si="14"/>
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="CA13" s="41">
+        <v>1</v>
+      </c>
+      <c r="CB13" s="57">
+        <v>9.7916666666666655E-3</v>
+      </c>
+      <c r="CC13" s="33">
+        <f t="shared" si="15"/>
         <v>4.2361111111111098E-3</v>
-      </c>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="33" t="str">
-        <f t="shared" si="15"/>
-        <v>NA</v>
       </c>
       <c r="CD13" s="31"/>
       <c r="CE13" s="32"/>
@@ -4694,42 +4863,54 @@
         <v>NA</v>
       </c>
       <c r="CM13" s="31"/>
-      <c r="CN13" s="34"/>
+      <c r="CN13" s="32"/>
       <c r="CO13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
       <c r="CP13" s="31"/>
-      <c r="CQ13" s="34"/>
+      <c r="CQ13" s="32"/>
       <c r="CR13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
       <c r="CS13" s="31"/>
-      <c r="CT13" s="32"/>
+      <c r="CT13" s="34"/>
       <c r="CU13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV13" s="31"/>
-      <c r="CW13" s="32"/>
+      <c r="CW13" s="34"/>
       <c r="CX13" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="31">
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="32"/>
+      <c r="DA13" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="32"/>
+      <c r="DD13" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE13" s="31">
         <v>2</v>
       </c>
-      <c r="CZ13" s="34">
+      <c r="DF13" s="34">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="DA13" s="33">
-        <f t="shared" si="23"/>
+      <c r="DG13" s="33">
+        <f t="shared" si="25"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="DB13" s="35"/>
+      <c r="DH13" s="35"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
         <v>153</v>
       </c>
@@ -4743,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L1</v>
       </c>
       <c r="F14" s="97">
@@ -4779,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1159722222222222</v>
       </c>
       <c r="Q14" s="101" t="s">
@@ -4808,7 +4989,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.6909722222222218E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4818,7 +4999,7 @@
         <v>1.8831018518518518E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="27">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="29">AB14-AC14-AD14</f>
         <v>4.1828703703703701E-2</v>
       </c>
       <c r="AF14" s="21"/>
@@ -4837,25 +5018,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="AM14" s="33">
-        <f t="shared" ref="AM14:AM22" si="28">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="30">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>2.1076388888888891E-2</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="29">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="31">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31"/>
       <c r="AR14" s="32"/>
       <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="30">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="32">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="31">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="33">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -4867,67 +5048,67 @@
       <c r="AZ14" s="31"/>
       <c r="BA14" s="34"/>
       <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="32">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC14" s="31"/>
-      <c r="BD14" s="32"/>
+      <c r="BD14" s="34"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="33">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31">
+        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="33" t="str">
+        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BI14" s="31">
         <v>1</v>
       </c>
-      <c r="BG14" s="34">
+      <c r="BJ14" s="34">
         <v>2.4201388888888887E-2</v>
       </c>
-      <c r="BH14" s="33">
-        <f t="shared" ref="BH14:BH22" si="34">IF(BF14=0,"NA",BG14-$AC14)</f>
+      <c r="BK14" s="33">
+        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.7951388888888888E-2</v>
       </c>
-      <c r="BI14" s="31">
+      <c r="BL14" s="31">
         <v>2</v>
       </c>
-      <c r="BJ14" s="34">
+      <c r="BM14" s="34">
         <v>2.4131944444444445E-2</v>
       </c>
-      <c r="BK14" s="33">
-        <f t="shared" ref="BK14:BK22" si="35">IF(BI14=0,"NA",BJ14-$AC14)</f>
+      <c r="BN14" s="33">
+        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>1.7881944444444447E-2</v>
-      </c>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="36">IF(BL14=0,"NA",BM14-$AC14)</f>
-        <v>NA</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="37">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="41"/>
-      <c r="BS14" s="34"/>
+        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="32"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="38">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="31"/>
+        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU14" s="41"/>
       <c r="BV14" s="34"/>
       <c r="BW14" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="57"/>
+        <f t="shared" ref="BW14:BW22" si="40">IF(BU14=0,"NA",BV14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="34"/>
       <c r="BZ14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="32"/>
+      <c r="CA14" s="41"/>
+      <c r="CB14" s="57"/>
       <c r="CC14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -4977,12 +5158,24 @@
       <c r="CY14" s="31"/>
       <c r="CZ14" s="32"/>
       <c r="DA14" s="33" t="str">
-        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB14" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="32"/>
+      <c r="DD14" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="32"/>
+      <c r="DG14" s="33" t="str">
+        <f t="shared" ref="DG14:DG22" si="41">IF(DE14=0,"NA",DF14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DH14" s="35"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
         <v>153</v>
       </c>
@@ -4996,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>L3</v>
       </c>
       <c r="F15" s="97">
@@ -5032,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.5833333333333381E-2</v>
       </c>
       <c r="Q15" s="101" t="s">
@@ -5061,7 +5254,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.5925925925925928E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -5071,7 +5264,7 @@
         <v>5.9027777777777776E-3</v>
       </c>
       <c r="AE15" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF15" s="103">
@@ -5094,7 +5287,7 @@
         <v>3.6354166666666667E-2</v>
       </c>
       <c r="AM15" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1354166666666669E-2</v>
       </c>
       <c r="AN15" s="31">
@@ -5104,19 +5297,19 @@
         <v>8.3912037037037045E-3</v>
       </c>
       <c r="AP15" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.3912037037037044E-3</v>
       </c>
       <c r="AQ15" s="31"/>
       <c r="AR15" s="32"/>
       <c r="AS15" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -5128,67 +5321,67 @@
       <c r="AZ15" s="31"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
-      <c r="BG15" s="34"/>
+      <c r="BG15" s="32"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI15" s="31">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="33" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BL15" s="31">
         <v>2</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BM15" s="34">
         <v>1.0300925925925927E-2</v>
       </c>
-      <c r="BK15" s="33">
-        <f t="shared" si="35"/>
+      <c r="BN15" s="33">
+        <f t="shared" si="37"/>
         <v>5.3009259259259268E-3</v>
-      </c>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR15" s="41">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="32"/>
+      <c r="BT15" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU15" s="41">
         <v>1</v>
       </c>
-      <c r="BS15" s="34">
+      <c r="BV15" s="34">
         <v>3.8310185185185183E-2</v>
       </c>
-      <c r="BT15" s="33">
-        <f t="shared" si="38"/>
+      <c r="BW15" s="33">
+        <f t="shared" si="40"/>
         <v>3.3310185185185186E-2</v>
       </c>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="57"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="71"/>
       <c r="BZ15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="71"/>
+      <c r="CA15" s="41"/>
+      <c r="CB15" s="57"/>
       <c r="CC15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5200,7 +5393,7 @@
         <v>NA</v>
       </c>
       <c r="CG15" s="31"/>
-      <c r="CH15" s="32"/>
+      <c r="CH15" s="71"/>
       <c r="CI15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
@@ -5229,25 +5422,37 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="31">
-        <v>2</v>
-      </c>
-      <c r="CW15" s="71">
-        <v>8.0208333333333329E-3</v>
-      </c>
-      <c r="CX15" s="33">
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="32"/>
+      <c r="CX15" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>3.0208333333333328E-3</v>
+        <v>NA</v>
       </c>
       <c r="CY15" s="31"/>
       <c r="CZ15" s="32"/>
       <c r="DA15" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB15" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB15" s="31">
+        <v>2</v>
+      </c>
+      <c r="DC15" s="71">
+        <v>8.0208333333333329E-3</v>
+      </c>
+      <c r="DD15" s="33">
+        <f t="shared" si="24"/>
+        <v>3.0208333333333328E-3</v>
+      </c>
+      <c r="DE15" s="31"/>
+      <c r="DF15" s="32"/>
+      <c r="DG15" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH15" s="35"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>153</v>
       </c>
@@ -5261,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D1</v>
       </c>
       <c r="F16" s="97">
@@ -5297,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.8888888888888851E-2</v>
       </c>
       <c r="Q16" s="101" t="s">
@@ -5313,21 +5518,37 @@
         <v>187</v>
       </c>
       <c r="U16" s="97"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
+      <c r="V16" s="19">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="W16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="AB16" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
+        <f t="shared" si="28"/>
+        <v>8.9166666666666644E-2</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>4.1203703703703706E-3</v>
+      </c>
+      <c r="AD16" s="20">
+        <v>4.1111111111111112E-2</v>
+      </c>
       <c r="AE16" s="20">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>4.393518518518516E-2</v>
       </c>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -5337,25 +5558,25 @@
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -5367,59 +5588,67 @@
       <c r="AZ16" s="31"/>
       <c r="BA16" s="34"/>
       <c r="BB16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
-      <c r="BH16" s="57" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI16" s="41"/>
+      <c r="BH16" s="33" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI16" s="31"/>
       <c r="BJ16" s="34"/>
-      <c r="BK16" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="33" t="str">
+      <c r="BK16" s="57" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
+      </c>
+      <c r="BL16" s="41">
+        <v>10</v>
+      </c>
+      <c r="BM16" s="34">
+        <v>4.2476851851851851E-3</v>
+      </c>
+      <c r="BN16" s="33">
+        <f t="shared" si="37"/>
+        <v>1.2731481481481448E-4</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR16" s="41"/>
-      <c r="BS16" s="57"/>
-      <c r="BT16" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="32"/>
+      <c r="BR16" s="31">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="34">
+        <v>9.5486111111111101E-3</v>
+      </c>
+      <c r="BT16" s="33">
+        <f t="shared" si="39"/>
+        <v>5.4282407407407396E-3</v>
+      </c>
+      <c r="BU16" s="41"/>
+      <c r="BV16" s="57"/>
       <c r="BW16" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="32"/>
       <c r="BZ16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="34"/>
+      <c r="CA16" s="41"/>
+      <c r="CB16" s="57"/>
       <c r="CC16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -5469,12 +5698,24 @@
       <c r="CY16" s="31"/>
       <c r="CZ16" s="34"/>
       <c r="DA16" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB16" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="31"/>
+      <c r="DC16" s="34"/>
+      <c r="DD16" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE16" s="31"/>
+      <c r="DF16" s="34"/>
+      <c r="DG16" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH16" s="35"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
         <v>153</v>
       </c>
@@ -5488,7 +5729,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="F17" s="97">
@@ -5524,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q17" s="101" t="s">
@@ -5555,7 +5796,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.4826388888888888E-2</v>
       </c>
       <c r="AC17" s="20">
@@ -5563,7 +5804,7 @@
       </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.1006944444444443E-2</v>
       </c>
       <c r="AF17" s="21">
@@ -5582,25 +5823,25 @@
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -5609,89 +5850,93 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31">
+      <c r="AZ17" s="31"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BC17" s="31">
         <v>1</v>
       </c>
-      <c r="BA17" s="34">
+      <c r="BD17" s="34">
         <v>1.5416666666666667E-2</v>
       </c>
-      <c r="BB17" s="33">
-        <f t="shared" si="32"/>
+      <c r="BE17" s="33">
+        <f t="shared" si="34"/>
         <v>1.1597222222222222E-2</v>
-      </c>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI17" s="41"/>
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI17" s="31"/>
       <c r="BJ17" s="34"/>
       <c r="BK17" s="33" t="str">
-        <f t="shared" si="35"/>
-        <v>NA</v>
-      </c>
-      <c r="BL17" s="41"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
+      </c>
+      <c r="BL17" s="41">
+        <v>10</v>
+      </c>
+      <c r="BM17" s="34">
+        <v>4.2476851851851851E-3</v>
+      </c>
+      <c r="BN17" s="33">
+        <f t="shared" si="37"/>
+        <v>4.2824074074074075E-4</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR17" s="41">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR17" s="41"/>
+      <c r="BS17" s="34"/>
+      <c r="BT17" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU17" s="41">
         <v>6</v>
       </c>
-      <c r="BS17" s="34">
+      <c r="BV17" s="34">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="BT17" s="33">
-        <f t="shared" si="38"/>
+      <c r="BW17" s="33">
+        <f t="shared" si="40"/>
         <v>2.3148148148148138E-4</v>
       </c>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="32"/>
-      <c r="BW17" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX17" s="41"/>
-      <c r="BY17" s="57"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="32"/>
       <c r="BZ17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="34"/>
+      <c r="CA17" s="41"/>
+      <c r="CB17" s="57"/>
       <c r="CC17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31">
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="34"/>
+      <c r="CF17" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG17" s="31">
         <v>1</v>
       </c>
-      <c r="CE17" s="34">
+      <c r="CH17" s="34">
         <v>1.0937500000000001E-2</v>
       </c>
-      <c r="CF17" s="33">
-        <f t="shared" si="16"/>
+      <c r="CI17" s="33">
+        <f t="shared" si="17"/>
         <v>7.1180555555555563E-3</v>
-      </c>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ17" s="31"/>
       <c r="CK17" s="34"/>
@@ -5726,12 +5971,24 @@
       <c r="CY17" s="31"/>
       <c r="CZ17" s="34"/>
       <c r="DA17" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB17" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB17" s="31"/>
+      <c r="DC17" s="34"/>
+      <c r="DD17" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE17" s="31"/>
+      <c r="DF17" s="34"/>
+      <c r="DG17" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH17" s="35"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
         <v>205</v>
       </c>
@@ -5745,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D2</v>
       </c>
       <c r="F18" s="97">
@@ -5781,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1152777777777777</v>
       </c>
       <c r="Q18" s="101" t="s">
@@ -5810,7 +6067,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.4664351851851851E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -5818,7 +6075,7 @@
       </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.0497685185185185E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -5841,7 +6098,7 @@
         <v>2.5289351851851851E-2</v>
       </c>
       <c r="AM18" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.1122685185185185E-2</v>
       </c>
       <c r="AN18" s="31">
@@ -5851,19 +6108,19 @@
         <v>2.3252314814814812E-2</v>
       </c>
       <c r="AP18" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.9085648148148147E-2</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -5872,97 +6129,97 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31">
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>NA</v>
+      </c>
+      <c r="BC18" s="31">
         <v>1</v>
       </c>
-      <c r="BA18" s="34">
+      <c r="BD18" s="34">
         <v>3.1828703703703706E-2</v>
       </c>
-      <c r="BB18" s="33">
-        <f t="shared" si="32"/>
+      <c r="BE18" s="33">
+        <f t="shared" si="34"/>
         <v>2.7662037037037041E-2</v>
-      </c>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="33" t="str">
-        <f t="shared" si="33"/>
-        <v>NA</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI18" s="31">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="33" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BL18" s="31">
         <v>1</v>
       </c>
-      <c r="BJ18" s="34">
+      <c r="BM18" s="34">
         <v>2.6643518518518521E-2</v>
       </c>
-      <c r="BK18" s="33">
-        <f t="shared" si="35"/>
+      <c r="BN18" s="33">
+        <f t="shared" si="37"/>
         <v>2.2476851851851855E-2</v>
-      </c>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR18" s="41">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU18" s="41">
         <v>1</v>
       </c>
-      <c r="BS18" s="34">
+      <c r="BV18" s="34">
         <v>3.5891203703703703E-2</v>
       </c>
-      <c r="BT18" s="33">
-        <f t="shared" si="38"/>
+      <c r="BW18" s="33">
+        <f t="shared" si="40"/>
         <v>3.1724537037037037E-2</v>
       </c>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="57"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="32"/>
       <c r="BZ18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CB18" s="34">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="CC18" s="33">
+      <c r="CA18" s="41"/>
+      <c r="CB18" s="57"/>
+      <c r="CC18" s="33" t="str">
         <f t="shared" si="15"/>
-        <v>2.013888888888889E-2</v>
+        <v>NA</v>
       </c>
       <c r="CD18" s="31">
         <v>1</v>
       </c>
       <c r="CE18" s="34">
-        <v>1.7534722222222222E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="CF18" s="33">
         <f t="shared" si="16"/>
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="CG18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CH18" s="34">
+        <v>1.7534722222222222E-2</v>
+      </c>
+      <c r="CI18" s="33">
+        <f t="shared" si="17"/>
         <v>1.3368055555555557E-2</v>
-      </c>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ18" s="31"/>
       <c r="CK18" s="34"/>
@@ -5994,19 +6251,31 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY18" s="31">
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="34"/>
+      <c r="DA18" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB18" s="31"/>
+      <c r="DC18" s="34"/>
+      <c r="DD18" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE18" s="31">
         <v>4</v>
       </c>
-      <c r="CZ18" s="34">
+      <c r="DF18" s="34">
         <v>1.3587962962962963E-2</v>
       </c>
-      <c r="DA18" s="33">
-        <f t="shared" si="39"/>
+      <c r="DG18" s="33">
+        <f t="shared" si="41"/>
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="DB18" s="35"/>
+      <c r="DH18" s="35"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
         <v>205</v>
       </c>
@@ -6020,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>D3</v>
       </c>
       <c r="F19" s="97">
@@ -6056,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q19" s="101" t="s">
@@ -6085,7 +6354,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.5949074074074073E-2</v>
       </c>
       <c r="AC19" s="20">
@@ -6093,7 +6362,7 @@
       </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.1840277777777775E-2</v>
       </c>
       <c r="AF19" s="21">
@@ -6112,7 +6381,7 @@
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31">
@@ -6122,19 +6391,19 @@
         <v>9.6064814814814815E-3</v>
       </c>
       <c r="AP19" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.4976851851851844E-3</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -6146,67 +6415,67 @@
       <c r="AZ19" s="31"/>
       <c r="BA19" s="34"/>
       <c r="BB19" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI19" s="31">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="33" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BL19" s="31">
         <v>3</v>
       </c>
-      <c r="BJ19" s="34">
+      <c r="BM19" s="34">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="BK19" s="33">
-        <f t="shared" si="35"/>
+      <c r="BN19" s="33">
+        <f t="shared" si="37"/>
         <v>9.8379629629629511E-4</v>
-      </c>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR19" s="41">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="34"/>
+      <c r="BT19" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU19" s="41">
         <v>1</v>
       </c>
-      <c r="BS19" s="34">
+      <c r="BV19" s="34">
         <v>1.0231481481481482E-2</v>
       </c>
-      <c r="BT19" s="33">
-        <f t="shared" si="38"/>
+      <c r="BW19" s="33">
+        <f t="shared" si="40"/>
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX19" s="41"/>
-      <c r="BY19" s="57"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="32"/>
       <c r="BZ19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="34"/>
+      <c r="CA19" s="41"/>
+      <c r="CB19" s="57"/>
       <c r="CC19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -6247,25 +6516,37 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CW19" s="34">
-        <v>3.5196759259259254E-2</v>
-      </c>
-      <c r="CX19" s="33">
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="34"/>
+      <c r="CX19" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>3.1087962962962956E-2</v>
+        <v>NA</v>
       </c>
       <c r="CY19" s="31"/>
       <c r="CZ19" s="34"/>
       <c r="DA19" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB19" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB19" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC19" s="34">
+        <v>3.5196759259259254E-2</v>
+      </c>
+      <c r="DD19" s="33">
+        <f t="shared" si="24"/>
+        <v>3.1087962962962956E-2</v>
+      </c>
+      <c r="DE19" s="31"/>
+      <c r="DF19" s="34"/>
+      <c r="DG19" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH19" s="35"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
         <v>205</v>
       </c>
@@ -6279,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E2</v>
       </c>
       <c r="F20" s="97">
@@ -6315,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q20" s="101" t="s">
@@ -6344,7 +6625,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.3576388888888889E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -6354,7 +6635,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2638888888888893E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -6373,7 +6654,7 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31">
@@ -6383,19 +6664,19 @@
         <v>2.344907407407407E-2</v>
       </c>
       <c r="AP20" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.9456018518518515E-2</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -6407,63 +6688,63 @@
       <c r="AZ20" s="31"/>
       <c r="BA20" s="34"/>
       <c r="BB20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI20" s="31">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="34"/>
+      <c r="BK20" s="33" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BL20" s="31">
         <v>17</v>
       </c>
-      <c r="BJ20" s="34">
+      <c r="BM20" s="34">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="BK20" s="33">
-        <f t="shared" si="35"/>
+      <c r="BN20" s="33">
+        <f t="shared" si="37"/>
         <v>0</v>
-      </c>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR20" s="41"/>
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="BU20" s="31"/>
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU20" s="41"/>
       <c r="BV20" s="34"/>
       <c r="BW20" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="57"/>
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="34"/>
       <c r="BZ20" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="34"/>
+      <c r="CA20" s="41"/>
+      <c r="CB20" s="57"/>
       <c r="CC20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
@@ -6504,25 +6785,37 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="31">
-        <v>1</v>
-      </c>
-      <c r="CW20" s="34">
-        <v>1.6793981481481483E-2</v>
-      </c>
-      <c r="CX20" s="33">
+      <c r="CV20" s="31"/>
+      <c r="CW20" s="34"/>
+      <c r="CX20" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>1.2800925925925927E-2</v>
+        <v>NA</v>
       </c>
       <c r="CY20" s="31"/>
       <c r="CZ20" s="34"/>
       <c r="DA20" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB20" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB20" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC20" s="34">
+        <v>1.6793981481481483E-2</v>
+      </c>
+      <c r="DD20" s="33">
+        <f t="shared" si="24"/>
+        <v>1.2800925925925927E-2</v>
+      </c>
+      <c r="DE20" s="31"/>
+      <c r="DF20" s="34"/>
+      <c r="DG20" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH20" s="35"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
         <v>205</v>
       </c>
@@ -6536,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E3</v>
       </c>
       <c r="F21" s="97">
@@ -6572,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="Q21" s="101" t="s">
@@ -6601,7 +6894,7 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.3865740740740738E-2</v>
       </c>
       <c r="AC21" s="80">
@@ -6609,7 +6902,7 @@
       </c>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9699074074074072E-2</v>
       </c>
       <c r="AF21" s="21">
@@ -6630,25 +6923,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -6660,86 +6953,86 @@
       <c r="AZ21" s="31"/>
       <c r="BA21" s="34"/>
       <c r="BB21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC21" s="31"/>
-      <c r="BD21" s="32"/>
+      <c r="BD21" s="34"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI21" s="31">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="33" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BL21" s="31">
         <v>1</v>
       </c>
-      <c r="BJ21" s="57">
+      <c r="BM21" s="57">
         <v>3.2858796296296296E-2</v>
       </c>
-      <c r="BK21" s="33">
-        <f t="shared" si="35"/>
+      <c r="BN21" s="33">
+        <f t="shared" si="37"/>
         <v>2.869212962962963E-2</v>
-      </c>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="33" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR21" s="41">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="32"/>
+      <c r="BT21" s="33" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU21" s="41">
         <v>1</v>
       </c>
-      <c r="BS21" s="34">
+      <c r="BV21" s="34">
         <v>2.1956018518518517E-2</v>
       </c>
-      <c r="BT21" s="33">
-        <f t="shared" si="38"/>
+      <c r="BW21" s="33">
+        <f t="shared" si="40"/>
         <v>1.7789351851851851E-2</v>
       </c>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="33" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="34"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="32"/>
       <c r="BZ21" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
+      <c r="CA21" s="41"/>
+      <c r="CB21" s="34"/>
       <c r="CC21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="31">
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="32"/>
+      <c r="CF21" s="33" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG21" s="31">
         <v>2</v>
       </c>
-      <c r="CE21" s="34">
+      <c r="CH21" s="34">
         <v>1.7615740740740741E-2</v>
       </c>
-      <c r="CF21" s="33">
-        <f t="shared" si="16"/>
+      <c r="CI21" s="33">
+        <f t="shared" si="17"/>
         <v>1.3449074074074075E-2</v>
-      </c>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="33" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ21" s="31"/>
       <c r="CK21" s="32"/>
@@ -6766,20 +7059,32 @@
         <v>NA</v>
       </c>
       <c r="CV21" s="31"/>
-      <c r="CW21" s="57"/>
+      <c r="CW21" s="32"/>
       <c r="CX21" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="CY21" s="31"/>
-      <c r="CZ21" s="57"/>
+      <c r="CZ21" s="32"/>
       <c r="DA21" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB21" s="35"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB21" s="31"/>
+      <c r="DC21" s="57"/>
+      <c r="DD21" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE21" s="31"/>
+      <c r="DF21" s="57"/>
+      <c r="DG21" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH21" s="35"/>
     </row>
-    <row r="22" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="99" t="s">
         <v>205</v>
       </c>
@@ -6793,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>E1</v>
       </c>
       <c r="F22" s="11">
@@ -6829,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -6845,49 +7150,67 @@
         <v>187</v>
       </c>
       <c r="U22" s="11"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
+      <c r="V22" s="81">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W22" s="70">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X22" s="70">
+        <v>1.7175925925925924E-2</v>
+      </c>
       <c r="Y22" s="70"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
+        <f t="shared" si="28"/>
+        <v>5.289351851851852E-2</v>
+      </c>
+      <c r="AC22" s="82">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="AD22" s="82">
+        <v>1.1388888888888888E-2</v>
+      </c>
       <c r="AE22" s="23">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
+        <f t="shared" si="29"/>
+        <v>3.6180555555555556E-2</v>
+      </c>
+      <c r="AF22" s="24">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="24">
+        <v>85</v>
+      </c>
       <c r="AH22" s="25"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37"/>
+      <c r="AI22" s="36">
+        <v>8</v>
+      </c>
+      <c r="AJ22" s="37">
+        <v>7</v>
+      </c>
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -6896,71 +7219,91 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="42" t="str">
-        <f t="shared" si="32"/>
-        <v>NA</v>
+      <c r="AZ22" s="38">
+        <v>22</v>
+      </c>
+      <c r="BA22" s="40">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="BB22" s="42">
+        <f t="shared" si="6"/>
+        <v>1.0416666666666668E-2</v>
       </c>
       <c r="BC22" s="38"/>
-      <c r="BD22" s="85"/>
+      <c r="BD22" s="40"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="34"/>
-        <v>NA</v>
-      </c>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="40"/>
-      <c r="BK22" s="42" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="85"/>
-      <c r="BN22" s="42" t="str">
+      <c r="BI22" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="40">
+        <v>8.1018518518518514E-3</v>
+      </c>
+      <c r="BK22" s="42">
         <f t="shared" si="36"/>
-        <v>NA</v>
+        <v>2.7777777777777766E-3</v>
+      </c>
+      <c r="BL22" s="38">
+        <v>5</v>
+      </c>
+      <c r="BM22" s="40">
+        <v>5.37037037037037E-3</v>
+      </c>
+      <c r="BN22" s="42">
+        <f t="shared" si="37"/>
+        <v>4.6296296296295149E-5</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BR22" s="86"/>
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
-      </c>
-      <c r="BU22" s="38"/>
-      <c r="BV22" s="85"/>
-      <c r="BW22" s="42" t="str">
-        <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX22" s="86"/>
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="BU22" s="86">
+        <v>1</v>
+      </c>
+      <c r="BV22" s="40">
+        <v>3.0173611111111113E-2</v>
+      </c>
+      <c r="BW22" s="42">
+        <f t="shared" si="40"/>
+        <v>2.4849537037037038E-2</v>
+      </c>
+      <c r="BX22" s="38"/>
       <c r="BY22" s="85"/>
       <c r="BZ22" s="42" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA22" s="38"/>
+      <c r="CA22" s="86"/>
       <c r="CB22" s="85"/>
       <c r="CC22" s="42" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="42" t="str">
+      <c r="CD22" s="38">
+        <v>2</v>
+      </c>
+      <c r="CE22" s="40">
+        <v>5.3240740740740748E-3</v>
+      </c>
+      <c r="CF22" s="42">
         <f t="shared" si="16"/>
-        <v>NA</v>
+        <v>0</v>
       </c>
       <c r="CG22" s="38"/>
       <c r="CH22" s="85"/>
@@ -6968,11 +7311,15 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ22" s="38"/>
-      <c r="CK22" s="85"/>
-      <c r="CL22" s="42" t="str">
+      <c r="CJ22" s="38">
+        <v>1</v>
+      </c>
+      <c r="CK22" s="40">
+        <v>2.1331018518518517E-2</v>
+      </c>
+      <c r="CL22" s="42">
         <f t="shared" si="18"/>
-        <v>NA</v>
+        <v>1.6006944444444442E-2</v>
       </c>
       <c r="CM22" s="38"/>
       <c r="CN22" s="85"/>
@@ -6987,13 +7334,13 @@
         <v>NA</v>
       </c>
       <c r="CS22" s="38"/>
-      <c r="CT22" s="40"/>
+      <c r="CT22" s="85"/>
       <c r="CU22" s="42" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="CV22" s="38"/>
-      <c r="CW22" s="40"/>
+      <c r="CW22" s="85"/>
       <c r="CX22" s="42" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
@@ -7001,10 +7348,43 @@
       <c r="CY22" s="38"/>
       <c r="CZ22" s="40"/>
       <c r="DA22" s="42" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB22" s="39"/>
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB22" s="38"/>
+      <c r="DC22" s="40"/>
+      <c r="DD22" s="42" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE22" s="38"/>
+      <c r="DF22" s="40"/>
+      <c r="DG22" s="42" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH22" s="39"/>
+    </row>
+    <row r="28" spans="1:112" x14ac:dyDescent="0.35">
+      <c r="Y28" s="1">
+        <f>SUM(Y16:AA16)</f>
+        <v>4.4583333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:112" x14ac:dyDescent="0.35">
+      <c r="V29" s="1">
+        <f>SUM(V16:X16)</f>
+        <v>4.4583333333333329E-2</v>
+      </c>
+      <c r="W29" s="1">
+        <v>4.1203703703703706E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:112" x14ac:dyDescent="0.35">
+      <c r="V30" s="1">
+        <f>V29-W29</f>
+        <v>4.0462962962962958E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC0723-C43C-4D37-A281-DCD791CAE7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D67D7-FBC2-4C41-9B6B-560F81AA09E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -1371,13 +1371,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DH30"/>
+  <dimension ref="A1:DK22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="BH9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH31" sqref="BH31"/>
+      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,16 +1399,17 @@
     <col min="60" max="60" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="8.7265625" style="73"/>
-    <col min="79" max="79" width="8.7265625" style="73"/>
-    <col min="81" max="81" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.7265625" style="73"/>
+    <col min="82" max="82" width="8.7265625" style="73"/>
+    <col min="84" max="84" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1634,119 +1635,128 @@
       <c r="BW1" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BX1" s="83" t="s">
+      <c r="BX1" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="CB1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BZ1" s="60" t="s">
+      <c r="CC1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="CA1" s="84" t="s">
+      <c r="CD1" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="CB1" s="27" t="s">
+      <c r="CE1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="CC1" s="60" t="s">
+      <c r="CF1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="CD1" s="83" t="s">
+      <c r="CG1" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CH1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CI1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CJ1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CL1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CM1" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CO1" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CP1" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CR1" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CS1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CU1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CV1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CX1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="CY1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="DA1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CY1" s="83" t="s">
+      <c r="DB1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DC1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="DA1" s="60" t="s">
+      <c r="DD1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="DB1" s="83" t="s">
+      <c r="DE1" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DF1" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="DD1" s="60" t="s">
+      <c r="DG1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="DE1" s="83" t="s">
+      <c r="DH1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="DF1" s="27" t="s">
+      <c r="DI1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DG1" s="60" t="s">
+      <c r="DJ1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="DH1" s="28" t="s">
+      <c r="DK1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
         <v>147</v>
       </c>
@@ -1932,30 +1942,30 @@
       <c r="BU2" s="102"/>
       <c r="BV2" s="74"/>
       <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW13" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="58"/>
+        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BX2" s="102"/>
+      <c r="BY2" s="74"/>
       <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="41">
+        <f t="shared" ref="BZ2:BZ13" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CA2" s="59"/>
+      <c r="CB2" s="58"/>
+      <c r="CC2" s="33" t="str">
+        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CD2" s="41">
         <v>1</v>
       </c>
-      <c r="CB2" s="57">
+      <c r="CE2" s="57">
         <v>2.1270833333333332</v>
       </c>
-      <c r="CC2" s="33">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+      <c r="CF2" s="33">
+        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
         <v>2.1232870370370369</v>
-      </c>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="33" t="str">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
-        <v>NA</v>
       </c>
       <c r="CG2" s="59"/>
       <c r="CH2" s="72"/>
@@ -2005,19 +2015,25 @@
         <f t="shared" ref="DD2:DD22" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="DE2" s="59">
+      <c r="DE2" s="59"/>
+      <c r="DF2" s="72"/>
+      <c r="DG2" s="33" t="str">
+        <f t="shared" ref="DG2:DG22" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DH2" s="59">
         <v>3</v>
       </c>
-      <c r="DF2" s="72">
+      <c r="DI2" s="72">
         <v>2.2129629629629628E-2</v>
       </c>
-      <c r="DG2" s="33">
-        <f t="shared" ref="DG2:DG13" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
+      <c r="DJ2" s="33">
+        <f t="shared" ref="DJ2:DJ13" si="26">IF(DH2=0,"NA",DI2-$AC2)</f>
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="DH2" s="35"/>
+      <c r="DK2" s="35"/>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
         <v>147</v>
       </c>
@@ -2031,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="26">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="27">C3&amp;""&amp;D3</f>
         <v>L6</v>
       </c>
       <c r="F3" s="97">
@@ -2067,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="27">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="28">I3-H3</f>
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="Q3" s="101" t="s">
@@ -2096,7 +2112,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="28">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="29">SUM(V3:AA3)</f>
         <v>6.008101851851852E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2208,20 +2224,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="31"/>
+      <c r="BX3" s="41"/>
       <c r="BY3" s="32"/>
       <c r="BZ3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="57"/>
+      <c r="CA3" s="31"/>
+      <c r="CB3" s="32"/>
       <c r="CC3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="32"/>
+      <c r="CD3" s="41"/>
+      <c r="CE3" s="57"/>
       <c r="CF3" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2268,29 +2284,35 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB3" s="31">
+      <c r="DB3" s="31"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE3" s="31">
         <v>2</v>
       </c>
-      <c r="DC3" s="34">
+      <c r="DF3" s="34">
         <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="DD3" s="33">
-        <f t="shared" si="24"/>
-        <v>1.6203703703703692E-4</v>
-      </c>
-      <c r="DE3" s="31">
-        <v>4</v>
-      </c>
-      <c r="DF3" s="34">
-        <v>4.409722222222222E-3</v>
       </c>
       <c r="DG3" s="33">
         <f t="shared" si="25"/>
+        <v>1.6203703703703692E-4</v>
+      </c>
+      <c r="DH3" s="31">
+        <v>4</v>
+      </c>
+      <c r="DI3" s="34">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="DJ3" s="33">
+        <f t="shared" si="26"/>
         <v>4.0509259259259231E-4</v>
       </c>
-      <c r="DH3" s="35"/>
+      <c r="DK3" s="35"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A4" s="96" t="s">
         <v>147</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L5</v>
       </c>
       <c r="F4" s="97">
@@ -2340,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="Q4" s="101" t="s">
@@ -2365,7 +2387,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC4" s="20"/>
@@ -2457,20 +2479,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="31"/>
+      <c r="BX4" s="41"/>
       <c r="BY4" s="32"/>
       <c r="BZ4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="57"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="32"/>
       <c r="CC4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="34"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="57"/>
       <c r="CF4" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2529,9 +2551,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH4" s="35"/>
+      <c r="DH4" s="31"/>
+      <c r="DI4" s="34"/>
+      <c r="DJ4" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DK4" s="35"/>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A5" s="96" t="s">
         <v>147</v>
       </c>
@@ -2545,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D5</v>
       </c>
       <c r="F5" s="97">
@@ -2581,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q5" s="101" t="s">
@@ -2606,7 +2634,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2698,20 +2726,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="31"/>
+      <c r="BX5" s="41"/>
       <c r="BY5" s="32"/>
       <c r="BZ5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="41"/>
-      <c r="CB5" s="57"/>
+      <c r="CA5" s="31"/>
+      <c r="CB5" s="32"/>
       <c r="CC5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="32"/>
+      <c r="CD5" s="41"/>
+      <c r="CE5" s="57"/>
       <c r="CF5" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2770,9 +2798,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH5" s="35"/>
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="32"/>
+      <c r="DJ5" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DK5" s="35"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A6" s="96" t="s">
         <v>147</v>
       </c>
@@ -2786,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L4</v>
       </c>
       <c r="F6" s="97">
@@ -2822,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="Q6" s="101" t="s">
@@ -2849,7 +2883,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.2187500000000003E-2</v>
       </c>
       <c r="AC6" s="20">
@@ -2951,20 +2985,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="31"/>
+      <c r="BX6" s="41"/>
       <c r="BY6" s="32"/>
       <c r="BZ6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="41"/>
-      <c r="CB6" s="57"/>
+      <c r="CA6" s="31"/>
+      <c r="CB6" s="32"/>
       <c r="CC6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="32"/>
+      <c r="CD6" s="41"/>
+      <c r="CE6" s="57"/>
       <c r="CF6" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3017,19 +3051,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE6" s="31">
+      <c r="DE6" s="31"/>
+      <c r="DF6" s="32"/>
+      <c r="DG6" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH6" s="31">
         <v>3</v>
       </c>
-      <c r="DF6" s="34">
+      <c r="DI6" s="34">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="DG6" s="33">
-        <f t="shared" si="25"/>
+      <c r="DJ6" s="33">
+        <f t="shared" si="26"/>
         <v>1.7361111111111223E-4</v>
       </c>
-      <c r="DH6" s="35"/>
+      <c r="DK6" s="35"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A7" s="96" t="s">
         <v>147</v>
       </c>
@@ -3043,7 +3083,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D6</v>
       </c>
       <c r="F7" s="97">
@@ -3079,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q7" s="101" t="s">
@@ -3108,7 +3148,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.0115740740740743E-2</v>
       </c>
       <c r="AC7" s="20">
@@ -3210,20 +3250,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="31"/>
+      <c r="BX7" s="41"/>
       <c r="BY7" s="32"/>
       <c r="BZ7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="41"/>
-      <c r="CB7" s="57"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="32"/>
       <c r="CC7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="32"/>
+      <c r="CD7" s="41"/>
+      <c r="CE7" s="57"/>
       <c r="CF7" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3270,29 +3310,35 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB7" s="31">
+      <c r="DB7" s="31"/>
+      <c r="DC7" s="32"/>
+      <c r="DD7" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE7" s="31">
         <v>1</v>
       </c>
-      <c r="DC7" s="34">
+      <c r="DF7" s="34">
         <v>1.0567129629629629E-2</v>
-      </c>
-      <c r="DD7" s="33">
-        <f t="shared" si="24"/>
-        <v>6.5393518518518517E-3</v>
-      </c>
-      <c r="DE7" s="31">
-        <v>4</v>
-      </c>
-      <c r="DF7" s="34">
-        <v>5.9143518518518521E-3</v>
       </c>
       <c r="DG7" s="33">
         <f t="shared" si="25"/>
+        <v>6.5393518518518517E-3</v>
+      </c>
+      <c r="DH7" s="31">
+        <v>4</v>
+      </c>
+      <c r="DI7" s="34">
+        <v>5.9143518518518521E-3</v>
+      </c>
+      <c r="DJ7" s="33">
+        <f t="shared" si="26"/>
         <v>1.8865740740740744E-3</v>
       </c>
-      <c r="DH7" s="35"/>
+      <c r="DK7" s="35"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
         <v>151</v>
       </c>
@@ -3306,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D5</v>
       </c>
       <c r="F8" s="97">
@@ -3342,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.27013888888888887</v>
       </c>
       <c r="Q8" s="101" t="s">
@@ -3373,7 +3419,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.4374999999999998E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3483,20 +3529,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="31"/>
+      <c r="BX8" s="41"/>
       <c r="BY8" s="32"/>
       <c r="BZ8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="41"/>
-      <c r="CB8" s="57"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="32"/>
       <c r="CC8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="32"/>
+      <c r="CD8" s="41"/>
+      <c r="CE8" s="57"/>
       <c r="CF8" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3538,34 +3584,40 @@
         <v>NA</v>
       </c>
       <c r="CY8" s="31"/>
-      <c r="CZ8" s="71"/>
+      <c r="CZ8" s="32"/>
       <c r="DA8" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB8" s="31">
+      <c r="DB8" s="31"/>
+      <c r="DC8" s="71"/>
+      <c r="DD8" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE8" s="31">
         <v>3</v>
       </c>
-      <c r="DC8" s="71">
+      <c r="DF8" s="71">
         <v>4.0856481481481481E-3</v>
-      </c>
-      <c r="DD8" s="33">
-        <f t="shared" si="24"/>
-        <v>1.7361111111111136E-4</v>
-      </c>
-      <c r="DE8" s="31">
-        <v>1</v>
-      </c>
-      <c r="DF8" s="71">
-        <v>2.6041666666666668E-2</v>
       </c>
       <c r="DG8" s="33">
         <f t="shared" si="25"/>
+        <v>1.7361111111111136E-4</v>
+      </c>
+      <c r="DH8" s="31">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="71">
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="DJ8" s="33">
+        <f t="shared" si="26"/>
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="DH8" s="35"/>
+      <c r="DK8" s="35"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
         <v>151</v>
       </c>
@@ -3579,7 +3631,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L5</v>
       </c>
       <c r="F9" s="97">
@@ -3615,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.26944444444444443</v>
       </c>
       <c r="Q9" s="101" t="s">
@@ -3646,7 +3698,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.0324074074074072E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3754,20 +3806,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="31"/>
+      <c r="BX9" s="41"/>
       <c r="BY9" s="32"/>
       <c r="BZ9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="41"/>
-      <c r="CB9" s="57"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="32"/>
       <c r="CC9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="32"/>
+      <c r="CD9" s="41"/>
+      <c r="CE9" s="57"/>
       <c r="CF9" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3809,7 +3861,7 @@
         <v>NA</v>
       </c>
       <c r="CY9" s="31"/>
-      <c r="CZ9" s="57"/>
+      <c r="CZ9" s="32"/>
       <c r="DA9" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -3820,19 +3872,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE9" s="31">
+      <c r="DE9" s="31"/>
+      <c r="DF9" s="57"/>
+      <c r="DG9" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH9" s="31">
         <v>2</v>
       </c>
-      <c r="DF9" s="57">
+      <c r="DI9" s="57">
         <v>1.7141203703703704E-2</v>
       </c>
-      <c r="DG9" s="33">
-        <f t="shared" si="25"/>
+      <c r="DJ9" s="33">
+        <f t="shared" si="26"/>
         <v>1.2511574074074074E-2</v>
       </c>
-      <c r="DH9" s="35"/>
+      <c r="DK9" s="35"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
         <v>151</v>
       </c>
@@ -3846,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E6</v>
       </c>
       <c r="F10" s="97">
@@ -3882,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="Q10" s="101" t="s">
@@ -3907,7 +3965,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC10" s="20"/>
@@ -3999,20 +4057,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="31"/>
+      <c r="BX10" s="41"/>
       <c r="BY10" s="32"/>
       <c r="BZ10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="41"/>
-      <c r="CB10" s="57"/>
+      <c r="CA10" s="31"/>
+      <c r="CB10" s="32"/>
       <c r="CC10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="34"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="57"/>
       <c r="CF10" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4071,9 +4129,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH10" s="35"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="34"/>
+      <c r="DJ10" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DK10" s="35"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
         <v>151</v>
       </c>
@@ -4087,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E4</v>
       </c>
       <c r="F11" s="97">
@@ -4123,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.8749999999999978E-2</v>
       </c>
       <c r="Q11" s="101" t="s">
@@ -4154,7 +4218,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.7280092592592591E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -4264,37 +4328,37 @@
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="41">
+      <c r="BU11" s="41"/>
+      <c r="BV11" s="71"/>
+      <c r="BW11" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX11" s="41">
         <v>1</v>
       </c>
-      <c r="BV11" s="71">
+      <c r="BY11" s="71">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="BW11" s="33">
-        <f t="shared" si="13"/>
+      <c r="BZ11" s="33">
+        <f t="shared" si="14"/>
         <v>3.7037037037036986E-4</v>
       </c>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="32"/>
-      <c r="BZ11" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA11" s="41">
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="33" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD11" s="41">
         <v>1</v>
       </c>
-      <c r="CB11" s="57">
+      <c r="CE11" s="57">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="CC11" s="33">
-        <f t="shared" si="15"/>
+      <c r="CF11" s="33">
+        <f t="shared" si="16"/>
         <v>3.7037037037036986E-4</v>
-      </c>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="34"/>
-      <c r="CF11" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>NA</v>
       </c>
       <c r="CG11" s="31"/>
       <c r="CH11" s="34"/>
@@ -4332,21 +4396,21 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="31">
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB11" s="31">
         <v>1</v>
       </c>
-      <c r="CZ11" s="34">
+      <c r="DC11" s="34">
         <v>4.1655092592592598E-2</v>
       </c>
-      <c r="DA11" s="33">
-        <f t="shared" si="23"/>
+      <c r="DD11" s="33">
+        <f t="shared" si="24"/>
         <v>3.7673611111111116E-2</v>
-      </c>
-      <c r="DB11" s="31"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="33" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
       </c>
       <c r="DE11" s="31"/>
       <c r="DF11" s="34"/>
@@ -4354,9 +4418,15 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH11" s="35"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="34"/>
+      <c r="DJ11" s="33" t="str">
+        <f t="shared" si="26"/>
+        <v>NA</v>
+      </c>
+      <c r="DK11" s="35"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
         <v>151</v>
       </c>
@@ -4370,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E5</v>
       </c>
       <c r="F12" s="97">
@@ -4406,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q12" s="101" t="s">
@@ -4435,7 +4505,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.9143518518518522E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4545,20 +4615,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="31"/>
+      <c r="BX12" s="41"/>
       <c r="BY12" s="32"/>
       <c r="BZ12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="41"/>
-      <c r="CB12" s="57"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="32"/>
       <c r="CC12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="71"/>
+      <c r="CD12" s="41"/>
+      <c r="CE12" s="57"/>
       <c r="CF12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4575,21 +4645,21 @@
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31">
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="71"/>
+      <c r="CO12" s="33" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP12" s="31">
         <v>1</v>
       </c>
-      <c r="CN12" s="71">
+      <c r="CQ12" s="71">
         <v>2.9953703703703705E-2</v>
       </c>
-      <c r="CO12" s="33">
-        <f t="shared" si="19"/>
+      <c r="CR12" s="33">
+        <f t="shared" si="20"/>
         <v>2.6087962962962966E-2</v>
-      </c>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="71"/>
-      <c r="CR12" s="33" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
       </c>
       <c r="CS12" s="31"/>
       <c r="CT12" s="71"/>
@@ -4615,19 +4685,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE12" s="31">
+      <c r="DE12" s="31"/>
+      <c r="DF12" s="71"/>
+      <c r="DG12" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH12" s="31">
         <v>1</v>
       </c>
-      <c r="DF12" s="71">
+      <c r="DI12" s="71">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="DG12" s="33">
-        <f t="shared" si="25"/>
+      <c r="DJ12" s="33">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="DH12" s="35"/>
+      <c r="DK12" s="35"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
         <v>153</v>
       </c>
@@ -4641,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L2</v>
       </c>
       <c r="F13" s="97">
@@ -4677,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.11805555555555552</v>
       </c>
       <c r="Q13" s="101" t="s">
@@ -4706,7 +4782,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.4976851851851851E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4824,31 +4900,31 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="31">
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="33" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
+      </c>
+      <c r="CA13" s="31">
         <v>3</v>
       </c>
-      <c r="BY13" s="34">
+      <c r="CB13" s="34">
         <v>8.8888888888888889E-3</v>
-      </c>
-      <c r="BZ13" s="33">
-        <f t="shared" si="14"/>
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="CA13" s="41">
-        <v>1</v>
-      </c>
-      <c r="CB13" s="57">
-        <v>9.7916666666666655E-3</v>
       </c>
       <c r="CC13" s="33">
         <f t="shared" si="15"/>
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="CD13" s="41">
+        <v>1</v>
+      </c>
+      <c r="CE13" s="57">
+        <v>9.7916666666666655E-3</v>
+      </c>
+      <c r="CF13" s="33">
+        <f t="shared" si="16"/>
         <v>4.2361111111111098E-3</v>
-      </c>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="32"/>
-      <c r="CF13" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>NA</v>
       </c>
       <c r="CG13" s="31"/>
       <c r="CH13" s="32"/>
@@ -4875,7 +4951,7 @@
         <v>NA</v>
       </c>
       <c r="CS13" s="31"/>
-      <c r="CT13" s="34"/>
+      <c r="CT13" s="32"/>
       <c r="CU13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
@@ -4887,7 +4963,7 @@
         <v>NA</v>
       </c>
       <c r="CY13" s="31"/>
-      <c r="CZ13" s="32"/>
+      <c r="CZ13" s="34"/>
       <c r="DA13" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -4898,19 +4974,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE13" s="31">
+      <c r="DE13" s="31"/>
+      <c r="DF13" s="32"/>
+      <c r="DG13" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH13" s="31">
         <v>2</v>
       </c>
-      <c r="DF13" s="34">
+      <c r="DI13" s="34">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="DG13" s="33">
-        <f t="shared" si="25"/>
+      <c r="DJ13" s="33">
+        <f t="shared" si="26"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="DH13" s="35"/>
+      <c r="DK13" s="35"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
         <v>153</v>
       </c>
@@ -4924,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L1</v>
       </c>
       <c r="F14" s="97">
@@ -4960,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.1159722222222222</v>
       </c>
       <c r="Q14" s="101" t="s">
@@ -4989,7 +5071,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.6909722222222218E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4999,7 +5081,7 @@
         <v>1.8831018518518518E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="29">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="30">AB14-AC14-AD14</f>
         <v>4.1828703703703701E-2</v>
       </c>
       <c r="AF14" s="21"/>
@@ -5018,25 +5100,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="AM14" s="33">
-        <f t="shared" ref="AM14:AM22" si="30">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="31">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>2.1076388888888891E-2</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="31">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="32">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31"/>
       <c r="AR14" s="32"/>
       <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="32">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="33">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="33">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="34">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -5054,13 +5136,13 @@
       <c r="BC14" s="31"/>
       <c r="BD14" s="34"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="35">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="32"/>
       <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="36">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="31">
@@ -5070,7 +5152,7 @@
         <v>2.4201388888888887E-2</v>
       </c>
       <c r="BK14" s="33">
-        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="37">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.7951388888888888E-2</v>
       </c>
       <c r="BL14" s="31">
@@ -5080,41 +5162,41 @@
         <v>2.4131944444444445E-2</v>
       </c>
       <c r="BN14" s="33">
-        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="38">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>1.7881944444444447E-2</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="39">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="32"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="40">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="41"/>
       <c r="BV14" s="34"/>
       <c r="BW14" s="33" t="str">
-        <f t="shared" ref="BW14:BW22" si="40">IF(BU14=0,"NA",BV14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX14" s="31"/>
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX14" s="41"/>
       <c r="BY14" s="34"/>
       <c r="BZ14" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA14" s="41"/>
-      <c r="CB14" s="57"/>
+        <f t="shared" ref="BZ14:BZ22" si="41">IF(BX14=0,"NA",BY14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="34"/>
       <c r="CC14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="32"/>
+      <c r="CD14" s="41"/>
+      <c r="CE14" s="57"/>
       <c r="CF14" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5170,12 +5252,18 @@
       <c r="DE14" s="31"/>
       <c r="DF14" s="32"/>
       <c r="DG14" s="33" t="str">
-        <f t="shared" ref="DG14:DG22" si="41">IF(DE14=0,"NA",DF14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DH14" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="32"/>
+      <c r="DJ14" s="33" t="str">
+        <f t="shared" ref="DJ14:DJ22" si="42">IF(DH14=0,"NA",DI14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DK14" s="35"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
         <v>153</v>
       </c>
@@ -5189,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>L3</v>
       </c>
       <c r="F15" s="97">
@@ -5225,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.5833333333333381E-2</v>
       </c>
       <c r="Q15" s="101" t="s">
@@ -5254,7 +5342,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.5925925925925928E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -5264,7 +5352,7 @@
         <v>5.9027777777777776E-3</v>
       </c>
       <c r="AE15" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF15" s="103">
@@ -5287,7 +5375,7 @@
         <v>3.6354166666666667E-2</v>
       </c>
       <c r="AM15" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.1354166666666669E-2</v>
       </c>
       <c r="AN15" s="31">
@@ -5297,19 +5385,19 @@
         <v>8.3912037037037045E-3</v>
       </c>
       <c r="AP15" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.3912037037037044E-3</v>
       </c>
       <c r="AQ15" s="31"/>
       <c r="AR15" s="32"/>
       <c r="AS15" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -5327,19 +5415,19 @@
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="32"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="31"/>
       <c r="BJ15" s="34"/>
       <c r="BK15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="31">
@@ -5349,45 +5437,45 @@
         <v>1.0300925925925927E-2</v>
       </c>
       <c r="BN15" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5.3009259259259268E-3</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="31"/>
       <c r="BS15" s="32"/>
       <c r="BT15" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU15" s="41">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BU15" s="41"/>
+      <c r="BV15" s="34"/>
+      <c r="BW15" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX15" s="41">
         <v>1</v>
       </c>
-      <c r="BV15" s="34">
+      <c r="BY15" s="34">
         <v>3.8310185185185183E-2</v>
       </c>
-      <c r="BW15" s="33">
-        <f t="shared" si="40"/>
+      <c r="BZ15" s="33">
+        <f t="shared" si="41"/>
         <v>3.3310185185185186E-2</v>
       </c>
-      <c r="BX15" s="31"/>
-      <c r="BY15" s="71"/>
-      <c r="BZ15" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA15" s="41"/>
-      <c r="CB15" s="57"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="71"/>
       <c r="CC15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="71"/>
+      <c r="CD15" s="41"/>
+      <c r="CE15" s="57"/>
       <c r="CF15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5399,7 +5487,7 @@
         <v>NA</v>
       </c>
       <c r="CJ15" s="31"/>
-      <c r="CK15" s="32"/>
+      <c r="CK15" s="71"/>
       <c r="CL15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
@@ -5434,25 +5522,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB15" s="31">
+      <c r="DB15" s="31"/>
+      <c r="DC15" s="32"/>
+      <c r="DD15" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE15" s="31">
         <v>2</v>
       </c>
-      <c r="DC15" s="71">
+      <c r="DF15" s="71">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="DD15" s="33">
-        <f t="shared" si="24"/>
+      <c r="DG15" s="33">
+        <f t="shared" si="25"/>
         <v>3.0208333333333328E-3</v>
       </c>
-      <c r="DE15" s="31"/>
-      <c r="DF15" s="32"/>
-      <c r="DG15" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH15" s="35"/>
+      <c r="DH15" s="31"/>
+      <c r="DI15" s="32"/>
+      <c r="DJ15" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK15" s="35"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
         <v>153</v>
       </c>
@@ -5466,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D1</v>
       </c>
       <c r="F16" s="97">
@@ -5502,7 +5596,7 @@
         <v>6</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.8888888888888851E-2</v>
       </c>
       <c r="Q16" s="101" t="s">
@@ -5537,7 +5631,7 @@
         <v>1.486111111111111E-2</v>
       </c>
       <c r="AB16" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.9166666666666644E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5547,7 +5641,7 @@
         <v>4.1111111111111112E-2</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.393518518518516E-2</v>
       </c>
       <c r="AF16" s="21"/>
@@ -5558,25 +5652,25 @@
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -5594,19 +5688,19 @@
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
       <c r="BH16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="31"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="57" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="41">
@@ -5616,13 +5710,13 @@
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="BN16" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.2731481481481448E-4</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="31">
@@ -5632,29 +5726,29 @@
         <v>9.5486111111111101E-3</v>
       </c>
       <c r="BT16" s="33">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.4282407407407396E-3</v>
       </c>
       <c r="BU16" s="41"/>
       <c r="BV16" s="57"/>
       <c r="BW16" s="33" t="str">
-        <f t="shared" si="40"/>
-        <v>NA</v>
-      </c>
-      <c r="BX16" s="31"/>
-      <c r="BY16" s="32"/>
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX16" s="41"/>
+      <c r="BY16" s="57"/>
       <c r="BZ16" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA16" s="41"/>
-      <c r="CB16" s="57"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="32"/>
       <c r="CC16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="34"/>
+      <c r="CD16" s="41"/>
+      <c r="CE16" s="57"/>
       <c r="CF16" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5710,12 +5804,18 @@
       <c r="DE16" s="31"/>
       <c r="DF16" s="34"/>
       <c r="DG16" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH16" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH16" s="31"/>
+      <c r="DI16" s="34"/>
+      <c r="DJ16" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK16" s="35"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
         <v>153</v>
       </c>
@@ -5729,7 +5829,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E6</v>
       </c>
       <c r="F17" s="97">
@@ -5765,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q17" s="101" t="s">
@@ -5796,7 +5896,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.4826388888888888E-2</v>
       </c>
       <c r="AC17" s="20">
@@ -5804,7 +5904,7 @@
       </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.1006944444444443E-2</v>
       </c>
       <c r="AF17" s="21">
@@ -5823,25 +5923,25 @@
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -5863,19 +5963,19 @@
         <v>1.5416666666666667E-2</v>
       </c>
       <c r="BE17" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1597222222222222E-2</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="31"/>
       <c r="BJ17" s="34"/>
       <c r="BK17" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="41">
@@ -5885,64 +5985,64 @@
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="BN17" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR17" s="41"/>
       <c r="BS17" s="34"/>
       <c r="BT17" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU17" s="41">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BU17" s="41"/>
+      <c r="BV17" s="34"/>
+      <c r="BW17" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX17" s="41">
         <v>6</v>
       </c>
-      <c r="BV17" s="34">
+      <c r="BY17" s="34">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="BW17" s="33">
-        <f t="shared" si="40"/>
+      <c r="BZ17" s="33">
+        <f t="shared" si="41"/>
         <v>2.3148148148148138E-4</v>
       </c>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="32"/>
-      <c r="BZ17" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA17" s="41"/>
-      <c r="CB17" s="57"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="32"/>
       <c r="CC17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
+      <c r="CD17" s="41"/>
+      <c r="CE17" s="57"/>
       <c r="CF17" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="31">
+      <c r="CG17" s="31"/>
+      <c r="CH17" s="34"/>
+      <c r="CI17" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ17" s="31">
         <v>1</v>
       </c>
-      <c r="CH17" s="34">
+      <c r="CK17" s="34">
         <v>1.0937500000000001E-2</v>
       </c>
-      <c r="CI17" s="33">
-        <f t="shared" si="17"/>
+      <c r="CL17" s="33">
+        <f t="shared" si="18"/>
         <v>7.1180555555555563E-3</v>
-      </c>
-      <c r="CJ17" s="31"/>
-      <c r="CK17" s="34"/>
-      <c r="CL17" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
       </c>
       <c r="CM17" s="31"/>
       <c r="CN17" s="34"/>
@@ -5983,12 +6083,18 @@
       <c r="DE17" s="31"/>
       <c r="DF17" s="34"/>
       <c r="DG17" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH17" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH17" s="31"/>
+      <c r="DI17" s="34"/>
+      <c r="DJ17" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK17" s="35"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
         <v>205</v>
       </c>
@@ -6002,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D2</v>
       </c>
       <c r="F18" s="97">
@@ -6038,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.1152777777777777</v>
       </c>
       <c r="Q18" s="101" t="s">
@@ -6067,7 +6173,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.4664351851851851E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -6075,7 +6181,7 @@
       </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.0497685185185185E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -6091,15 +6197,11 @@
       <c r="AJ18" s="30">
         <v>8</v>
       </c>
-      <c r="AK18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="34">
-        <v>2.5289351851851851E-2</v>
-      </c>
-      <c r="AM18" s="33">
-        <f t="shared" si="30"/>
-        <v>2.1122685185185185E-2</v>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="33" t="str">
+        <f t="shared" si="31"/>
+        <v>NA</v>
       </c>
       <c r="AN18" s="31">
         <v>1</v>
@@ -6108,19 +6210,19 @@
         <v>2.3252314814814812E-2</v>
       </c>
       <c r="AP18" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9085648148148147E-2</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -6142,19 +6244,19 @@
         <v>3.1828703703703706E-2</v>
       </c>
       <c r="BE18" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.7662037037037041E-2</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="31"/>
       <c r="BJ18" s="34"/>
       <c r="BK18" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="31">
@@ -6164,68 +6266,72 @@
         <v>2.6643518518518521E-2</v>
       </c>
       <c r="BN18" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2.2476851851851855E-2</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="31"/>
       <c r="BS18" s="34"/>
       <c r="BT18" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BU18" s="41">
         <v>1</v>
       </c>
       <c r="BV18" s="34">
+        <v>2.5289351851851851E-2</v>
+      </c>
+      <c r="BW18" s="33">
+        <f t="shared" si="13"/>
+        <v>2.1122685185185185E-2</v>
+      </c>
+      <c r="BX18" s="41">
+        <v>1</v>
+      </c>
+      <c r="BY18" s="34">
         <v>3.5891203703703703E-2</v>
       </c>
-      <c r="BW18" s="33">
-        <f t="shared" si="40"/>
+      <c r="BZ18" s="33">
+        <f t="shared" si="41"/>
         <v>3.1724537037037037E-2</v>
       </c>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA18" s="41"/>
-      <c r="CB18" s="57"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="32"/>
       <c r="CC18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CE18" s="34">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="CF18" s="33">
+      <c r="CD18" s="41"/>
+      <c r="CE18" s="57"/>
+      <c r="CF18" s="33" t="str">
         <f t="shared" si="16"/>
-        <v>2.013888888888889E-2</v>
+        <v>NA</v>
       </c>
       <c r="CG18" s="31">
         <v>1</v>
       </c>
       <c r="CH18" s="34">
-        <v>1.7534722222222222E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="CI18" s="33">
         <f t="shared" si="17"/>
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="CJ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CK18" s="34">
+        <v>1.7534722222222222E-2</v>
+      </c>
+      <c r="CL18" s="33">
+        <f t="shared" si="18"/>
         <v>1.3368055555555557E-2</v>
-      </c>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
       </c>
       <c r="CM18" s="31"/>
       <c r="CN18" s="34"/>
@@ -6263,19 +6369,25 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE18" s="31">
+      <c r="DE18" s="31"/>
+      <c r="DF18" s="34"/>
+      <c r="DG18" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH18" s="31">
         <v>4</v>
       </c>
-      <c r="DF18" s="34">
+      <c r="DI18" s="34">
         <v>1.3587962962962963E-2</v>
       </c>
-      <c r="DG18" s="33">
-        <f t="shared" si="41"/>
+      <c r="DJ18" s="33">
+        <f t="shared" si="42"/>
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="DH18" s="35"/>
+      <c r="DK18" s="35"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
         <v>205</v>
       </c>
@@ -6289,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>D3</v>
       </c>
       <c r="F19" s="97">
@@ -6325,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q19" s="101" t="s">
@@ -6354,7 +6466,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.5949074074074073E-2</v>
       </c>
       <c r="AC19" s="20">
@@ -6362,7 +6474,7 @@
       </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.1840277777777775E-2</v>
       </c>
       <c r="AF19" s="21">
@@ -6381,7 +6493,7 @@
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31">
@@ -6391,19 +6503,19 @@
         <v>9.6064814814814815E-3</v>
       </c>
       <c r="AP19" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5.4976851851851844E-3</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -6421,19 +6533,19 @@
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="31"/>
       <c r="BJ19" s="34"/>
       <c r="BK19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="31">
@@ -6443,45 +6555,45 @@
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="BN19" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9.8379629629629511E-4</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="31"/>
       <c r="BS19" s="34"/>
       <c r="BT19" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU19" s="41">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BU19" s="41"/>
+      <c r="BV19" s="34"/>
+      <c r="BW19" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX19" s="41">
         <v>1</v>
       </c>
-      <c r="BV19" s="34">
+      <c r="BY19" s="34">
         <v>1.0231481481481482E-2</v>
       </c>
-      <c r="BW19" s="33">
-        <f t="shared" si="40"/>
+      <c r="BZ19" s="33">
+        <f t="shared" si="41"/>
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="BX19" s="31"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA19" s="41"/>
-      <c r="CB19" s="57"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="32"/>
       <c r="CC19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="34"/>
+      <c r="CD19" s="41"/>
+      <c r="CE19" s="57"/>
       <c r="CF19" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -6528,25 +6640,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB19" s="31">
+      <c r="DB19" s="31"/>
+      <c r="DC19" s="34"/>
+      <c r="DD19" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE19" s="31">
         <v>1</v>
       </c>
-      <c r="DC19" s="34">
+      <c r="DF19" s="34">
         <v>3.5196759259259254E-2</v>
       </c>
-      <c r="DD19" s="33">
-        <f t="shared" si="24"/>
+      <c r="DG19" s="33">
+        <f t="shared" si="25"/>
         <v>3.1087962962962956E-2</v>
       </c>
-      <c r="DE19" s="31"/>
-      <c r="DF19" s="34"/>
-      <c r="DG19" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH19" s="35"/>
+      <c r="DH19" s="31"/>
+      <c r="DI19" s="34"/>
+      <c r="DJ19" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK19" s="35"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
         <v>205</v>
       </c>
@@ -6560,7 +6678,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E2</v>
       </c>
       <c r="F20" s="97">
@@ -6596,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q20" s="101" t="s">
@@ -6625,7 +6743,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.3576388888888889E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -6635,7 +6753,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.2638888888888893E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -6654,7 +6772,7 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31">
@@ -6664,19 +6782,19 @@
         <v>2.344907407407407E-2</v>
       </c>
       <c r="AP20" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.9456018518518515E-2</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -6694,19 +6812,19 @@
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="31"/>
       <c r="BJ20" s="34"/>
       <c r="BK20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="31">
@@ -6716,41 +6834,41 @@
         <v>3.9930555555555561E-3</v>
       </c>
       <c r="BN20" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="41"/>
       <c r="BV20" s="34"/>
       <c r="BW20" s="33" t="str">
-        <f t="shared" si="40"/>
-        <v>NA</v>
-      </c>
-      <c r="BX20" s="31"/>
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX20" s="41"/>
       <c r="BY20" s="34"/>
       <c r="BZ20" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA20" s="41"/>
-      <c r="CB20" s="57"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="34"/>
       <c r="CC20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="34"/>
+      <c r="CD20" s="41"/>
+      <c r="CE20" s="57"/>
       <c r="CF20" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -6797,25 +6915,31 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB20" s="31">
+      <c r="DB20" s="31"/>
+      <c r="DC20" s="34"/>
+      <c r="DD20" s="33" t="str">
+        <f t="shared" si="24"/>
+        <v>NA</v>
+      </c>
+      <c r="DE20" s="31">
         <v>1</v>
       </c>
-      <c r="DC20" s="34">
+      <c r="DF20" s="34">
         <v>1.6793981481481483E-2</v>
       </c>
-      <c r="DD20" s="33">
-        <f t="shared" si="24"/>
+      <c r="DG20" s="33">
+        <f t="shared" si="25"/>
         <v>1.2800925925925927E-2</v>
       </c>
-      <c r="DE20" s="31"/>
-      <c r="DF20" s="34"/>
-      <c r="DG20" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH20" s="35"/>
+      <c r="DH20" s="31"/>
+      <c r="DI20" s="34"/>
+      <c r="DJ20" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK20" s="35"/>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
         <v>205</v>
       </c>
@@ -6829,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E3</v>
       </c>
       <c r="F21" s="97">
@@ -6865,7 +6989,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="Q21" s="101" t="s">
@@ -6894,7 +7018,7 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.3865740740740738E-2</v>
       </c>
       <c r="AC21" s="80">
@@ -6902,7 +7026,7 @@
       </c>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9699074074074072E-2</v>
       </c>
       <c r="AF21" s="21">
@@ -6923,25 +7047,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -6959,19 +7083,19 @@
       <c r="BC21" s="31"/>
       <c r="BD21" s="34"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="31"/>
       <c r="BJ21" s="32"/>
       <c r="BK21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BL21" s="31">
@@ -6981,64 +7105,64 @@
         <v>3.2858796296296296E-2</v>
       </c>
       <c r="BN21" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2.869212962962963E-2</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="31"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU21" s="41">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BU21" s="41"/>
+      <c r="BV21" s="34"/>
+      <c r="BW21" s="33" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX21" s="41">
         <v>1</v>
       </c>
-      <c r="BV21" s="34">
+      <c r="BY21" s="34">
         <v>2.1956018518518517E-2</v>
       </c>
-      <c r="BW21" s="33">
-        <f t="shared" si="40"/>
+      <c r="BZ21" s="33">
+        <f t="shared" si="41"/>
         <v>1.7789351851851851E-2</v>
       </c>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="32"/>
-      <c r="BZ21" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA21" s="41"/>
-      <c r="CB21" s="34"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="32"/>
       <c r="CC21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
+      <c r="CD21" s="41"/>
+      <c r="CE21" s="34"/>
       <c r="CF21" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG21" s="31">
+      <c r="CG21" s="31"/>
+      <c r="CH21" s="32"/>
+      <c r="CI21" s="33" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ21" s="31">
         <v>2</v>
       </c>
-      <c r="CH21" s="34">
+      <c r="CK21" s="34">
         <v>1.7615740740740741E-2</v>
       </c>
-      <c r="CI21" s="33">
-        <f t="shared" si="17"/>
+      <c r="CL21" s="33">
+        <f t="shared" si="18"/>
         <v>1.3449074074074075E-2</v>
-      </c>
-      <c r="CJ21" s="31"/>
-      <c r="CK21" s="32"/>
-      <c r="CL21" s="33" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
       </c>
       <c r="CM21" s="31"/>
       <c r="CN21" s="32"/>
@@ -7071,7 +7195,7 @@
         <v>NA</v>
       </c>
       <c r="DB21" s="31"/>
-      <c r="DC21" s="57"/>
+      <c r="DC21" s="32"/>
       <c r="DD21" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
@@ -7079,12 +7203,18 @@
       <c r="DE21" s="31"/>
       <c r="DF21" s="57"/>
       <c r="DG21" s="33" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH21" s="35"/>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH21" s="31"/>
+      <c r="DI21" s="57"/>
+      <c r="DJ21" s="33" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK21" s="35"/>
     </row>
-    <row r="22" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="99" t="s">
         <v>205</v>
       </c>
@@ -7098,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>E1</v>
       </c>
       <c r="F22" s="11">
@@ -7134,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -7163,7 +7293,7 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.289351851851852E-2</v>
       </c>
       <c r="AC22" s="82">
@@ -7173,7 +7303,7 @@
         <v>1.1388888888888888E-2</v>
       </c>
       <c r="AE22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.6180555555555556E-2</v>
       </c>
       <c r="AF22" s="24">
@@ -7192,25 +7322,25 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -7232,13 +7362,13 @@
       <c r="BC22" s="38"/>
       <c r="BD22" s="40"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="38">
@@ -7248,7 +7378,7 @@
         <v>8.1018518518518514E-3</v>
       </c>
       <c r="BK22" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.7777777777777766E-3</v>
       </c>
       <c r="BL22" s="38">
@@ -7258,74 +7388,74 @@
         <v>5.37037037037037E-3</v>
       </c>
       <c r="BN22" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.6296296296295149E-5</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="BU22" s="86">
+        <f t="shared" si="40"/>
+        <v>NA</v>
+      </c>
+      <c r="BU22" s="86"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="42" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX22" s="86">
         <v>1</v>
       </c>
-      <c r="BV22" s="40">
+      <c r="BY22" s="40">
         <v>3.0173611111111113E-2</v>
       </c>
-      <c r="BW22" s="42">
-        <f t="shared" si="40"/>
+      <c r="BZ22" s="42">
+        <f t="shared" si="41"/>
         <v>2.4849537037037038E-2</v>
       </c>
-      <c r="BX22" s="38"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="42" t="str">
-        <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="CA22" s="86"/>
+      <c r="CA22" s="38"/>
       <c r="CB22" s="85"/>
       <c r="CC22" s="42" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="38">
+      <c r="CD22" s="86"/>
+      <c r="CE22" s="85"/>
+      <c r="CF22" s="42" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG22" s="38">
         <v>2</v>
       </c>
-      <c r="CE22" s="40">
+      <c r="CH22" s="40">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="CF22" s="42">
-        <f t="shared" si="16"/>
+      <c r="CI22" s="42">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="CG22" s="38"/>
-      <c r="CH22" s="85"/>
-      <c r="CI22" s="42" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
-      </c>
-      <c r="CJ22" s="38">
+      <c r="CJ22" s="38"/>
+      <c r="CK22" s="85"/>
+      <c r="CL22" s="42" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM22" s="38">
         <v>1</v>
       </c>
-      <c r="CK22" s="40">
+      <c r="CN22" s="40">
         <v>2.1331018518518517E-2</v>
       </c>
-      <c r="CL22" s="42">
-        <f t="shared" si="18"/>
+      <c r="CO22" s="42">
+        <f t="shared" si="19"/>
         <v>1.6006944444444442E-2</v>
-      </c>
-      <c r="CM22" s="38"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="42" t="str">
-        <f t="shared" si="19"/>
-        <v>NA</v>
       </c>
       <c r="CP22" s="38"/>
       <c r="CQ22" s="85"/>
@@ -7346,7 +7476,7 @@
         <v>NA</v>
       </c>
       <c r="CY22" s="38"/>
-      <c r="CZ22" s="40"/>
+      <c r="CZ22" s="85"/>
       <c r="DA22" s="42" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -7360,31 +7490,16 @@
       <c r="DE22" s="38"/>
       <c r="DF22" s="40"/>
       <c r="DG22" s="42" t="str">
-        <f t="shared" si="41"/>
-        <v>NA</v>
-      </c>
-      <c r="DH22" s="39"/>
-    </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="Y28" s="1">
-        <f>SUM(Y16:AA16)</f>
-        <v>4.4583333333333329E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="V29" s="1">
-        <f>SUM(V16:X16)</f>
-        <v>4.4583333333333329E-2</v>
-      </c>
-      <c r="W29" s="1">
-        <v>4.1203703703703706E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="V30" s="1">
-        <f>V29-W29</f>
-        <v>4.0462962962962958E-2</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>NA</v>
+      </c>
+      <c r="DH22" s="38"/>
+      <c r="DI22" s="40"/>
+      <c r="DJ22" s="42" t="str">
+        <f t="shared" si="42"/>
+        <v>NA</v>
+      </c>
+      <c r="DK22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D67D7-FBC2-4C41-9B6B-560F81AA09E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B0FA58-BAEC-48D2-B388-08ED95202324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -467,9 +467,6 @@
     <t>T1_VERTFISH</t>
   </si>
   <si>
-    <t>TIME_FISHJ</t>
-  </si>
-  <si>
     <t>AUTO</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>T1_CHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHJ</t>
   </si>
 </sst>
 </file>
@@ -1371,13 +1371,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DK22"/>
+  <dimension ref="A1:DH22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="CO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="CT10" sqref="CT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1403,13 +1403,13 @@
     <col min="82" max="82" width="8.7265625" style="73"/>
     <col min="84" max="84" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,13 +1564,13 @@
         <v>131</v>
       </c>
       <c r="AZ1" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="60" t="s">
         <v>208</v>
-      </c>
-      <c r="BB1" s="60" t="s">
-        <v>209</v>
       </c>
       <c r="BC1" s="83" t="s">
         <v>36</v>
@@ -1627,13 +1627,13 @@
         <v>64</v>
       </c>
       <c r="BU1" s="84" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="BV1" s="27" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="BW1" s="60" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="BX1" s="84" t="s">
         <v>117</v>
@@ -1681,22 +1681,22 @@
         <v>125</v>
       </c>
       <c r="CM1" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="CN1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CO1" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="CO1" s="60" t="s">
-        <v>212</v>
-      </c>
       <c r="CP1" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="CQ1" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CR1" s="60" t="s">
         <v>203</v>
-      </c>
-      <c r="CR1" s="60" t="s">
-        <v>204</v>
       </c>
       <c r="CS1" s="83" t="s">
         <v>132</v>
@@ -1717,54 +1717,45 @@
         <v>137</v>
       </c>
       <c r="CY1" s="83" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="CZ1" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="DA1" s="60" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="DB1" s="83" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="DC1" s="27" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="DD1" s="60" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="DE1" s="83" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="DF1" s="27" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="DG1" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="DH1" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="DI1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="DJ1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="DK1" s="28" t="s">
+      <c r="DH1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="C2" s="95" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="95">
         <v>4</v>
@@ -1800,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O2" s="95">
         <v>4</v>
@@ -1810,16 +1801,16 @@
         <v>0.11180555555555549</v>
       </c>
       <c r="Q2" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="95" t="s">
         <v>178</v>
-      </c>
-      <c r="R2" s="95" t="s">
-        <v>179</v>
       </c>
       <c r="S2" s="95">
         <v>0.27</v>
       </c>
       <c r="T2" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U2" s="95"/>
       <c r="V2" s="19">
@@ -2015,39 +2006,33 @@
         <f t="shared" ref="DD2:DD22" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="DE2" s="59"/>
-      <c r="DF2" s="72"/>
-      <c r="DG2" s="33" t="str">
-        <f t="shared" ref="DG2:DG22" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DH2" s="59">
+      <c r="DE2" s="59">
         <v>3</v>
       </c>
-      <c r="DI2" s="72">
+      <c r="DF2" s="72">
         <v>2.2129629629629628E-2</v>
       </c>
-      <c r="DJ2" s="33">
-        <f t="shared" ref="DJ2:DJ13" si="26">IF(DH2=0,"NA",DI2-$AC2)</f>
+      <c r="DG2" s="33">
+        <f t="shared" ref="DG2:DG13" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="DK2" s="35"/>
+      <c r="DH2" s="35"/>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A3" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C3" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="97">
         <v>6</v>
       </c>
       <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="27">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="26">C3&amp;""&amp;D3</f>
         <v>L6</v>
       </c>
       <c r="F3" s="97">
@@ -2077,26 +2062,26 @@
         <v>18</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O3" s="97">
         <v>4</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="28">I3-H3</f>
+        <f t="shared" ref="P3:P22" si="27">I3-H3</f>
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="Q3" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S3" s="97">
         <v>0.26</v>
       </c>
       <c r="T3" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U3" s="97"/>
       <c r="V3" s="19">
@@ -2112,7 +2097,7 @@
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="29">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="28">SUM(V3:AA3)</f>
         <v>6.008101851851852E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2284,49 +2269,43 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB3" s="31"/>
-      <c r="DC3" s="32"/>
-      <c r="DD3" s="33" t="str">
+      <c r="DB3" s="31">
+        <v>2</v>
+      </c>
+      <c r="DC3" s="34">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="DD3" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="DE3" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DF3" s="34">
-        <v>4.1666666666666666E-3</v>
+        <v>4.409722222222222E-3</v>
       </c>
       <c r="DG3" s="33">
         <f t="shared" si="25"/>
-        <v>1.6203703703703692E-4</v>
-      </c>
-      <c r="DH3" s="31">
-        <v>4</v>
-      </c>
-      <c r="DI3" s="34">
-        <v>4.409722222222222E-3</v>
-      </c>
-      <c r="DJ3" s="33">
-        <f t="shared" si="26"/>
         <v>4.0509259259259231E-4</v>
       </c>
-      <c r="DK3" s="35"/>
+      <c r="DH3" s="35"/>
     </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A4" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C4" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="97">
         <v>5</v>
       </c>
       <c r="E4" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L5</v>
       </c>
       <c r="F4" s="97">
@@ -2356,29 +2335,29 @@
         <v>5</v>
       </c>
       <c r="N4" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="97">
         <v>3</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7.9166666666666718E-2</v>
       </c>
       <c r="Q4" s="101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S4" s="97">
         <v>0.26</v>
       </c>
       <c r="T4" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U4" s="97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V4" s="19"/>
       <c r="W4" s="20"/>
@@ -2387,7 +2366,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC4" s="20"/>
@@ -2551,36 +2530,30 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH4" s="31"/>
-      <c r="DI4" s="34"/>
-      <c r="DJ4" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="DK4" s="35"/>
+      <c r="DH4" s="35"/>
     </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A5" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="D5" s="97">
         <v>5</v>
       </c>
       <c r="E5" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="F5" s="97">
         <v>4</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" s="101">
         <v>0.54166666666666663</v>
@@ -2603,29 +2576,29 @@
         <v>8</v>
       </c>
       <c r="N5" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O5" s="97">
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="Q5" s="101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R5" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S5" s="97">
         <v>0.26</v>
       </c>
       <c r="T5" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U5" s="97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V5" s="19"/>
       <c r="W5" s="20"/>
@@ -2634,7 +2607,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2798,29 +2771,23 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="32"/>
-      <c r="DJ5" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="DK5" s="35"/>
+      <c r="DH5" s="35"/>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A6" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C6" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="97">
         <v>4</v>
       </c>
       <c r="E6" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L4</v>
       </c>
       <c r="F6" s="97">
@@ -2850,26 +2817,26 @@
         <v>18</v>
       </c>
       <c r="N6" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O6" s="97">
         <v>2</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="Q6" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" s="97">
         <v>0.24</v>
       </c>
       <c r="T6" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U6" s="97"/>
       <c r="V6" s="19">
@@ -2883,7 +2850,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.2187500000000003E-2</v>
       </c>
       <c r="AC6" s="20">
@@ -3051,39 +3018,33 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE6" s="31"/>
-      <c r="DF6" s="32"/>
-      <c r="DG6" s="33" t="str">
+      <c r="DE6" s="31">
+        <v>3</v>
+      </c>
+      <c r="DF6" s="34">
+        <v>6.4236111111111117E-3</v>
+      </c>
+      <c r="DG6" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH6" s="31">
-        <v>3</v>
-      </c>
-      <c r="DI6" s="34">
-        <v>6.4236111111111117E-3</v>
-      </c>
-      <c r="DJ6" s="33">
-        <f t="shared" si="26"/>
         <v>1.7361111111111223E-4</v>
       </c>
-      <c r="DK6" s="35"/>
+      <c r="DH6" s="35"/>
     </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A7" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="D7" s="97">
         <v>6</v>
       </c>
       <c r="E7" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D6</v>
       </c>
       <c r="F7" s="97">
@@ -3113,26 +3074,26 @@
         <v>10</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O7" s="97">
         <v>3</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5.6250000000000022E-2</v>
       </c>
       <c r="Q7" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R7" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" s="97">
         <v>0.24</v>
       </c>
       <c r="T7" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U7" s="97"/>
       <c r="V7" s="19">
@@ -3148,7 +3109,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.0115740740740743E-2</v>
       </c>
       <c r="AC7" s="20">
@@ -3310,49 +3271,43 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB7" s="31"/>
-      <c r="DC7" s="32"/>
-      <c r="DD7" s="33" t="str">
+      <c r="DB7" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="34">
+        <v>1.0567129629629629E-2</v>
+      </c>
+      <c r="DD7" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
+        <v>6.5393518518518517E-3</v>
       </c>
       <c r="DE7" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DF7" s="34">
-        <v>1.0567129629629629E-2</v>
+        <v>5.9143518518518521E-3</v>
       </c>
       <c r="DG7" s="33">
         <f t="shared" si="25"/>
-        <v>6.5393518518518517E-3</v>
-      </c>
-      <c r="DH7" s="31">
-        <v>4</v>
-      </c>
-      <c r="DI7" s="34">
-        <v>5.9143518518518521E-3</v>
-      </c>
-      <c r="DJ7" s="33">
-        <f t="shared" si="26"/>
         <v>1.8865740740740744E-3</v>
       </c>
-      <c r="DK7" s="35"/>
+      <c r="DH7" s="35"/>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A8" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="D8" s="97">
         <v>5</v>
       </c>
       <c r="E8" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D5</v>
       </c>
       <c r="F8" s="97">
@@ -3379,32 +3334,32 @@
         <v>29</v>
       </c>
       <c r="M8" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="N8" s="97" t="s">
         <v>162</v>
-      </c>
-      <c r="N8" s="97" t="s">
-        <v>163</v>
       </c>
       <c r="O8" s="97">
         <v>3</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.27013888888888887</v>
       </c>
       <c r="Q8" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S8" s="97">
         <v>0.21</v>
       </c>
       <c r="T8" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" s="97" t="s">
         <v>187</v>
-      </c>
-      <c r="U8" s="97" t="s">
-        <v>188</v>
       </c>
       <c r="V8" s="19">
         <v>2.1354166666666664E-2</v>
@@ -3419,7 +3374,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.4374999999999998E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3584,54 +3539,48 @@
         <v>NA</v>
       </c>
       <c r="CY8" s="31"/>
-      <c r="CZ8" s="32"/>
+      <c r="CZ8" s="71"/>
       <c r="DA8" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB8" s="31"/>
-      <c r="DC8" s="71"/>
-      <c r="DD8" s="33" t="str">
+      <c r="DB8" s="31">
+        <v>3</v>
+      </c>
+      <c r="DC8" s="71">
+        <v>4.0856481481481481E-3</v>
+      </c>
+      <c r="DD8" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
+        <v>1.7361111111111136E-4</v>
       </c>
       <c r="DE8" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DF8" s="71">
-        <v>4.0856481481481481E-3</v>
+        <v>2.6041666666666668E-2</v>
       </c>
       <c r="DG8" s="33">
         <f t="shared" si="25"/>
-        <v>1.7361111111111136E-4</v>
-      </c>
-      <c r="DH8" s="31">
-        <v>1</v>
-      </c>
-      <c r="DI8" s="71">
-        <v>2.6041666666666668E-2</v>
-      </c>
-      <c r="DJ8" s="33">
-        <f t="shared" si="26"/>
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="DK8" s="35"/>
+      <c r="DH8" s="35"/>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A9" s="98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="97">
         <v>5</v>
       </c>
       <c r="E9" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L5</v>
       </c>
       <c r="F9" s="97">
@@ -3658,32 +3607,32 @@
         <v>26</v>
       </c>
       <c r="M9" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N9" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O9" s="97">
         <v>3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.26944444444444443</v>
       </c>
       <c r="Q9" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R9" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S9" s="97">
         <v>0.21</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U9" s="97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" s="19">
         <v>2.5914351851851855E-2</v>
@@ -3698,7 +3647,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.0324074074074072E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3861,7 +3810,7 @@
         <v>NA</v>
       </c>
       <c r="CY9" s="31"/>
-      <c r="CZ9" s="32"/>
+      <c r="CZ9" s="57"/>
       <c r="DA9" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -3872,39 +3821,33 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE9" s="31"/>
-      <c r="DF9" s="57"/>
-      <c r="DG9" s="33" t="str">
+      <c r="DE9" s="31">
+        <v>2</v>
+      </c>
+      <c r="DF9" s="57">
+        <v>1.7141203703703704E-2</v>
+      </c>
+      <c r="DG9" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH9" s="31">
-        <v>2</v>
-      </c>
-      <c r="DI9" s="57">
-        <v>1.7141203703703704E-2</v>
-      </c>
-      <c r="DJ9" s="33">
-        <f t="shared" si="26"/>
         <v>1.2511574074074074E-2</v>
       </c>
-      <c r="DK9" s="35"/>
+      <c r="DH9" s="35"/>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A10" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="97" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>152</v>
       </c>
       <c r="D10" s="97">
         <v>6</v>
       </c>
       <c r="E10" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="F10" s="97">
@@ -3934,29 +3877,29 @@
         <v>37</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" s="97">
         <v>3</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7.5694444444444398E-2</v>
       </c>
       <c r="Q10" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R10" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S10" s="97">
         <v>0.23</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U10" s="97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V10" s="19"/>
       <c r="W10" s="20"/>
@@ -3965,7 +3908,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC10" s="20"/>
@@ -4129,36 +4072,30 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH10" s="31"/>
-      <c r="DI10" s="34"/>
-      <c r="DJ10" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="DK10" s="35"/>
+      <c r="DH10" s="35"/>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A11" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>152</v>
       </c>
       <c r="D11" s="97">
         <v>4</v>
       </c>
       <c r="E11" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E4</v>
       </c>
       <c r="F11" s="97">
         <v>4</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="101">
         <v>0.44166666666666665</v>
@@ -4181,26 +4118,26 @@
         <v>62</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11" s="97">
         <v>4</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.8749999999999978E-2</v>
       </c>
       <c r="Q11" s="101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R11" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S11" s="97">
         <v>0.23</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U11" s="97"/>
       <c r="V11" s="19">
@@ -4218,7 +4155,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5.7280092592592591E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -4396,21 +4333,21 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="31"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33" t="str">
+      <c r="CY11" s="31">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="34">
+        <v>4.1655092592592598E-2</v>
+      </c>
+      <c r="DA11" s="33">
         <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB11" s="31">
-        <v>1</v>
-      </c>
-      <c r="DC11" s="34">
-        <v>4.1655092592592598E-2</v>
-      </c>
-      <c r="DD11" s="33">
+        <v>3.7673611111111116E-2</v>
+      </c>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="34"/>
+      <c r="DD11" s="33" t="str">
         <f t="shared" si="24"/>
-        <v>3.7673611111111116E-2</v>
+        <v>NA</v>
       </c>
       <c r="DE11" s="31"/>
       <c r="DF11" s="34"/>
@@ -4418,29 +4355,23 @@
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH11" s="31"/>
-      <c r="DI11" s="34"/>
-      <c r="DJ11" s="33" t="str">
-        <f t="shared" si="26"/>
-        <v>NA</v>
-      </c>
-      <c r="DK11" s="35"/>
+      <c r="DH11" s="35"/>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="97" t="s">
         <v>151</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="97">
         <v>5</v>
       </c>
       <c r="E12" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E5</v>
       </c>
       <c r="F12" s="97">
@@ -4470,26 +4401,26 @@
         <v>52</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O12" s="97">
         <v>3</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="Q12" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S12" s="97">
         <v>0.25</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U12" s="97"/>
       <c r="V12" s="19">
@@ -4505,7 +4436,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3.9143518518518522E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4685,39 +4616,33 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE12" s="31"/>
-      <c r="DF12" s="71"/>
-      <c r="DG12" s="33" t="str">
+      <c r="DE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="DF12" s="71">
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="DG12" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH12" s="31">
-        <v>1</v>
-      </c>
-      <c r="DI12" s="71">
-        <v>3.8657407407407408E-3</v>
-      </c>
-      <c r="DJ12" s="33">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="DK12" s="35"/>
+      <c r="DH12" s="35"/>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A13" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C13" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="97">
         <v>2</v>
       </c>
       <c r="E13" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L2</v>
       </c>
       <c r="F13" s="97">
@@ -4747,26 +4672,26 @@
         <v>50</v>
       </c>
       <c r="N13" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O13" s="97">
         <v>3</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.11805555555555552</v>
       </c>
       <c r="Q13" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R13" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S13" s="97">
         <v>0.24</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U13" s="97"/>
       <c r="V13" s="19">
@@ -4782,7 +4707,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.4976851851851851E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4963,7 +4888,7 @@
         <v>NA</v>
       </c>
       <c r="CY13" s="31"/>
-      <c r="CZ13" s="34"/>
+      <c r="CZ13" s="32"/>
       <c r="DA13" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -4974,39 +4899,33 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE13" s="31"/>
-      <c r="DF13" s="32"/>
-      <c r="DG13" s="33" t="str">
+      <c r="DE13" s="31">
+        <v>2</v>
+      </c>
+      <c r="DF13" s="34">
+        <v>5.6365740740740742E-3</v>
+      </c>
+      <c r="DG13" s="33">
         <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH13" s="31">
-        <v>2</v>
-      </c>
-      <c r="DI13" s="34">
-        <v>5.6365740740740742E-3</v>
-      </c>
-      <c r="DJ13" s="33">
-        <f t="shared" si="26"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="DK13" s="35"/>
+      <c r="DH13" s="35"/>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A14" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C14" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="97">
         <v>1</v>
       </c>
       <c r="E14" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L1</v>
       </c>
       <c r="F14" s="97">
@@ -5036,26 +4955,26 @@
         <v>61</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O14" s="97">
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.1159722222222222</v>
       </c>
       <c r="Q14" s="101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R14" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S14" s="97">
         <v>0.24</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U14" s="97"/>
       <c r="V14" s="19">
@@ -5071,7 +4990,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.6909722222222218E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -5081,7 +5000,7 @@
         <v>1.8831018518518518E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="30">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="29">AB14-AC14-AD14</f>
         <v>4.1828703703703701E-2</v>
       </c>
       <c r="AF14" s="21"/>
@@ -5100,25 +5019,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="AM14" s="33">
-        <f t="shared" ref="AM14:AM22" si="31">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="30">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>2.1076388888888891E-2</v>
       </c>
       <c r="AN14" s="31"/>
       <c r="AO14" s="32"/>
       <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="32">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="31">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="31"/>
       <c r="AR14" s="32"/>
       <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="33">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="32">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="31"/>
       <c r="AU14" s="32"/>
       <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="34">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="33">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="31"/>
@@ -5136,13 +5055,13 @@
       <c r="BC14" s="31"/>
       <c r="BD14" s="34"/>
       <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="35">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="32"/>
       <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="36">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="31">
@@ -5152,7 +5071,7 @@
         <v>2.4201388888888887E-2</v>
       </c>
       <c r="BK14" s="33">
-        <f t="shared" ref="BK14:BK22" si="37">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.7951388888888888E-2</v>
       </c>
       <c r="BL14" s="31">
@@ -5162,19 +5081,19 @@
         <v>2.4131944444444445E-2</v>
       </c>
       <c r="BN14" s="33">
-        <f t="shared" ref="BN14:BN22" si="38">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>1.7881944444444447E-2</v>
       </c>
       <c r="BO14" s="31"/>
       <c r="BP14" s="32"/>
       <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="39">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="31"/>
       <c r="BS14" s="32"/>
       <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="40">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="41"/>
@@ -5186,7 +5105,7 @@
       <c r="BX14" s="41"/>
       <c r="BY14" s="34"/>
       <c r="BZ14" s="33" t="str">
-        <f t="shared" ref="BZ14:BZ22" si="41">IF(BX14=0,"NA",BY14-$AC14)</f>
+        <f t="shared" ref="BZ14:BZ22" si="40">IF(BX14=0,"NA",BY14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="CA14" s="31"/>
@@ -5252,32 +5171,26 @@
       <c r="DE14" s="31"/>
       <c r="DF14" s="32"/>
       <c r="DG14" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH14" s="31"/>
-      <c r="DI14" s="32"/>
-      <c r="DJ14" s="33" t="str">
-        <f t="shared" ref="DJ14:DJ22" si="42">IF(DH14=0,"NA",DI14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DK14" s="35"/>
+        <f t="shared" ref="DG14:DG22" si="41">IF(DE14=0,"NA",DF14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DH14" s="35"/>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A15" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C15" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="97">
         <v>3</v>
       </c>
       <c r="E15" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>L3</v>
       </c>
       <c r="F15" s="97">
@@ -5307,26 +5220,26 @@
         <v>70</v>
       </c>
       <c r="N15" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O15" s="97">
         <v>3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9.5833333333333381E-2</v>
       </c>
       <c r="Q15" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="R15" s="97" t="s">
         <v>178</v>
-      </c>
-      <c r="R15" s="97" t="s">
-        <v>179</v>
       </c>
       <c r="S15" s="97">
         <v>0.24</v>
       </c>
       <c r="T15" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U15" s="97"/>
       <c r="V15" s="19">
@@ -5342,7 +5255,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5.5925925925925928E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -5352,7 +5265,7 @@
         <v>5.9027777777777776E-3</v>
       </c>
       <c r="AE15" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF15" s="103">
@@ -5375,7 +5288,7 @@
         <v>3.6354166666666667E-2</v>
       </c>
       <c r="AM15" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3.1354166666666669E-2</v>
       </c>
       <c r="AN15" s="31">
@@ -5385,19 +5298,19 @@
         <v>8.3912037037037045E-3</v>
       </c>
       <c r="AP15" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>3.3912037037037044E-3</v>
       </c>
       <c r="AQ15" s="31"/>
       <c r="AR15" s="32"/>
       <c r="AS15" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="32"/>
       <c r="AV15" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="31"/>
@@ -5415,19 +5328,19 @@
       <c r="BC15" s="31"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="32"/>
       <c r="BH15" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="31"/>
       <c r="BJ15" s="34"/>
       <c r="BK15" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="31">
@@ -5437,19 +5350,19 @@
         <v>1.0300925925925927E-2</v>
       </c>
       <c r="BN15" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5.3009259259259268E-3</v>
       </c>
       <c r="BO15" s="31"/>
       <c r="BP15" s="32"/>
       <c r="BQ15" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="31"/>
       <c r="BS15" s="32"/>
       <c r="BT15" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU15" s="41"/>
@@ -5465,7 +5378,7 @@
         <v>3.8310185185185183E-2</v>
       </c>
       <c r="BZ15" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>3.3310185185185186E-2</v>
       </c>
       <c r="CA15" s="31"/>
@@ -5522,52 +5435,46 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB15" s="31"/>
-      <c r="DC15" s="32"/>
-      <c r="DD15" s="33" t="str">
+      <c r="DB15" s="31">
+        <v>2</v>
+      </c>
+      <c r="DC15" s="71">
+        <v>8.0208333333333329E-3</v>
+      </c>
+      <c r="DD15" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="DE15" s="31">
-        <v>2</v>
-      </c>
-      <c r="DF15" s="71">
-        <v>8.0208333333333329E-3</v>
-      </c>
-      <c r="DG15" s="33">
-        <f t="shared" si="25"/>
         <v>3.0208333333333328E-3</v>
       </c>
-      <c r="DH15" s="31"/>
-      <c r="DI15" s="32"/>
-      <c r="DJ15" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK15" s="35"/>
+      <c r="DE15" s="31"/>
+      <c r="DF15" s="32"/>
+      <c r="DG15" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH15" s="35"/>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C16" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="97">
         <v>1</v>
       </c>
       <c r="E16" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D1</v>
       </c>
       <c r="F16" s="97">
         <v>4</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="101">
         <v>0.42708333333333331</v>
@@ -5590,26 +5497,26 @@
         <v>71</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O16" s="97">
         <v>6</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>8.8888888888888851E-2</v>
       </c>
       <c r="Q16" s="101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S16" s="97">
         <v>0.24</v>
       </c>
       <c r="T16" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U16" s="97"/>
       <c r="V16" s="19">
@@ -5631,7 +5538,7 @@
         <v>1.486111111111111E-2</v>
       </c>
       <c r="AB16" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>8.9166666666666644E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5641,7 +5548,7 @@
         <v>4.1111111111111112E-2</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.393518518518516E-2</v>
       </c>
       <c r="AF16" s="21"/>
@@ -5652,25 +5559,25 @@
       <c r="AK16" s="31"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="31"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="34"/>
       <c r="AS16" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="31"/>
       <c r="AU16" s="34"/>
       <c r="AV16" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="31"/>
@@ -5688,19 +5595,19 @@
       <c r="BC16" s="31"/>
       <c r="BD16" s="34"/>
       <c r="BE16" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="34"/>
       <c r="BH16" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="31"/>
       <c r="BJ16" s="34"/>
       <c r="BK16" s="57" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="41">
@@ -5710,13 +5617,13 @@
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="BN16" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>1.2731481481481448E-4</v>
       </c>
       <c r="BO16" s="31"/>
       <c r="BP16" s="32"/>
       <c r="BQ16" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="31">
@@ -5726,7 +5633,7 @@
         <v>9.5486111111111101E-3</v>
       </c>
       <c r="BT16" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5.4282407407407396E-3</v>
       </c>
       <c r="BU16" s="41"/>
@@ -5738,7 +5645,7 @@
       <c r="BX16" s="41"/>
       <c r="BY16" s="57"/>
       <c r="BZ16" s="33" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="CA16" s="31"/>
@@ -5804,32 +5711,26 @@
       <c r="DE16" s="31"/>
       <c r="DF16" s="34"/>
       <c r="DG16" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH16" s="31"/>
-      <c r="DI16" s="34"/>
-      <c r="DJ16" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK16" s="35"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH16" s="35"/>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A17" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="97">
         <v>6</v>
       </c>
       <c r="E17" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E6</v>
       </c>
       <c r="F17" s="97">
@@ -5859,29 +5760,29 @@
         <v>41</v>
       </c>
       <c r="N17" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O17" s="97">
         <v>3</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="Q17" s="101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R17" s="97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S17" s="97">
         <v>0.26</v>
       </c>
       <c r="T17" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" s="97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V17" s="19">
         <v>1.832175925925926E-2</v>
@@ -5896,7 +5797,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.4826388888888888E-2</v>
       </c>
       <c r="AC17" s="20">
@@ -5904,7 +5805,7 @@
       </c>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.1006944444444443E-2</v>
       </c>
       <c r="AF17" s="21">
@@ -5923,25 +5824,25 @@
       <c r="AK17" s="31"/>
       <c r="AL17" s="34"/>
       <c r="AM17" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="31"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="31"/>
       <c r="AR17" s="34"/>
       <c r="AS17" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="34"/>
       <c r="AV17" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="31"/>
@@ -5963,19 +5864,19 @@
         <v>1.5416666666666667E-2</v>
       </c>
       <c r="BE17" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1.1597222222222222E-2</v>
       </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="34"/>
       <c r="BH17" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="31"/>
       <c r="BJ17" s="34"/>
       <c r="BK17" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="41">
@@ -5985,19 +5886,19 @@
         <v>4.2476851851851851E-3</v>
       </c>
       <c r="BN17" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="34"/>
       <c r="BQ17" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR17" s="41"/>
       <c r="BS17" s="34"/>
       <c r="BT17" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU17" s="41"/>
@@ -6013,7 +5914,7 @@
         <v>4.0509259259259257E-3</v>
       </c>
       <c r="BZ17" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2.3148148148148138E-4</v>
       </c>
       <c r="CA17" s="31"/>
@@ -6083,32 +5984,26 @@
       <c r="DE17" s="31"/>
       <c r="DF17" s="34"/>
       <c r="DG17" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH17" s="31"/>
-      <c r="DI17" s="34"/>
-      <c r="DJ17" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK17" s="35"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH17" s="35"/>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A18" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="97">
         <v>2</v>
       </c>
       <c r="E18" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D2</v>
       </c>
       <c r="F18" s="97">
@@ -6138,26 +6033,26 @@
         <v>41</v>
       </c>
       <c r="N18" s="97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O18" s="97">
         <v>3</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.1152777777777777</v>
       </c>
       <c r="Q18" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R18" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S18" s="97">
         <v>0.32</v>
       </c>
       <c r="T18" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U18" s="97"/>
       <c r="V18" s="19">
@@ -6173,7 +6068,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.4664351851851851E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -6181,7 +6076,7 @@
       </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.0497685185185185E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -6200,7 +6095,7 @@
       <c r="AK18" s="31"/>
       <c r="AL18" s="34"/>
       <c r="AM18" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="31">
@@ -6210,19 +6105,19 @@
         <v>2.3252314814814812E-2</v>
       </c>
       <c r="AP18" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.9085648148148147E-2</v>
       </c>
       <c r="AQ18" s="31"/>
       <c r="AR18" s="34"/>
       <c r="AS18" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="31"/>
       <c r="AU18" s="34"/>
       <c r="AV18" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="31"/>
@@ -6244,19 +6139,19 @@
         <v>3.1828703703703706E-2</v>
       </c>
       <c r="BE18" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>2.7662037037037041E-2</v>
       </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="34"/>
       <c r="BH18" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="31"/>
       <c r="BJ18" s="34"/>
       <c r="BK18" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="31">
@@ -6266,19 +6161,19 @@
         <v>2.6643518518518521E-2</v>
       </c>
       <c r="BN18" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.2476851851851855E-2</v>
       </c>
       <c r="BO18" s="31"/>
       <c r="BP18" s="34"/>
       <c r="BQ18" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="31"/>
       <c r="BS18" s="34"/>
       <c r="BT18" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU18" s="41">
@@ -6298,7 +6193,7 @@
         <v>3.5891203703703703E-2</v>
       </c>
       <c r="BZ18" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>3.1724537037037037E-2</v>
       </c>
       <c r="CA18" s="31"/>
@@ -6369,39 +6264,33 @@
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE18" s="31"/>
-      <c r="DF18" s="34"/>
-      <c r="DG18" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH18" s="31">
+      <c r="DE18" s="31">
         <v>4</v>
       </c>
-      <c r="DI18" s="34">
+      <c r="DF18" s="34">
         <v>1.3587962962962963E-2</v>
       </c>
-      <c r="DJ18" s="33">
-        <f t="shared" si="42"/>
+      <c r="DG18" s="33">
+        <f t="shared" si="41"/>
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="DK18" s="35"/>
+      <c r="DH18" s="35"/>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="97">
         <v>3</v>
       </c>
       <c r="E19" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>D3</v>
       </c>
       <c r="F19" s="97">
@@ -6431,26 +6320,26 @@
         <v>53</v>
       </c>
       <c r="N19" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O19" s="97">
         <v>3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Q19" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R19" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S19" s="97">
         <v>0.32</v>
       </c>
       <c r="T19" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U19" s="97"/>
       <c r="V19" s="19">
@@ -6466,7 +6355,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.5949074074074073E-2</v>
       </c>
       <c r="AC19" s="20">
@@ -6474,7 +6363,7 @@
       </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.1840277777777775E-2</v>
       </c>
       <c r="AF19" s="21">
@@ -6493,7 +6382,7 @@
       <c r="AK19" s="31"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="31">
@@ -6503,19 +6392,19 @@
         <v>9.6064814814814815E-3</v>
       </c>
       <c r="AP19" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5.4976851851851844E-3</v>
       </c>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="34"/>
       <c r="AS19" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="31"/>
       <c r="AU19" s="34"/>
       <c r="AV19" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="31"/>
@@ -6533,19 +6422,19 @@
       <c r="BC19" s="31"/>
       <c r="BD19" s="34"/>
       <c r="BE19" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="34"/>
       <c r="BH19" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="31"/>
       <c r="BJ19" s="34"/>
       <c r="BK19" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="31">
@@ -6555,19 +6444,19 @@
         <v>5.0925925925925921E-3</v>
       </c>
       <c r="BN19" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>9.8379629629629511E-4</v>
       </c>
       <c r="BO19" s="31"/>
       <c r="BP19" s="34"/>
       <c r="BQ19" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="31"/>
       <c r="BS19" s="34"/>
       <c r="BT19" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="41"/>
@@ -6583,7 +6472,7 @@
         <v>1.0231481481481482E-2</v>
       </c>
       <c r="BZ19" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>6.122685185185185E-3</v>
       </c>
       <c r="CA19" s="31"/>
@@ -6640,45 +6529,39 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB19" s="31"/>
-      <c r="DC19" s="34"/>
-      <c r="DD19" s="33" t="str">
+      <c r="DB19" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC19" s="34">
+        <v>3.5196759259259254E-2</v>
+      </c>
+      <c r="DD19" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="DE19" s="31">
-        <v>1</v>
-      </c>
-      <c r="DF19" s="34">
-        <v>3.5196759259259254E-2</v>
-      </c>
-      <c r="DG19" s="33">
-        <f t="shared" si="25"/>
         <v>3.1087962962962956E-2</v>
       </c>
-      <c r="DH19" s="31"/>
-      <c r="DI19" s="34"/>
-      <c r="DJ19" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK19" s="35"/>
+      <c r="DE19" s="31"/>
+      <c r="DF19" s="34"/>
+      <c r="DG19" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH19" s="35"/>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="97">
         <v>2</v>
       </c>
       <c r="E20" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E2</v>
       </c>
       <c r="F20" s="97">
@@ -6708,26 +6591,26 @@
         <v>73</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O20" s="97">
         <v>3</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7.3611111111111183E-2</v>
       </c>
       <c r="Q20" s="101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R20" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S20" s="97">
         <v>0.34</v>
       </c>
       <c r="T20" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U20" s="97"/>
       <c r="V20" s="19">
@@ -6743,7 +6626,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5.3576388888888889E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -6753,7 +6636,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.2638888888888893E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -6772,7 +6655,7 @@
       <c r="AK20" s="31"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="31">
@@ -6782,19 +6665,19 @@
         <v>2.344907407407407E-2</v>
       </c>
       <c r="AP20" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.9456018518518515E-2</v>
       </c>
       <c r="AQ20" s="31"/>
       <c r="AR20" s="34"/>
       <c r="AS20" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="31"/>
       <c r="AU20" s="34"/>
       <c r="AV20" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="31"/>
@@ -6812,19 +6695,19 @@
       <c r="BC20" s="31"/>
       <c r="BD20" s="34"/>
       <c r="BE20" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="34"/>
       <c r="BH20" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="31"/>
       <c r="BJ20" s="34"/>
       <c r="BK20" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="31">
@@ -6834,19 +6717,19 @@
         <v>3.9930555555555561E-3</v>
       </c>
       <c r="BN20" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BO20" s="31"/>
       <c r="BP20" s="34"/>
       <c r="BQ20" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="31"/>
       <c r="BS20" s="34"/>
       <c r="BT20" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="41"/>
@@ -6858,7 +6741,7 @@
       <c r="BX20" s="41"/>
       <c r="BY20" s="34"/>
       <c r="BZ20" s="33" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>NA</v>
       </c>
       <c r="CA20" s="31"/>
@@ -6915,52 +6798,46 @@
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB20" s="31"/>
-      <c r="DC20" s="34"/>
-      <c r="DD20" s="33" t="str">
+      <c r="DB20" s="31">
+        <v>1</v>
+      </c>
+      <c r="DC20" s="34">
+        <v>1.6793981481481483E-2</v>
+      </c>
+      <c r="DD20" s="33">
         <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="DE20" s="31">
-        <v>1</v>
-      </c>
-      <c r="DF20" s="34">
-        <v>1.6793981481481483E-2</v>
-      </c>
-      <c r="DG20" s="33">
-        <f t="shared" si="25"/>
         <v>1.2800925925925927E-2</v>
       </c>
-      <c r="DH20" s="31"/>
-      <c r="DI20" s="34"/>
-      <c r="DJ20" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK20" s="35"/>
+      <c r="DE20" s="31"/>
+      <c r="DF20" s="34"/>
+      <c r="DG20" s="33" t="str">
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH20" s="35"/>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.35">
       <c r="A21" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="97">
         <v>3</v>
       </c>
       <c r="E21" s="76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E3</v>
       </c>
       <c r="F21" s="97">
         <v>4</v>
       </c>
       <c r="G21" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="101">
         <v>0.54652777777777783</v>
@@ -6983,26 +6860,26 @@
         <v>62</v>
       </c>
       <c r="N21" s="97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O21" s="97">
         <v>3</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6.8055555555555536E-2</v>
       </c>
       <c r="Q21" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R21" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S21" s="97">
         <v>0.34</v>
       </c>
       <c r="T21" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U21" s="97"/>
       <c r="V21" s="78">
@@ -7018,7 +6895,7 @@
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
       <c r="AB21" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3.3865740740740738E-2</v>
       </c>
       <c r="AC21" s="80">
@@ -7026,7 +6903,7 @@
       </c>
       <c r="AD21" s="80"/>
       <c r="AE21" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.9699074074074072E-2</v>
       </c>
       <c r="AF21" s="21">
@@ -7036,7 +6913,7 @@
         <v>65</v>
       </c>
       <c r="AH21" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI21" s="29">
         <v>4</v>
@@ -7047,25 +6924,25 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="31"/>
       <c r="AO21" s="32"/>
       <c r="AP21" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="31"/>
       <c r="AR21" s="32"/>
       <c r="AS21" s="33" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="32"/>
       <c r="AV21" s="33" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="31"/>
@@ -7083,19 +6960,19 @@
       <c r="BC21" s="31"/>
       <c r="BD21" s="34"/>
       <c r="BE21" s="33" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="31"/>
       <c r="BJ21" s="32"/>
       <c r="BK21" s="33" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BL21" s="31">
@@ -7105,19 +6982,19 @@
         <v>3.2858796296296296E-2</v>
       </c>
       <c r="BN21" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>2.869212962962963E-2</v>
       </c>
       <c r="BO21" s="31"/>
       <c r="BP21" s="32"/>
       <c r="BQ21" s="33" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="31"/>
       <c r="BS21" s="32"/>
       <c r="BT21" s="33" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="41"/>
@@ -7133,7 +7010,7 @@
         <v>2.1956018518518517E-2</v>
       </c>
       <c r="BZ21" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>1.7789351851851851E-2</v>
       </c>
       <c r="CA21" s="31"/>
@@ -7195,7 +7072,7 @@
         <v>NA</v>
       </c>
       <c r="DB21" s="31"/>
-      <c r="DC21" s="32"/>
+      <c r="DC21" s="57"/>
       <c r="DD21" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
@@ -7203,32 +7080,26 @@
       <c r="DE21" s="31"/>
       <c r="DF21" s="57"/>
       <c r="DG21" s="33" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH21" s="31"/>
-      <c r="DI21" s="57"/>
-      <c r="DJ21" s="33" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK21" s="35"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH21" s="35"/>
     </row>
-    <row r="22" spans="1:115" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="77" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>E1</v>
       </c>
       <c r="F22" s="11">
@@ -7258,26 +7129,26 @@
         <v>80</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O22" s="11">
         <v>3</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S22" s="11">
         <v>0.36</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="81">
@@ -7293,7 +7164,7 @@
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5.289351851851852E-2</v>
       </c>
       <c r="AC22" s="82">
@@ -7303,7 +7174,7 @@
         <v>1.1388888888888888E-2</v>
       </c>
       <c r="AE22" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3.6180555555555556E-2</v>
       </c>
       <c r="AF22" s="24">
@@ -7322,25 +7193,25 @@
       <c r="AK22" s="38"/>
       <c r="AL22" s="40"/>
       <c r="AM22" s="42" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AN22" s="38"/>
       <c r="AO22" s="40"/>
       <c r="AP22" s="42" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="AQ22" s="38"/>
       <c r="AR22" s="85"/>
       <c r="AS22" s="42" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="38"/>
       <c r="AU22" s="85"/>
       <c r="AV22" s="42" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="38"/>
@@ -7362,13 +7233,13 @@
       <c r="BC22" s="38"/>
       <c r="BD22" s="40"/>
       <c r="BE22" s="42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="38"/>
       <c r="BG22" s="85"/>
       <c r="BH22" s="42" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="38">
@@ -7378,7 +7249,7 @@
         <v>8.1018518518518514E-3</v>
       </c>
       <c r="BK22" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2.7777777777777766E-3</v>
       </c>
       <c r="BL22" s="38">
@@ -7388,19 +7259,19 @@
         <v>5.37037037037037E-3</v>
       </c>
       <c r="BN22" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>4.6296296296295149E-5</v>
       </c>
       <c r="BO22" s="38"/>
       <c r="BP22" s="85"/>
       <c r="BQ22" s="42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="38"/>
       <c r="BS22" s="85"/>
       <c r="BT22" s="42" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="86"/>
@@ -7416,7 +7287,7 @@
         <v>3.0173611111111113E-2</v>
       </c>
       <c r="BZ22" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2.4849537037037038E-2</v>
       </c>
       <c r="CA22" s="38"/>
@@ -7476,7 +7347,7 @@
         <v>NA</v>
       </c>
       <c r="CY22" s="38"/>
-      <c r="CZ22" s="85"/>
+      <c r="CZ22" s="40"/>
       <c r="DA22" s="42" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
@@ -7490,16 +7361,10 @@
       <c r="DE22" s="38"/>
       <c r="DF22" s="40"/>
       <c r="DG22" s="42" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="DH22" s="38"/>
-      <c r="DI22" s="40"/>
-      <c r="DJ22" s="42" t="str">
-        <f t="shared" si="42"/>
-        <v>NA</v>
-      </c>
-      <c r="DK22" s="39"/>
+        <f t="shared" si="41"/>
+        <v>NA</v>
+      </c>
+      <c r="DH22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7543,7 +7408,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="56">
         <v>0.56111111111111112</v>
@@ -7557,7 +7422,7 @@
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="56">
         <v>0.55555555555555558</v>
@@ -7571,7 +7436,7 @@
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="56">
         <v>0.45069444444444445</v>
@@ -7757,7 +7622,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>72</v>
@@ -7770,10 +7635,10 @@
         <v>74</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" s="45" t="s">
         <v>89</v>
@@ -7788,10 +7653,10 @@
         <v>75</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>145</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>146</v>
       </c>
       <c r="R2" s="45" t="s">
         <v>90</v>
@@ -7822,7 +7687,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="50" t="s">
         <v>79</v>
@@ -7854,7 +7719,7 @@
         <v>85</v>
       </c>
       <c r="AM2" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO2" s="90"/>
       <c r="AP2" s="90"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B0FA58-BAEC-48D2-B388-08ED95202324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899ADC4A-714C-4632-A03A-E8EB9A376C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="215">
   <si>
     <t>DATE</t>
   </si>
@@ -647,9 +647,6 @@
     <t>T1_YELLOWSTRIPE</t>
   </si>
   <si>
-    <t>28/04/20204</t>
-  </si>
-  <si>
     <t>FOOTAGE SHORT. MAYBE CHECK IF BEGINNING CAN BE USED</t>
   </si>
   <si>
@@ -672,6 +669,15 @@
   </si>
   <si>
     <t>TIME_1STFISHJ</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>28/04/2024</t>
   </si>
 </sst>
 </file>
@@ -728,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -912,19 +918,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -956,11 +949,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1080,17 +1099,20 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,4158 +1393,4203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DH22"/>
+  <dimension ref="A1:DI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="CO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CT10" sqref="CT10"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.7265625" style="73"/>
-    <col min="76" max="76" width="8.7265625" style="73"/>
-    <col min="82" max="82" width="8.7265625" style="73"/>
-    <col min="84" max="84" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7265625" style="73"/>
+    <col min="77" max="77" width="8.7265625" style="73"/>
+    <col min="83" max="83" width="8.7265625" style="73"/>
+    <col min="85" max="85" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="8.7265625" style="102"/>
+    <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AK1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="83" t="s">
+      <c r="AL1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="60" t="s">
+      <c r="AN1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="83" t="s">
+      <c r="AO1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="83" t="s">
+      <c r="AR1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="60" t="s">
+      <c r="AT1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="83" t="s">
+      <c r="AU1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="60" t="s">
+      <c r="AW1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="83" t="s">
+      <c r="AX1" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="60" t="s">
+      <c r="AZ1" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="83" t="s">
+      <c r="BA1" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB1" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BC1" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="BB1" s="60" t="s">
+      <c r="BD1" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI1" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ1" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL1" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM1" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO1" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP1" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="BQ1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="BR1" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS1" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV1" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW1" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX1" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY1" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="BZ1" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="CA1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB1" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD1" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE1" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG1" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH1" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="CJ1" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="CK1" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM1" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN1" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="BC1" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE1" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF1" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="BH1" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="BI1" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="BK1" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL1" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="BM1" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN1" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="BO1" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ1" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR1" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS1" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="BT1" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="BU1" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="BV1" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="BW1" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX1" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="BY1" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="BZ1" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="CA1" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="CB1" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC1" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="CD1" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="CE1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF1" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG1" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="CH1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="CI1" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="CJ1" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="CK1" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="CL1" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CO1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CP1" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="CO1" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CQ1" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CR1" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CS1" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CT1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CV1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CV1" s="83" t="s">
+      <c r="CW1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CW1" s="27" t="s">
+      <c r="CX1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CX1" s="60" t="s">
+      <c r="CY1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CY1" s="83" t="s">
+      <c r="CZ1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CZ1" s="27" t="s">
+      <c r="DA1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="DA1" s="60" t="s">
+      <c r="DB1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="DB1" s="83" t="s">
+      <c r="DC1" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="DC1" s="27" t="s">
+      <c r="DD1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="DD1" s="60" t="s">
+      <c r="DE1" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="DE1" s="83" t="s">
+      <c r="DF1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="DF1" s="27" t="s">
+      <c r="DG1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="DG1" s="60" t="s">
+      <c r="DH1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="DH1" s="28" t="s">
+      <c r="DI1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="D2" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="95">
+      <c r="E2" s="94">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="str">
-        <f>C2&amp;""&amp;D2</f>
+      <c r="F2" s="76" t="str">
+        <f>D2&amp;""&amp;E2</f>
         <v>D4</v>
       </c>
-      <c r="F2" s="95">
+      <c r="G2" s="94">
         <v>1</v>
       </c>
-      <c r="G2" s="95">
+      <c r="H2" s="94">
         <v>12</v>
       </c>
-      <c r="H2" s="100">
+      <c r="I2" s="97">
         <v>0.51944444444444449</v>
       </c>
-      <c r="I2" s="100">
+      <c r="J2" s="97">
         <v>0.63124999999999998</v>
       </c>
-      <c r="J2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
+      <c r="K2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,2)</f>
         <v>-5.468826</v>
       </c>
-      <c r="K2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
+      <c r="L2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,3)</f>
         <v>119.300459</v>
       </c>
-      <c r="L2" s="95">
+      <c r="M2" s="94">
         <v>30</v>
       </c>
-      <c r="M2" s="95">
+      <c r="N2" s="94">
         <v>12</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="O2" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="O2" s="95">
+      <c r="P2" s="94">
         <v>4</v>
       </c>
-      <c r="P2" s="6">
-        <f>I2-H2</f>
+      <c r="Q2" s="6">
+        <f>J2-I2</f>
         <v>0.11180555555555549</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="R2" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="S2" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="95">
+      <c r="T2" s="94">
         <v>0.27</v>
       </c>
-      <c r="T2" s="95" t="s">
+      <c r="U2" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="19">
+      <c r="V2" s="94"/>
+      <c r="W2" s="19">
         <v>2.1851851851851848E-2</v>
-      </c>
-      <c r="W2" s="20">
-        <v>1.7858796296296296E-2</v>
       </c>
       <c r="X2" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="Y2" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Z2" s="20">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20">
-        <f>SUM(V2:AA2)</f>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <f>SUM(W2:AB2)</f>
         <v>5.8067129629629628E-2</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AD2" s="20">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AE2" s="20">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="AE2" s="20">
-        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
+      <c r="AF2" s="20">
+        <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
         <v>4.2465277777777775E-2</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AG2" s="21">
         <v>40</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AH2" s="21">
         <v>90</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="29">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="29">
         <v>5</v>
       </c>
-      <c r="AJ2" s="30">
+      <c r="AK2" s="30">
         <v>3</v>
       </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="33" t="str">
-        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="33" t="str">
-        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="33" t="str">
-        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="33" t="str">
-        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="33" t="str">
-        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="33" t="str">
-        <f t="shared" ref="BB2:BB22" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="33" t="str">
-        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="33" t="str">
-        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="33" t="str">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL2" s="59">
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="33" t="str">
+        <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="33" t="str">
+        <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="33" t="str">
+        <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="33" t="str">
+        <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="33" t="str">
+        <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="33" t="str">
+        <f t="shared" ref="BC2:BC22" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="33" t="str">
+        <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="33" t="str">
+        <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="33" t="str">
+        <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM2" s="59">
         <v>10</v>
       </c>
-      <c r="BM2" s="72">
+      <c r="BN2" s="72">
         <v>8.8310185185185176E-3</v>
       </c>
-      <c r="BN2" s="33">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
+      <c r="BO2" s="33">
+        <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
         <v>5.0347222222222217E-3</v>
       </c>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="33" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="33" t="str">
-        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="74"/>
-      <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ13" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="58"/>
-      <c r="CC2" s="33" t="str">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CD2" s="41">
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="33" t="str">
+        <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="33" t="str">
+        <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV2" s="99"/>
+      <c r="BW2" s="74"/>
+      <c r="BX2" s="33" t="str">
+        <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="99"/>
+      <c r="BZ2" s="74"/>
+      <c r="CA2" s="33" t="str">
+        <f t="shared" ref="CA2:CA13" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="58"/>
+      <c r="CD2" s="33" t="str">
+        <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CE2" s="41">
         <v>1</v>
       </c>
-      <c r="CE2" s="57">
+      <c r="CF2" s="57">
         <v>2.1270833333333332</v>
       </c>
-      <c r="CF2" s="33">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+      <c r="CG2" s="33">
+        <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
         <v>2.1232870370370369</v>
       </c>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="33" t="str">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="72"/>
-      <c r="CL2" s="33" t="str">
-        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="72"/>
-      <c r="CO2" s="33" t="str">
-        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="33" t="str">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="33" t="str">
-        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="59"/>
-      <c r="CW2" s="72"/>
-      <c r="CX2" s="33" t="str">
-        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY2" s="59"/>
-      <c r="CZ2" s="72"/>
-      <c r="DA2" s="33" t="str">
-        <f t="shared" ref="DA2:DA22" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB2" s="59"/>
-      <c r="DC2" s="72"/>
-      <c r="DD2" s="33" t="str">
-        <f t="shared" ref="DD2:DD22" si="24">IF(DB2=0,"NA",DC2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="DE2" s="59">
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="33" t="str">
+        <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="33" t="str">
+        <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="33" t="str">
+        <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="33" t="str">
+        <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="33" t="str">
+        <f t="shared" ref="CV2:CV22" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW2" s="59"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="33" t="str">
+        <f t="shared" ref="CY2:CY22" si="22">IF(CW2=0,"NA",CX2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CZ2" s="59"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="33" t="str">
+        <f t="shared" ref="DB2:DB22" si="23">IF(CZ2=0,"NA",DA2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DC2" s="59"/>
+      <c r="DD2" s="72"/>
+      <c r="DE2" s="33" t="str">
+        <f t="shared" ref="DE2:DE22" si="24">IF(DC2=0,"NA",DD2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="DF2" s="59">
         <v>3</v>
       </c>
-      <c r="DF2" s="72">
+      <c r="DG2" s="72">
         <v>2.2129629629629628E-2</v>
       </c>
-      <c r="DG2" s="33">
-        <f t="shared" ref="DG2:DG13" si="25">IF(DE2=0,"NA",DF2-$AC2)</f>
+      <c r="DH2" s="33">
+        <f t="shared" ref="DH2:DH13" si="25">IF(DF2=0,"NA",DG2-$AD2)</f>
         <v>1.833333333333333E-2</v>
       </c>
-      <c r="DH2" s="35"/>
+      <c r="DI2" s="35"/>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A3" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="D3" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="97">
+      <c r="E3" s="96">
         <v>6</v>
       </c>
-      <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="26">C3&amp;""&amp;D3</f>
+      <c r="F3" s="76" t="str">
+        <f t="shared" ref="F3:F22" si="26">D3&amp;""&amp;E3</f>
         <v>L6</v>
       </c>
-      <c r="F3" s="97">
+      <c r="G3" s="96">
         <v>2</v>
       </c>
-      <c r="G3" s="97">
+      <c r="H3" s="96">
         <v>1</v>
       </c>
-      <c r="H3" s="101">
+      <c r="I3" s="98">
         <v>0.53541666666666665</v>
       </c>
-      <c r="I3" s="101">
+      <c r="J3" s="98">
         <v>0.63124999999999998</v>
       </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
+      <c r="K3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4686510000000004</v>
       </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
+      <c r="L3" s="7">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,3)</f>
         <v>119.300428</v>
       </c>
-      <c r="L3" s="97">
+      <c r="M3" s="96">
         <v>31</v>
       </c>
-      <c r="M3" s="97">
+      <c r="N3" s="96">
         <v>18</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="O3" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="97">
+      <c r="P3" s="96">
         <v>4</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="27">I3-H3</f>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q22" si="27">J3-I3</f>
         <v>9.5833333333333326E-2</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="R3" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="97" t="s">
+      <c r="S3" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="97">
+      <c r="T3" s="96">
         <v>0.26</v>
       </c>
-      <c r="T3" s="97" t="s">
+      <c r="U3" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="97"/>
-      <c r="V3" s="19">
+      <c r="V3" s="96"/>
+      <c r="W3" s="19">
         <v>1.9803240740740739E-2</v>
       </c>
-      <c r="W3" s="20">
+      <c r="X3" s="20">
         <v>1.8240740740740741E-2</v>
       </c>
-      <c r="X3" s="20">
+      <c r="Y3" s="20">
         <v>2.2037037037037036E-2</v>
       </c>
-      <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="28">SUM(V3:AA3)</f>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC22" si="28">SUM(W3:AB3)</f>
         <v>6.008101851851852E-2</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AD3" s="20">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AE3" s="20">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>4.2187500000000003E-2</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AG3" s="21">
         <v>80</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AH3" s="21">
         <v>90</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="29">
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="29">
         <v>5</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AK3" s="30">
         <v>4</v>
       </c>
-      <c r="AK3" s="31">
+      <c r="AL3" s="31">
         <v>1</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AM3" s="34">
         <v>5.4398148148148149E-3</v>
       </c>
-      <c r="AM3" s="33">
+      <c r="AN3" s="33">
         <f t="shared" si="1"/>
         <v>1.4351851851851852E-3</v>
       </c>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="33" t="str">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33" t="str">
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="33" t="str">
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="33" t="str">
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="33" t="str">
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="33" t="str">
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="33" t="str">
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="33" t="str">
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL3" s="31">
+      <c r="BM3" s="31">
         <v>2</v>
       </c>
-      <c r="BM3" s="34">
+      <c r="BN3" s="34">
         <v>2.8749999999999998E-2</v>
       </c>
-      <c r="BN3" s="33">
+      <c r="BO3" s="33">
         <f t="shared" si="10"/>
         <v>2.4745370370370369E-2</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="33" t="str">
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33" t="str">
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="33" t="str">
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="32"/>
-      <c r="BZ3" s="33" t="str">
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="33" t="str">
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="57"/>
-      <c r="CF3" s="33" t="str">
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="57"/>
+      <c r="CG3" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="33" t="str">
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="33" t="str">
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="33" t="str">
+      <c r="CN3" s="31"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="33" t="str">
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="34"/>
+      <c r="CS3" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="33" t="str">
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="31"/>
-      <c r="CW3" s="32"/>
-      <c r="CX3" s="33" t="str">
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="32"/>
-      <c r="DA3" s="33" t="str">
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB3" s="31">
+      <c r="DC3" s="31">
         <v>2</v>
       </c>
-      <c r="DC3" s="34">
+      <c r="DD3" s="34">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="DD3" s="33">
+      <c r="DE3" s="33">
         <f t="shared" si="24"/>
         <v>1.6203703703703692E-4</v>
       </c>
-      <c r="DE3" s="31">
+      <c r="DF3" s="31">
         <v>4</v>
       </c>
-      <c r="DF3" s="34">
+      <c r="DG3" s="34">
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="DG3" s="33">
+      <c r="DH3" s="33">
         <f t="shared" si="25"/>
         <v>4.0509259259259231E-4</v>
       </c>
-      <c r="DH3" s="35"/>
+      <c r="DI3" s="35"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A4" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="D4" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="97">
+      <c r="E4" s="96">
         <v>5</v>
       </c>
-      <c r="E4" s="76" t="str">
+      <c r="F4" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L5</v>
       </c>
-      <c r="F4" s="97">
+      <c r="G4" s="96">
         <v>3</v>
       </c>
-      <c r="G4" s="97">
+      <c r="H4" s="96">
         <v>11</v>
       </c>
-      <c r="H4" s="101">
+      <c r="I4" s="98">
         <v>0.54583333333333328</v>
       </c>
-      <c r="I4" s="101">
+      <c r="J4" s="98">
         <v>0.625</v>
       </c>
-      <c r="J4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
+      <c r="K4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682510000000004</v>
       </c>
-      <c r="K4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
+      <c r="L4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
         <v>119.301957</v>
       </c>
-      <c r="L4" s="97">
+      <c r="M4" s="96">
         <v>19</v>
       </c>
-      <c r="M4" s="97">
+      <c r="N4" s="96">
         <v>5</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="O4" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="97">
+      <c r="P4" s="96">
         <v>3</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f t="shared" si="27"/>
         <v>7.9166666666666718E-2</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="R4" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="S4" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S4" s="97">
+      <c r="T4" s="96">
         <v>0.26</v>
       </c>
-      <c r="T4" s="97" t="s">
+      <c r="U4" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="U4" s="97" t="s">
+      <c r="V4" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="33" t="str">
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="33" t="str">
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33" t="str">
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="33" t="str">
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="33" t="str">
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33" t="str">
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="33" t="str">
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="33" t="str">
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="33" t="str">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="33" t="str">
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="33" t="str">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="33" t="str">
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="33" t="str">
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="33" t="str">
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="33" t="str">
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="57"/>
-      <c r="CF4" s="33" t="str">
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="57"/>
+      <c r="CG4" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="33" t="str">
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="33" t="str">
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="33" t="str">
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="33" t="str">
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="34"/>
-      <c r="CU4" s="33" t="str">
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="34"/>
-      <c r="CX4" s="33" t="str">
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY4" s="31"/>
-      <c r="CZ4" s="34"/>
-      <c r="DA4" s="33" t="str">
+      <c r="CZ4" s="31"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB4" s="31"/>
-      <c r="DC4" s="34"/>
-      <c r="DD4" s="33" t="str">
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="34"/>
-      <c r="DG4" s="33" t="str">
+      <c r="DF4" s="31"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="33" t="str">
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A5" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="D5" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="97">
+      <c r="E5" s="96">
         <v>5</v>
       </c>
-      <c r="E5" s="76" t="str">
+      <c r="F5" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D5</v>
       </c>
-      <c r="F5" s="97">
+      <c r="G5" s="96">
         <v>4</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="H5" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="101">
+      <c r="I5" s="98">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I5" s="101">
+      <c r="J5" s="98">
         <v>0.625</v>
       </c>
-      <c r="J5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
+      <c r="K5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
+      <c r="L5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L5" s="97">
+      <c r="M5" s="96">
         <v>21</v>
       </c>
-      <c r="M5" s="97">
+      <c r="N5" s="96">
         <v>8</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="O5" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="97">
+      <c r="P5" s="96">
         <v>4</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f t="shared" si="27"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="Q5" s="101" t="s">
+      <c r="R5" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="S5" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S5" s="97">
+      <c r="T5" s="96">
         <v>0.26</v>
       </c>
-      <c r="T5" s="97" t="s">
+      <c r="U5" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="97" t="s">
+      <c r="V5" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="20">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="33" t="str">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33" t="str">
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="33" t="str">
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33" t="str">
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="33" t="str">
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="33" t="str">
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="33" t="str">
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="33" t="str">
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="33" t="str">
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="33" t="str">
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="33" t="str">
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="33" t="str">
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="33" t="str">
+      <c r="BV5" s="41"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="33" t="str">
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="32"/>
+      <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="33" t="str">
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="41"/>
-      <c r="CE5" s="57"/>
-      <c r="CF5" s="33" t="str">
+      <c r="CE5" s="41"/>
+      <c r="CF5" s="57"/>
+      <c r="CG5" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="33" t="str">
+      <c r="CH5" s="31"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="33" t="str">
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="33" t="str">
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="33" t="str">
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="34"/>
+      <c r="CS5" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="33" t="str">
+      <c r="CT5" s="31"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="33" t="str">
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="32"/>
+      <c r="CY5" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="32"/>
-      <c r="DA5" s="33" t="str">
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="32"/>
+      <c r="DB5" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="32"/>
-      <c r="DD5" s="33" t="str">
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="32"/>
+      <c r="DE5" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="32"/>
-      <c r="DG5" s="33" t="str">
+      <c r="DF5" s="31"/>
+      <c r="DG5" s="32"/>
+      <c r="DH5" s="33" t="str">
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH5" s="35"/>
+      <c r="DI5" s="35"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A6" s="96" t="s">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A6" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="D6" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="97">
+      <c r="E6" s="96">
         <v>4</v>
       </c>
-      <c r="E6" s="76" t="str">
+      <c r="F6" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L4</v>
       </c>
-      <c r="F6" s="97">
+      <c r="G6" s="96">
         <v>5</v>
       </c>
-      <c r="G6" s="97">
+      <c r="H6" s="96">
         <v>5</v>
       </c>
-      <c r="H6" s="101">
+      <c r="I6" s="98">
         <v>0.55694444444444446</v>
       </c>
-      <c r="I6" s="101">
+      <c r="J6" s="98">
         <v>0.61875000000000002</v>
       </c>
-      <c r="J6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
+      <c r="K6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4663769999999996</v>
       </c>
-      <c r="K6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
+      <c r="L6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
         <v>119.30229</v>
       </c>
-      <c r="L6" s="97">
+      <c r="M6" s="96">
         <v>30</v>
       </c>
-      <c r="M6" s="97">
+      <c r="N6" s="96">
         <v>18</v>
       </c>
-      <c r="N6" s="97" t="s">
+      <c r="O6" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="97">
+      <c r="P6" s="96">
         <v>2</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <f t="shared" si="27"/>
         <v>6.1805555555555558E-2</v>
       </c>
-      <c r="Q6" s="101" t="s">
+      <c r="R6" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="S6" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S6" s="97">
+      <c r="T6" s="96">
         <v>0.24</v>
       </c>
-      <c r="T6" s="97" t="s">
+      <c r="U6" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="U6" s="97"/>
-      <c r="V6" s="19">
+      <c r="V6" s="96"/>
+      <c r="W6" s="19">
         <v>2.2789351851851852E-2</v>
       </c>
-      <c r="W6" s="20">
+      <c r="X6" s="20">
         <v>1.9398148148148147E-2</v>
       </c>
-      <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="28"/>
         <v>4.2187500000000003E-2</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AD6" s="20">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>3.5937500000000004E-2</v>
       </c>
-      <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="29">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="29">
         <v>4</v>
       </c>
-      <c r="AJ6" s="30">
+      <c r="AK6" s="30">
         <v>2</v>
       </c>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="33" t="str">
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="33" t="str">
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="31">
+      <c r="AR6" s="31">
         <v>1</v>
       </c>
-      <c r="AR6" s="34">
+      <c r="AS6" s="34">
         <v>2.6064814814814815E-2</v>
       </c>
-      <c r="AS6" s="33">
+      <c r="AT6" s="33">
         <f t="shared" si="3"/>
         <v>1.9814814814814816E-2</v>
       </c>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33" t="str">
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="33" t="str">
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="33" t="str">
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33" t="str">
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="33" t="str">
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33" t="str">
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="33" t="str">
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="33" t="str">
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="33" t="str">
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="33" t="str">
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="33" t="str">
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="33" t="str">
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="41"/>
-      <c r="CE6" s="57"/>
-      <c r="CF6" s="33" t="str">
+      <c r="CE6" s="41"/>
+      <c r="CF6" s="57"/>
+      <c r="CG6" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG6" s="31"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="33" t="str">
+      <c r="CH6" s="31"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ6" s="31"/>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="33" t="str">
+      <c r="CK6" s="31"/>
+      <c r="CL6" s="32"/>
+      <c r="CM6" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM6" s="31"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="33" t="str">
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="32"/>
+      <c r="CP6" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="33" t="str">
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="34"/>
+      <c r="CS6" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="33" t="str">
+      <c r="CT6" s="31"/>
+      <c r="CU6" s="32"/>
+      <c r="CV6" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="32"/>
-      <c r="CX6" s="33" t="str">
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="32"/>
+      <c r="CY6" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="31"/>
-      <c r="CZ6" s="32"/>
-      <c r="DA6" s="33" t="str">
+      <c r="CZ6" s="31"/>
+      <c r="DA6" s="32"/>
+      <c r="DB6" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB6" s="31"/>
-      <c r="DC6" s="32"/>
-      <c r="DD6" s="33" t="str">
+      <c r="DC6" s="31"/>
+      <c r="DD6" s="32"/>
+      <c r="DE6" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE6" s="31">
+      <c r="DF6" s="31">
         <v>3</v>
       </c>
-      <c r="DF6" s="34">
+      <c r="DG6" s="34">
         <v>6.4236111111111117E-3</v>
       </c>
-      <c r="DG6" s="33">
+      <c r="DH6" s="33">
         <f t="shared" si="25"/>
         <v>1.7361111111111223E-4</v>
       </c>
-      <c r="DH6" s="35"/>
+      <c r="DI6" s="35"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A7" s="96" t="s">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A7" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="D7" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="97">
+      <c r="E7" s="96">
         <v>6</v>
       </c>
-      <c r="E7" s="76" t="str">
+      <c r="F7" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D6</v>
       </c>
-      <c r="F7" s="97">
+      <c r="G7" s="96">
         <v>6</v>
       </c>
-      <c r="G7" s="97">
+      <c r="H7" s="96">
         <v>14</v>
       </c>
-      <c r="H7" s="101">
+      <c r="I7" s="98">
         <v>0.5625</v>
       </c>
-      <c r="I7" s="101">
+      <c r="J7" s="98">
         <v>0.61875000000000002</v>
       </c>
-      <c r="J7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
+      <c r="K7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4671349999999999</v>
       </c>
-      <c r="K7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
+      <c r="L7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
         <v>119.302812</v>
       </c>
-      <c r="L7" s="97">
+      <c r="M7" s="96">
         <v>22</v>
       </c>
-      <c r="M7" s="97">
+      <c r="N7" s="96">
         <v>10</v>
       </c>
-      <c r="N7" s="97" t="s">
+      <c r="O7" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="97">
+      <c r="P7" s="96">
         <v>3</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f t="shared" si="27"/>
         <v>5.6250000000000022E-2</v>
       </c>
-      <c r="Q7" s="101" t="s">
+      <c r="R7" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="R7" s="97" t="s">
+      <c r="S7" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S7" s="97">
+      <c r="T7" s="96">
         <v>0.24</v>
       </c>
-      <c r="T7" s="97" t="s">
+      <c r="U7" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="U7" s="97"/>
-      <c r="V7" s="19">
+      <c r="V7" s="96"/>
+      <c r="W7" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W7" s="20">
+      <c r="X7" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X7" s="20">
+      <c r="Y7" s="20">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="28"/>
         <v>4.0115740740740743E-2</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AD7" s="20">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>3.6087962962962968E-2</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AG7" s="21">
         <v>70</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AH7" s="21">
         <v>50</v>
       </c>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="29">
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="29">
         <v>4</v>
       </c>
-      <c r="AJ7" s="30">
+      <c r="AK7" s="30">
         <v>2</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="33" t="str">
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33" t="str">
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="33" t="str">
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="33" t="str">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="33" t="str">
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="33" t="str">
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33" t="str">
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="33" t="str">
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="33" t="str">
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="33" t="str">
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="33" t="str">
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="33" t="str">
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="33" t="str">
+      <c r="BV7" s="41"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="33" t="str">
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="32"/>
+      <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="33" t="str">
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="41"/>
-      <c r="CE7" s="57"/>
-      <c r="CF7" s="33" t="str">
+      <c r="CE7" s="41"/>
+      <c r="CF7" s="57"/>
+      <c r="CG7" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="33" t="str">
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="32"/>
+      <c r="CJ7" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="33" t="str">
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="32"/>
+      <c r="CM7" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM7" s="31"/>
-      <c r="CN7" s="32"/>
-      <c r="CO7" s="33" t="str">
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="32"/>
+      <c r="CP7" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="33" t="str">
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="34"/>
+      <c r="CS7" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="33" t="str">
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="32"/>
+      <c r="CV7" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="31"/>
-      <c r="CW7" s="32"/>
-      <c r="CX7" s="33" t="str">
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="32"/>
+      <c r="CY7" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY7" s="31"/>
-      <c r="CZ7" s="32"/>
-      <c r="DA7" s="33" t="str">
+      <c r="CZ7" s="31"/>
+      <c r="DA7" s="32"/>
+      <c r="DB7" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB7" s="31">
+      <c r="DC7" s="31">
         <v>1</v>
       </c>
-      <c r="DC7" s="34">
+      <c r="DD7" s="34">
         <v>1.0567129629629629E-2</v>
       </c>
-      <c r="DD7" s="33">
+      <c r="DE7" s="33">
         <f t="shared" si="24"/>
         <v>6.5393518518518517E-3</v>
       </c>
-      <c r="DE7" s="31">
+      <c r="DF7" s="31">
         <v>4</v>
       </c>
-      <c r="DF7" s="34">
+      <c r="DG7" s="34">
         <v>5.9143518518518521E-3</v>
       </c>
-      <c r="DG7" s="33">
+      <c r="DH7" s="33">
         <f t="shared" si="25"/>
         <v>1.8865740740740744E-3</v>
       </c>
-      <c r="DH7" s="35"/>
+      <c r="DI7" s="35"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A8" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="97">
+      <c r="E8" s="96">
         <v>5</v>
       </c>
-      <c r="E8" s="76" t="str">
+      <c r="F8" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D5</v>
       </c>
-      <c r="F8" s="97">
+      <c r="G8" s="96">
         <v>1</v>
       </c>
-      <c r="G8" s="97">
+      <c r="H8" s="96">
         <v>11</v>
       </c>
-      <c r="H8" s="101">
+      <c r="I8" s="98">
         <v>0.4201388888888889</v>
       </c>
-      <c r="I8" s="101">
+      <c r="J8" s="98">
         <v>0.69027777777777777</v>
       </c>
-      <c r="J8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
+      <c r="K8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
+      <c r="L8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L8" s="97">
+      <c r="M8" s="96">
         <v>29</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="N8" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="N8" s="97" t="s">
+      <c r="O8" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="O8" s="97">
+      <c r="P8" s="96">
         <v>3</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <f t="shared" si="27"/>
         <v>0.27013888888888887</v>
       </c>
-      <c r="Q8" s="101" t="s">
+      <c r="R8" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="R8" s="97" t="s">
+      <c r="S8" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S8" s="97">
+      <c r="T8" s="96">
         <v>0.21</v>
       </c>
-      <c r="T8" s="97" t="s">
+      <c r="U8" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U8" s="97" t="s">
+      <c r="V8" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>2.1354166666666664E-2</v>
       </c>
-      <c r="W8" s="20">
+      <c r="X8" s="20">
         <v>1.8113425925925925E-2</v>
       </c>
-      <c r="X8" s="20">
+      <c r="Y8" s="20">
         <v>4.9074074074074072E-3</v>
       </c>
-      <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="28"/>
         <v>4.4374999999999998E-2</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AD8" s="20">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20">
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>4.0462962962962964E-2</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AG8" s="21">
         <v>90</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AH8" s="21">
         <v>70</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="29">
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="29">
         <v>5</v>
       </c>
-      <c r="AJ8" s="30">
+      <c r="AK8" s="30">
         <v>3</v>
       </c>
-      <c r="AK8" s="31">
+      <c r="AL8" s="31">
         <v>1</v>
       </c>
-      <c r="AL8" s="34">
+      <c r="AM8" s="34">
         <v>3.3425925925925921E-2</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AN8" s="33">
         <f t="shared" si="1"/>
         <v>2.9513888888888885E-2</v>
       </c>
-      <c r="AN8" s="31">
+      <c r="AO8" s="31">
         <v>1</v>
       </c>
-      <c r="AO8" s="71">
+      <c r="AP8" s="71">
         <v>3.1585648148148147E-2</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AQ8" s="33">
         <f t="shared" si="2"/>
         <v>2.7673611111111111E-2</v>
       </c>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="33" t="str">
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="33" t="str">
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="33" t="str">
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="33" t="str">
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33" t="str">
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="33" t="str">
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="33" t="str">
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="33" t="str">
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="33" t="str">
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="33" t="str">
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="41"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="33" t="str">
+      <c r="BV8" s="41"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="32"/>
-      <c r="BZ8" s="33" t="str">
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="32"/>
+      <c r="CA8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="33" t="str">
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="41"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="33" t="str">
+      <c r="CE8" s="41"/>
+      <c r="CF8" s="57"/>
+      <c r="CG8" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG8" s="31"/>
-      <c r="CH8" s="32"/>
-      <c r="CI8" s="33" t="str">
+      <c r="CH8" s="31"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ8" s="31"/>
-      <c r="CK8" s="32"/>
-      <c r="CL8" s="33" t="str">
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="32"/>
-      <c r="CO8" s="33" t="str">
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="33" t="str">
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="34"/>
+      <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="32"/>
-      <c r="CU8" s="33" t="str">
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="32"/>
+      <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="31"/>
-      <c r="CW8" s="32"/>
-      <c r="CX8" s="33" t="str">
+      <c r="CW8" s="31"/>
+      <c r="CX8" s="32"/>
+      <c r="CY8" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY8" s="31"/>
-      <c r="CZ8" s="71"/>
-      <c r="DA8" s="33" t="str">
+      <c r="CZ8" s="31"/>
+      <c r="DA8" s="71"/>
+      <c r="DB8" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB8" s="31">
+      <c r="DC8" s="31">
         <v>3</v>
       </c>
-      <c r="DC8" s="71">
+      <c r="DD8" s="71">
         <v>4.0856481481481481E-3</v>
       </c>
-      <c r="DD8" s="33">
+      <c r="DE8" s="33">
         <f t="shared" si="24"/>
         <v>1.7361111111111136E-4</v>
       </c>
-      <c r="DE8" s="31">
+      <c r="DF8" s="31">
         <v>1</v>
       </c>
-      <c r="DF8" s="71">
+      <c r="DG8" s="71">
         <v>2.6041666666666668E-2</v>
       </c>
-      <c r="DG8" s="33">
+      <c r="DH8" s="33">
         <f t="shared" si="25"/>
         <v>2.2129629629629631E-2</v>
       </c>
-      <c r="DH8" s="35"/>
+      <c r="DI8" s="35"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A9" s="98" t="s">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A9" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="D9" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="97">
+      <c r="E9" s="96">
         <v>5</v>
       </c>
-      <c r="E9" s="76" t="str">
+      <c r="F9" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L5</v>
       </c>
-      <c r="F9" s="97">
+      <c r="G9" s="96">
         <v>2</v>
       </c>
-      <c r="G9" s="97">
+      <c r="H9" s="96">
         <v>1</v>
       </c>
-      <c r="H9" s="101">
+      <c r="I9" s="98">
         <v>0.42083333333333334</v>
       </c>
-      <c r="I9" s="101">
+      <c r="J9" s="98">
         <v>0.69027777777777777</v>
       </c>
-      <c r="J9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
+      <c r="K9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682510000000004</v>
       </c>
-      <c r="K9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
+      <c r="L9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
         <v>119.301957</v>
       </c>
-      <c r="L9" s="97">
+      <c r="M9" s="96">
         <v>26</v>
       </c>
-      <c r="M9" s="97" t="s">
+      <c r="N9" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="N9" s="97" t="s">
+      <c r="O9" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="O9" s="97">
+      <c r="P9" s="96">
         <v>3</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <f t="shared" si="27"/>
         <v>0.26944444444444443</v>
       </c>
-      <c r="Q9" s="101" t="s">
+      <c r="R9" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="R9" s="97" t="s">
+      <c r="S9" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S9" s="97">
+      <c r="T9" s="96">
         <v>0.21</v>
       </c>
-      <c r="T9" s="97" t="s">
+      <c r="U9" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="97" t="s">
+      <c r="V9" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <v>2.5914351851851855E-2</v>
       </c>
-      <c r="W9" s="20">
+      <c r="X9" s="20">
         <v>2.1759259259259259E-2</v>
       </c>
-      <c r="X9" s="20">
+      <c r="Y9" s="20">
         <v>1.2650462962962962E-2</v>
       </c>
-      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="28"/>
         <v>6.0324074074074072E-2</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AD9" s="20">
         <v>4.6296296296296302E-3</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AE9" s="20">
         <v>1.2650462962962962E-2</v>
       </c>
-      <c r="AE9" s="20">
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>4.3043981481481482E-2</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AG9" s="21">
         <v>100</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AH9" s="21">
         <v>15</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="29">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="29">
         <v>5</v>
       </c>
-      <c r="AJ9" s="30">
+      <c r="AK9" s="30">
         <v>2</v>
       </c>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="33" t="str">
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31">
+      <c r="AO9" s="31">
         <v>27</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AP9" s="34">
         <v>8.0439814814814818E-3</v>
       </c>
-      <c r="AP9" s="33">
+      <c r="AQ9" s="33">
         <f t="shared" si="2"/>
         <v>3.4143518518518516E-3</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="33" t="str">
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33" t="str">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="33" t="str">
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33" t="str">
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="33" t="str">
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="33" t="str">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="33" t="str">
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="33" t="str">
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="33" t="str">
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="33" t="str">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="41"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="33" t="str">
+      <c r="BV9" s="41"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="33" t="str">
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="32"/>
+      <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="33" t="str">
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="41"/>
-      <c r="CE9" s="57"/>
-      <c r="CF9" s="33" t="str">
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="57"/>
+      <c r="CG9" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="33" t="str">
+      <c r="CH9" s="31"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="33" t="str">
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="33" t="str">
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP9" s="31"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="33" t="str">
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="34"/>
+      <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="32"/>
-      <c r="CU9" s="33" t="str">
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="32"/>
+      <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="31"/>
-      <c r="CW9" s="32"/>
-      <c r="CX9" s="33" t="str">
+      <c r="CW9" s="31"/>
+      <c r="CX9" s="32"/>
+      <c r="CY9" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="31"/>
-      <c r="CZ9" s="57"/>
-      <c r="DA9" s="33" t="str">
+      <c r="CZ9" s="31"/>
+      <c r="DA9" s="57"/>
+      <c r="DB9" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB9" s="31"/>
-      <c r="DC9" s="57"/>
-      <c r="DD9" s="33" t="str">
+      <c r="DC9" s="31"/>
+      <c r="DD9" s="57"/>
+      <c r="DE9" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE9" s="31">
+      <c r="DF9" s="31">
         <v>2</v>
       </c>
-      <c r="DF9" s="57">
+      <c r="DG9" s="57">
         <v>1.7141203703703704E-2</v>
       </c>
-      <c r="DG9" s="33">
+      <c r="DH9" s="33">
         <f t="shared" si="25"/>
         <v>1.2511574074074074E-2</v>
       </c>
-      <c r="DH9" s="35"/>
+      <c r="DI9" s="35"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A10" s="98" t="s">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A10" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="D10" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="97">
+      <c r="E10" s="96">
         <v>6</v>
       </c>
-      <c r="E10" s="76" t="str">
+      <c r="F10" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E6</v>
       </c>
-      <c r="F10" s="97">
+      <c r="G10" s="96">
         <v>3</v>
       </c>
-      <c r="G10" s="97">
+      <c r="H10" s="96">
         <v>12</v>
       </c>
-      <c r="H10" s="101">
+      <c r="I10" s="98">
         <v>0.4375</v>
       </c>
-      <c r="I10" s="101">
+      <c r="J10" s="98">
         <v>0.5131944444444444</v>
       </c>
-      <c r="J10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
+      <c r="K10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
         <v>-5.463902</v>
       </c>
-      <c r="K10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
+      <c r="L10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
         <v>119.28802</v>
       </c>
-      <c r="L10" s="97">
+      <c r="M10" s="96">
         <v>40</v>
       </c>
-      <c r="M10" s="97">
+      <c r="N10" s="96">
         <v>37</v>
       </c>
-      <c r="N10" s="97" t="s">
+      <c r="O10" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="97">
+      <c r="P10" s="96">
         <v>3</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <f t="shared" si="27"/>
         <v>7.5694444444444398E-2</v>
       </c>
-      <c r="Q10" s="101" t="s">
+      <c r="R10" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="R10" s="97" t="s">
+      <c r="S10" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S10" s="97">
+      <c r="T10" s="96">
         <v>0.23</v>
       </c>
-      <c r="T10" s="97" t="s">
+      <c r="U10" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U10" s="97" t="s">
+      <c r="V10" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="20">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="33" t="str">
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="33" t="str">
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33" t="str">
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33" t="str">
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33" t="str">
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="33" t="str">
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="33" t="str">
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="33" t="str">
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="33" t="str">
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="32"/>
-      <c r="BN10" s="33" t="str">
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="33" t="str">
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="32"/>
-      <c r="BT10" s="33" t="str">
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="41"/>
-      <c r="BV10" s="32"/>
-      <c r="BW10" s="33" t="str">
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="32"/>
-      <c r="BZ10" s="33" t="str">
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="32"/>
+      <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="32"/>
-      <c r="CC10" s="33" t="str">
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="32"/>
+      <c r="CD10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="41"/>
-      <c r="CE10" s="57"/>
-      <c r="CF10" s="33" t="str">
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="57"/>
+      <c r="CG10" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG10" s="31"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="33" t="str">
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ10" s="31"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="33" t="str">
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="33" t="str">
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP10" s="31"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="33" t="str">
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="34"/>
+      <c r="CS10" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="31"/>
-      <c r="CT10" s="34"/>
-      <c r="CU10" s="33" t="str">
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="34"/>
+      <c r="CV10" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="31"/>
-      <c r="CW10" s="34"/>
-      <c r="CX10" s="33" t="str">
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="34"/>
+      <c r="CY10" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY10" s="31"/>
-      <c r="CZ10" s="34"/>
-      <c r="DA10" s="33" t="str">
+      <c r="CZ10" s="31"/>
+      <c r="DA10" s="34"/>
+      <c r="DB10" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB10" s="31"/>
-      <c r="DC10" s="34"/>
-      <c r="DD10" s="33" t="str">
+      <c r="DC10" s="31"/>
+      <c r="DD10" s="34"/>
+      <c r="DE10" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE10" s="31"/>
-      <c r="DF10" s="34"/>
-      <c r="DG10" s="33" t="str">
+      <c r="DF10" s="31"/>
+      <c r="DG10" s="34"/>
+      <c r="DH10" s="33" t="str">
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH10" s="35"/>
+      <c r="DI10" s="35"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A11" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="D11" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="97">
+      <c r="E11" s="96">
         <v>4</v>
       </c>
-      <c r="E11" s="76" t="str">
+      <c r="F11" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E4</v>
       </c>
-      <c r="F11" s="97">
+      <c r="G11" s="96">
         <v>4</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="H11" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="101">
+      <c r="I11" s="98">
         <v>0.44166666666666665</v>
       </c>
-      <c r="I11" s="101">
+      <c r="J11" s="98">
         <v>0.51041666666666663</v>
       </c>
-      <c r="J11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
+      <c r="K11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4639509999999998</v>
       </c>
-      <c r="K11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
+      <c r="L11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
         <v>119.287291</v>
       </c>
-      <c r="L11" s="97">
+      <c r="M11" s="96">
         <v>64</v>
       </c>
-      <c r="M11" s="97">
+      <c r="N11" s="96">
         <v>62</v>
       </c>
-      <c r="N11" s="97" t="s">
+      <c r="O11" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="O11" s="97">
+      <c r="P11" s="96">
         <v>4</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <f t="shared" si="27"/>
         <v>6.8749999999999978E-2</v>
       </c>
-      <c r="Q11" s="101" t="s">
+      <c r="R11" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="97" t="s">
+      <c r="S11" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S11" s="97">
+      <c r="T11" s="96">
         <v>0.23</v>
       </c>
-      <c r="T11" s="97" t="s">
+      <c r="U11" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U11" s="97"/>
-      <c r="V11" s="19">
-        <v>1.486111111111111E-2</v>
-      </c>
-      <c r="W11" s="20">
+      <c r="V11" s="96"/>
+      <c r="W11" s="19">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="X11" s="20">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="Y11" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z11" s="20">
         <v>1.269675925925926E-2</v>
       </c>
-      <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="28"/>
         <v>5.7280092592592591E-2</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AD11" s="20">
         <v>3.9814814814814817E-3</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AE11" s="20">
         <v>1.2002314814814815E-2</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>4.1296296296296296E-2</v>
       </c>
-      <c r="AF11" s="21">
-        <v>100</v>
-      </c>
       <c r="AG11" s="21">
         <v>100</v>
       </c>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="29">
+      <c r="AH11" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="29">
         <v>8</v>
       </c>
-      <c r="AJ11" s="30">
+      <c r="AK11" s="30">
         <v>6</v>
       </c>
-      <c r="AK11" s="31">
+      <c r="AL11" s="31">
         <v>1</v>
       </c>
-      <c r="AL11" s="34">
+      <c r="AM11" s="34">
         <v>2.7974537037037034E-2</v>
       </c>
-      <c r="AM11" s="33">
+      <c r="AN11" s="33">
         <f t="shared" si="1"/>
         <v>2.3993055555555552E-2</v>
       </c>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="33" t="str">
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33" t="str">
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33" t="str">
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="33" t="str">
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="33" t="str">
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC11" s="31">
+      <c r="BD11" s="31">
         <v>1</v>
       </c>
-      <c r="BD11" s="34">
+      <c r="BE11" s="34">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="BE11" s="33">
+      <c r="BF11" s="33">
         <f t="shared" si="7"/>
         <v>1.3032407407407406E-2</v>
       </c>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="33" t="str">
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="33" t="str">
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL11" s="31">
+      <c r="BM11" s="31">
         <v>39</v>
       </c>
-      <c r="BM11" s="34">
+      <c r="BN11" s="34">
         <v>5.0810185185185186E-3</v>
       </c>
-      <c r="BN11" s="33">
+      <c r="BO11" s="33">
         <f t="shared" si="10"/>
         <v>1.0995370370370369E-3</v>
       </c>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="33" t="str">
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="33" t="str">
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="41"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="33" t="str">
+      <c r="BV11" s="41"/>
+      <c r="BW11" s="71"/>
+      <c r="BX11" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="41">
+      <c r="BY11" s="41">
         <v>1</v>
       </c>
-      <c r="BY11" s="71">
+      <c r="BZ11" s="71">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="BZ11" s="33">
+      <c r="CA11" s="33">
         <f t="shared" si="14"/>
         <v>3.7037037037036986E-4</v>
       </c>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="33" t="str">
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="32"/>
+      <c r="CD11" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="41">
+      <c r="CE11" s="41">
         <v>1</v>
       </c>
-      <c r="CE11" s="57">
+      <c r="CF11" s="57">
         <v>4.3518518518518515E-3</v>
       </c>
-      <c r="CF11" s="33">
+      <c r="CG11" s="33">
         <f t="shared" si="16"/>
         <v>3.7037037037036986E-4</v>
       </c>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="33" t="str">
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="34"/>
-      <c r="CL11" s="33" t="str">
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="33" t="str">
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="34"/>
-      <c r="CR11" s="33" t="str">
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="33" t="str">
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="31"/>
-      <c r="CW11" s="34"/>
-      <c r="CX11" s="33" t="str">
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="31">
+      <c r="CZ11" s="31">
         <v>1</v>
       </c>
-      <c r="CZ11" s="34">
+      <c r="DA11" s="34">
         <v>4.1655092592592598E-2</v>
       </c>
-      <c r="DA11" s="33">
+      <c r="DB11" s="33">
         <f t="shared" si="23"/>
         <v>3.7673611111111116E-2</v>
       </c>
-      <c r="DB11" s="31"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="33" t="str">
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE11" s="31"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="33" t="str">
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="34"/>
+      <c r="DH11" s="33" t="str">
         <f t="shared" si="25"/>
         <v>NA</v>
       </c>
-      <c r="DH11" s="35"/>
+      <c r="DI11" s="35"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A12" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="97">
+      <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="E12" s="76" t="str">
+      <c r="F12" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E5</v>
       </c>
-      <c r="F12" s="97">
+      <c r="G12" s="96">
         <v>5</v>
       </c>
-      <c r="G12" s="97">
+      <c r="H12" s="96">
         <v>5</v>
       </c>
-      <c r="H12" s="101">
+      <c r="I12" s="98">
         <v>0.4548611111111111</v>
       </c>
-      <c r="I12" s="101">
+      <c r="J12" s="98">
         <v>0.50347222222222221</v>
       </c>
-      <c r="J12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
+      <c r="K12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4620889999999997</v>
       </c>
-      <c r="K12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
+      <c r="L12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
         <v>119.286874</v>
       </c>
-      <c r="L12" s="97">
+      <c r="M12" s="96">
         <v>52</v>
       </c>
-      <c r="M12" s="97">
+      <c r="N12" s="96">
         <v>52</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="O12" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="97">
+      <c r="P12" s="96">
         <v>3</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <f t="shared" si="27"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="Q12" s="101" t="s">
+      <c r="R12" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="R12" s="97" t="s">
+      <c r="S12" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S12" s="97">
+      <c r="T12" s="96">
         <v>0.25</v>
       </c>
-      <c r="T12" s="97" t="s">
+      <c r="U12" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U12" s="97"/>
-      <c r="V12" s="19">
+      <c r="V12" s="96"/>
+      <c r="W12" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W12" s="20">
+      <c r="X12" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X12" s="20">
+      <c r="Y12" s="20">
         <v>3.425925925925926E-3</v>
       </c>
-      <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="28"/>
         <v>3.9143518518518522E-2</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AD12" s="20">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>3.5277777777777783E-2</v>
       </c>
-      <c r="AF12" s="21">
-        <v>100</v>
-      </c>
       <c r="AG12" s="21">
         <v>100</v>
       </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="29">
+      <c r="AH12" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="29">
         <v>6</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AK12" s="30">
         <v>4</v>
       </c>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="33" t="str">
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33" t="str">
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="31">
+      <c r="AR12" s="31">
         <v>13</v>
       </c>
-      <c r="AR12" s="34">
+      <c r="AS12" s="34">
         <v>2.0439814814814817E-2</v>
       </c>
-      <c r="AS12" s="33">
+      <c r="AT12" s="33">
         <f t="shared" si="3"/>
         <v>1.6574074074074074E-2</v>
       </c>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33" t="str">
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="33" t="str">
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="33" t="str">
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="33" t="str">
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="33" t="str">
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="33" t="str">
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL12" s="31">
+      <c r="BM12" s="31">
         <v>9</v>
       </c>
-      <c r="BM12" s="34">
+      <c r="BN12" s="34">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="BN12" s="33">
+      <c r="BO12" s="33">
         <f t="shared" si="10"/>
         <v>4.6296296296296016E-5</v>
       </c>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="33" t="str">
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="33" t="str">
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="41"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="33" t="str">
+      <c r="BV12" s="41"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="32"/>
-      <c r="BZ12" s="33" t="str">
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="32"/>
+      <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="32"/>
-      <c r="CC12" s="33" t="str">
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="32"/>
+      <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="41"/>
-      <c r="CE12" s="57"/>
-      <c r="CF12" s="33" t="str">
+      <c r="CE12" s="41"/>
+      <c r="CF12" s="57"/>
+      <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="33" t="str">
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="71"/>
+      <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ12" s="31"/>
-      <c r="CK12" s="71"/>
-      <c r="CL12" s="33" t="str">
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="71"/>
+      <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="33" t="str">
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="71"/>
+      <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP12" s="31">
+      <c r="CQ12" s="31">
         <v>1</v>
       </c>
-      <c r="CQ12" s="71">
+      <c r="CR12" s="34">
         <v>2.9953703703703705E-2</v>
       </c>
-      <c r="CR12" s="33">
+      <c r="CS12" s="33">
         <f t="shared" si="20"/>
         <v>2.6087962962962966E-2</v>
       </c>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="71"/>
-      <c r="CU12" s="33" t="str">
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="71"/>
+      <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="31"/>
-      <c r="CW12" s="71"/>
-      <c r="CX12" s="33" t="str">
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="71"/>
+      <c r="CY12" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY12" s="31"/>
-      <c r="CZ12" s="71"/>
-      <c r="DA12" s="33" t="str">
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="71"/>
+      <c r="DB12" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB12" s="31"/>
-      <c r="DC12" s="71"/>
-      <c r="DD12" s="33" t="str">
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="71"/>
+      <c r="DE12" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE12" s="31">
+      <c r="DF12" s="31">
         <v>1</v>
       </c>
-      <c r="DF12" s="71">
+      <c r="DG12" s="71">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="DG12" s="33">
+      <c r="DH12" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="DH12" s="35"/>
+      <c r="DI12" s="35"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A13" s="98" t="s">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A13" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="D13" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="97">
+      <c r="E13" s="96">
         <v>2</v>
       </c>
-      <c r="E13" s="76" t="str">
+      <c r="F13" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L2</v>
       </c>
-      <c r="F13" s="97">
+      <c r="G13" s="96">
         <v>1</v>
       </c>
-      <c r="G13" s="97">
+      <c r="H13" s="96">
         <v>1</v>
       </c>
-      <c r="H13" s="101">
+      <c r="I13" s="98">
         <v>0.40833333333333338</v>
       </c>
-      <c r="I13" s="101">
+      <c r="J13" s="98">
         <v>0.52638888888888891</v>
       </c>
-      <c r="J13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
+      <c r="K13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4811319999999997</v>
       </c>
-      <c r="K13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
+      <c r="L13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
         <v>119.31211</v>
       </c>
-      <c r="L13" s="97">
+      <c r="M13" s="96">
         <v>59</v>
       </c>
-      <c r="M13" s="97">
+      <c r="N13" s="96">
         <v>50</v>
       </c>
-      <c r="N13" s="97" t="s">
+      <c r="O13" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="O13" s="97">
+      <c r="P13" s="96">
         <v>3</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <f t="shared" si="27"/>
         <v>0.11805555555555552</v>
       </c>
-      <c r="Q13" s="101" t="s">
+      <c r="R13" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="R13" s="97" t="s">
+      <c r="S13" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S13" s="97">
+      <c r="T13" s="96">
         <v>0.24</v>
       </c>
-      <c r="T13" s="97" t="s">
+      <c r="U13" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U13" s="97"/>
-      <c r="V13" s="19">
+      <c r="V13" s="96"/>
+      <c r="W13" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W13" s="20">
+      <c r="X13" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X13" s="20">
+      <c r="Y13" s="20">
         <v>9.2592592592592605E-3</v>
       </c>
-      <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="28"/>
         <v>4.4976851851851851E-2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AD13" s="20">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>3.9421296296296295E-2</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AG13" s="21">
         <v>80</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AH13" s="21">
         <v>60</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29">
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="29">
         <v>7</v>
       </c>
-      <c r="AJ13" s="30">
+      <c r="AK13" s="30">
         <v>7</v>
       </c>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="33" t="str">
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN13" s="31">
+      <c r="AO13" s="31">
         <v>2</v>
       </c>
-      <c r="AO13" s="34">
+      <c r="AP13" s="34">
         <v>5.8680555555555543E-3</v>
       </c>
-      <c r="AP13" s="33">
+      <c r="AQ13" s="33">
         <f t="shared" si="2"/>
         <v>3.1249999999999854E-4</v>
       </c>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33" t="str">
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33" t="str">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="33" t="str">
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33" t="str">
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33" t="str">
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF13" s="31">
+      <c r="BG13" s="31">
         <v>1</v>
       </c>
-      <c r="BG13" s="34">
+      <c r="BH13" s="34">
         <v>3.3680555555555554E-2</v>
       </c>
-      <c r="BH13" s="33">
+      <c r="BI13" s="33">
         <f t="shared" si="8"/>
         <v>2.8124999999999997E-2</v>
       </c>
-      <c r="BI13" s="31">
+      <c r="BJ13" s="31">
         <v>1</v>
       </c>
-      <c r="BJ13" s="34">
+      <c r="BK13" s="34">
         <v>3.3692129629629627E-2</v>
       </c>
-      <c r="BK13" s="33">
+      <c r="BL13" s="33">
         <f t="shared" si="9"/>
         <v>2.8136574074074071E-2</v>
       </c>
-      <c r="BL13" s="31">
+      <c r="BM13" s="31">
         <v>2</v>
       </c>
-      <c r="BM13" s="34">
+      <c r="BN13" s="34">
         <v>8.6342592592592599E-3</v>
       </c>
-      <c r="BN13" s="33">
+      <c r="BO13" s="33">
         <f t="shared" si="10"/>
         <v>3.0787037037037042E-3</v>
       </c>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="33" t="str">
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="32"/>
-      <c r="BT13" s="33" t="str">
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="32"/>
+      <c r="BU13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="41"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="33" t="str">
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="33" t="str">
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="34"/>
+      <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA13" s="31">
+      <c r="CB13" s="31">
         <v>3</v>
       </c>
-      <c r="CB13" s="34">
+      <c r="CC13" s="34">
         <v>8.8888888888888889E-3</v>
       </c>
-      <c r="CC13" s="33">
+      <c r="CD13" s="33">
         <f t="shared" si="15"/>
         <v>3.3333333333333331E-3</v>
       </c>
-      <c r="CD13" s="41">
+      <c r="CE13" s="41">
         <v>1</v>
       </c>
-      <c r="CE13" s="57">
+      <c r="CF13" s="57">
         <v>9.7916666666666655E-3</v>
       </c>
-      <c r="CF13" s="33">
+      <c r="CG13" s="33">
         <f t="shared" si="16"/>
         <v>4.2361111111111098E-3</v>
       </c>
-      <c r="CG13" s="31"/>
-      <c r="CH13" s="32"/>
-      <c r="CI13" s="33" t="str">
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="32"/>
+      <c r="CJ13" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="31"/>
-      <c r="CK13" s="32"/>
-      <c r="CL13" s="33" t="str">
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="32"/>
+      <c r="CM13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM13" s="31"/>
-      <c r="CN13" s="32"/>
-      <c r="CO13" s="33" t="str">
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="32"/>
+      <c r="CP13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP13" s="31"/>
-      <c r="CQ13" s="32"/>
-      <c r="CR13" s="33" t="str">
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="34"/>
+      <c r="CS13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="32"/>
-      <c r="CU13" s="33" t="str">
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="31"/>
-      <c r="CW13" s="34"/>
-      <c r="CX13" s="33" t="str">
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="34"/>
+      <c r="CY13" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="31"/>
-      <c r="CZ13" s="32"/>
-      <c r="DA13" s="33" t="str">
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB13" s="31"/>
-      <c r="DC13" s="32"/>
-      <c r="DD13" s="33" t="str">
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="32"/>
+      <c r="DE13" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE13" s="31">
+      <c r="DF13" s="31">
         <v>2</v>
       </c>
-      <c r="DF13" s="34">
+      <c r="DG13" s="34">
         <v>5.6365740740740742E-3</v>
       </c>
-      <c r="DG13" s="33">
+      <c r="DH13" s="33">
         <f t="shared" si="25"/>
         <v>8.1018518518518462E-5</v>
       </c>
-      <c r="DH13" s="35"/>
+      <c r="DI13" s="35"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A14" s="98" t="s">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A14" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="97">
+      <c r="E14" s="96">
         <v>1</v>
       </c>
-      <c r="E14" s="76" t="str">
+      <c r="F14" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L1</v>
       </c>
-      <c r="F14" s="97">
+      <c r="G14" s="96">
         <v>2</v>
       </c>
-      <c r="G14" s="97">
+      <c r="H14" s="96">
         <v>12</v>
       </c>
-      <c r="H14" s="101">
+      <c r="I14" s="98">
         <v>0.4152777777777778</v>
       </c>
-      <c r="I14" s="101">
+      <c r="J14" s="98">
         <v>0.53125</v>
       </c>
-      <c r="J14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
+      <c r="K14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4810160000000003</v>
       </c>
-      <c r="K14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
+      <c r="L14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
         <v>119.31128099999999</v>
       </c>
-      <c r="L14" s="97">
+      <c r="M14" s="96">
         <v>58</v>
       </c>
-      <c r="M14" s="97">
+      <c r="N14" s="96">
         <v>61</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="O14" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="O14" s="97">
+      <c r="P14" s="96">
         <v>4</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <f t="shared" si="27"/>
         <v>0.1159722222222222</v>
       </c>
-      <c r="Q14" s="101" t="s">
+      <c r="R14" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="R14" s="97" t="s">
+      <c r="S14" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S14" s="97">
+      <c r="T14" s="96">
         <v>0.24</v>
       </c>
-      <c r="T14" s="97" t="s">
+      <c r="U14" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U14" s="97"/>
-      <c r="V14" s="19">
+      <c r="V14" s="96"/>
+      <c r="W14" s="19">
         <v>2.0937499999999998E-2</v>
       </c>
-      <c r="W14" s="20">
+      <c r="X14" s="20">
         <v>2.148148148148148E-2</v>
       </c>
-      <c r="X14" s="20">
+      <c r="Y14" s="20">
         <v>2.449074074074074E-2</v>
       </c>
-      <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="28"/>
         <v>6.6909722222222218E-2</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AD14" s="20">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AE14" s="20">
         <v>1.8831018518518518E-2</v>
       </c>
-      <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="29">AB14-AC14-AD14</f>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF22" si="29">AC14-AD14-AE14</f>
         <v>4.1828703703703701E-2</v>
       </c>
-      <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="29">
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="29">
         <v>4</v>
       </c>
-      <c r="AJ14" s="30">
+      <c r="AK14" s="30">
         <v>2</v>
       </c>
-      <c r="AK14" s="31">
+      <c r="AL14" s="31">
         <v>1</v>
       </c>
-      <c r="AL14" s="34">
+      <c r="AM14" s="34">
         <v>2.732638888888889E-2</v>
       </c>
-      <c r="AM14" s="33">
-        <f t="shared" ref="AM14:AM22" si="30">IF(AK14=0,"NA",AL14-$AC14)</f>
+      <c r="AN14" s="33">
+        <f t="shared" ref="AN14:AN22" si="30">IF(AL14=0,"NA",AM14-$AD14)</f>
         <v>2.1076388888888891E-2</v>
       </c>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="31">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="32">IF(AQ14=0,"NA",AR14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="33">IF(AT14=0,"NA",AU14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="33" t="str">
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="33" t="str">
+        <f t="shared" ref="AQ14:AQ22" si="31">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33" t="str">
+        <f t="shared" ref="AT14:AT22" si="32">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="33" t="str">
+        <f t="shared" ref="AW14:AW22" si="33">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="33" t="str">
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="34">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="35">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="31">
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="33" t="str">
+        <f t="shared" ref="BF14:BF22" si="34">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="33" t="str">
+        <f t="shared" ref="BI14:BI22" si="35">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ14" s="31">
         <v>1</v>
       </c>
-      <c r="BJ14" s="34">
+      <c r="BK14" s="34">
         <v>2.4201388888888887E-2</v>
       </c>
-      <c r="BK14" s="33">
-        <f t="shared" ref="BK14:BK22" si="36">IF(BI14=0,"NA",BJ14-$AC14)</f>
+      <c r="BL14" s="33">
+        <f t="shared" ref="BL14:BL22" si="36">IF(BJ14=0,"NA",BK14-$AD14)</f>
         <v>1.7951388888888888E-2</v>
       </c>
-      <c r="BL14" s="31">
+      <c r="BM14" s="31">
         <v>2</v>
       </c>
-      <c r="BM14" s="34">
+      <c r="BN14" s="34">
         <v>2.4131944444444445E-2</v>
       </c>
-      <c r="BN14" s="33">
-        <f t="shared" ref="BN14:BN22" si="37">IF(BL14=0,"NA",BM14-$AC14)</f>
+      <c r="BO14" s="33">
+        <f t="shared" ref="BO14:BO22" si="37">IF(BM14=0,"NA",BN14-$AD14)</f>
         <v>1.7881944444444447E-2</v>
       </c>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="38">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="32"/>
-      <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="39">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="41"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="33" t="str">
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="33" t="str">
+        <f t="shared" ref="BR14:BR22" si="38">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="32"/>
+      <c r="BU14" s="33" t="str">
+        <f t="shared" ref="BU14:BU22" si="39">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV14" s="41"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="34"/>
-      <c r="BZ14" s="33" t="str">
-        <f t="shared" ref="BZ14:BZ22" si="40">IF(BX14=0,"NA",BY14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="34"/>
-      <c r="CC14" s="33" t="str">
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="34"/>
+      <c r="CA14" s="33" t="str">
+        <f t="shared" ref="CA14:CA22" si="40">IF(BY14=0,"NA",BZ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="34"/>
+      <c r="CD14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="41"/>
-      <c r="CE14" s="57"/>
-      <c r="CF14" s="33" t="str">
+      <c r="CE14" s="41"/>
+      <c r="CF14" s="57"/>
+      <c r="CG14" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG14" s="31"/>
-      <c r="CH14" s="32"/>
-      <c r="CI14" s="33" t="str">
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="32"/>
+      <c r="CJ14" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="32"/>
-      <c r="CL14" s="33" t="str">
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="32"/>
-      <c r="CO14" s="33" t="str">
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="33" t="str">
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="34"/>
+      <c r="CS14" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="32"/>
-      <c r="CU14" s="33" t="str">
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="32"/>
-      <c r="CX14" s="33" t="str">
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="32"/>
+      <c r="CY14" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY14" s="31"/>
-      <c r="CZ14" s="32"/>
-      <c r="DA14" s="33" t="str">
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="32"/>
+      <c r="DB14" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB14" s="31"/>
-      <c r="DC14" s="32"/>
-      <c r="DD14" s="33" t="str">
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="32"/>
+      <c r="DE14" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE14" s="31"/>
-      <c r="DF14" s="32"/>
-      <c r="DG14" s="33" t="str">
-        <f t="shared" ref="DG14:DG22" si="41">IF(DE14=0,"NA",DF14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DH14" s="35"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="32"/>
+      <c r="DH14" s="33" t="str">
+        <f t="shared" ref="DH14:DH22" si="41">IF(DF14=0,"NA",DG14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DI14" s="35"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A15" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="D15" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="97">
+      <c r="E15" s="96">
         <v>3</v>
       </c>
-      <c r="E15" s="76" t="str">
+      <c r="F15" s="76" t="str">
         <f t="shared" si="26"/>
         <v>L3</v>
       </c>
-      <c r="F15" s="97">
+      <c r="G15" s="96">
         <v>3</v>
       </c>
-      <c r="G15" s="97">
+      <c r="H15" s="96">
         <v>11</v>
       </c>
-      <c r="H15" s="101">
+      <c r="I15" s="98">
         <v>0.42222222222222222</v>
       </c>
-      <c r="I15" s="101">
+      <c r="J15" s="98">
         <v>0.5180555555555556</v>
       </c>
-      <c r="J15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
+      <c r="K15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793599999999998</v>
       </c>
-      <c r="K15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
+      <c r="L15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
         <v>119.312033</v>
       </c>
-      <c r="L15" s="97">
+      <c r="M15" s="96">
         <v>52</v>
       </c>
-      <c r="M15" s="97">
+      <c r="N15" s="96">
         <v>70</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="O15" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="O15" s="97">
+      <c r="P15" s="96">
         <v>3</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <f t="shared" si="27"/>
         <v>9.5833333333333381E-2</v>
       </c>
-      <c r="Q15" s="101" t="s">
+      <c r="R15" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="R15" s="97" t="s">
+      <c r="S15" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S15" s="97">
+      <c r="T15" s="96">
         <v>0.24</v>
       </c>
-      <c r="T15" s="97" t="s">
+      <c r="U15" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U15" s="97"/>
-      <c r="V15" s="19">
+      <c r="V15" s="96"/>
+      <c r="W15" s="19">
         <v>2.1261574074074075E-2</v>
       </c>
-      <c r="W15" s="20">
+      <c r="X15" s="20">
         <v>2.8761574074074075E-2</v>
       </c>
-      <c r="X15" s="20">
+      <c r="Y15" s="20">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="28"/>
         <v>5.5925925925925928E-2</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AD15" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AE15" s="20">
         <v>5.9027777777777776E-3</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AF15" s="20">
         <f t="shared" si="29"/>
         <v>4.5023148148148152E-2</v>
       </c>
-      <c r="AF15" s="103">
+      <c r="AG15" s="100">
         <v>80</v>
       </c>
-      <c r="AG15" s="21">
+      <c r="AH15" s="21">
         <v>70</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="29">
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="29">
         <v>6</v>
       </c>
-      <c r="AJ15" s="30">
+      <c r="AK15" s="30">
         <v>4</v>
       </c>
-      <c r="AK15" s="31">
+      <c r="AL15" s="31">
         <v>1</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AM15" s="34">
         <v>3.6354166666666667E-2</v>
       </c>
-      <c r="AM15" s="33">
+      <c r="AN15" s="33">
         <f t="shared" si="30"/>
         <v>3.1354166666666669E-2</v>
       </c>
-      <c r="AN15" s="31">
+      <c r="AO15" s="31">
         <v>3</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AP15" s="34">
         <v>8.3912037037037045E-3</v>
       </c>
-      <c r="AP15" s="33">
+      <c r="AQ15" s="33">
         <f t="shared" si="31"/>
         <v>3.3912037037037044E-3</v>
       </c>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="33" t="str">
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33" t="str">
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="33" t="str">
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="33" t="str">
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="33" t="str">
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="33" t="str">
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="33" t="str">
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="34"/>
+      <c r="BL15" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL15" s="31">
+      <c r="BM15" s="31">
         <v>2</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BN15" s="34">
         <v>1.0300925925925927E-2</v>
       </c>
-      <c r="BN15" s="33">
+      <c r="BO15" s="33">
         <f t="shared" si="37"/>
         <v>5.3009259259259268E-3</v>
       </c>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="33" t="str">
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="32"/>
-      <c r="BT15" s="33" t="str">
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="32"/>
+      <c r="BU15" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU15" s="41"/>
-      <c r="BV15" s="34"/>
-      <c r="BW15" s="33" t="str">
+      <c r="BV15" s="41"/>
+      <c r="BW15" s="34"/>
+      <c r="BX15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX15" s="41">
+      <c r="BY15" s="41">
         <v>1</v>
       </c>
-      <c r="BY15" s="34">
+      <c r="BZ15" s="34">
         <v>3.8310185185185183E-2</v>
       </c>
-      <c r="BZ15" s="33">
+      <c r="CA15" s="33">
         <f t="shared" si="40"/>
         <v>3.3310185185185186E-2</v>
       </c>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="71"/>
-      <c r="CC15" s="33" t="str">
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="41"/>
-      <c r="CE15" s="57"/>
-      <c r="CF15" s="33" t="str">
+      <c r="CE15" s="41"/>
+      <c r="CF15" s="57"/>
+      <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="71"/>
-      <c r="CI15" s="33" t="str">
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="71"/>
+      <c r="CJ15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="31"/>
-      <c r="CK15" s="71"/>
-      <c r="CL15" s="33" t="str">
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="71"/>
+      <c r="CM15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM15" s="31"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="33" t="str">
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="32"/>
+      <c r="CP15" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP15" s="31"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="33" t="str">
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="34"/>
+      <c r="CS15" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="32"/>
-      <c r="CU15" s="33" t="str">
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="32"/>
+      <c r="CV15" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="31"/>
-      <c r="CW15" s="32"/>
-      <c r="CX15" s="33" t="str">
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="32"/>
+      <c r="CY15" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY15" s="31"/>
-      <c r="CZ15" s="32"/>
-      <c r="DA15" s="33" t="str">
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="32"/>
+      <c r="DB15" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB15" s="31">
+      <c r="DC15" s="31">
         <v>2</v>
       </c>
-      <c r="DC15" s="71">
+      <c r="DD15" s="71">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="DD15" s="33">
+      <c r="DE15" s="33">
         <f t="shared" si="24"/>
         <v>3.0208333333333328E-3</v>
       </c>
-      <c r="DE15" s="31"/>
-      <c r="DF15" s="32"/>
-      <c r="DG15" s="33" t="str">
+      <c r="DF15" s="31"/>
+      <c r="DG15" s="32"/>
+      <c r="DH15" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH15" s="35"/>
+      <c r="DI15" s="35"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A16" s="98" t="s">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A16" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="D16" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="97">
+      <c r="E16" s="96">
         <v>1</v>
       </c>
-      <c r="E16" s="76" t="str">
+      <c r="F16" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D1</v>
       </c>
-      <c r="F16" s="97">
+      <c r="G16" s="96">
         <v>4</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="H16" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="101">
+      <c r="I16" s="98">
         <v>0.42708333333333331</v>
       </c>
-      <c r="I16" s="101">
+      <c r="J16" s="98">
         <v>0.51597222222222217</v>
       </c>
-      <c r="J16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
+      <c r="K16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793240000000001</v>
       </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
+      <c r="L16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
         <v>119.31157399999999</v>
       </c>
-      <c r="L16" s="97">
+      <c r="M16" s="96">
         <v>67</v>
       </c>
-      <c r="M16" s="97">
+      <c r="N16" s="96">
         <v>71</v>
       </c>
-      <c r="N16" s="97" t="s">
+      <c r="O16" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="O16" s="97">
+      <c r="P16" s="96">
         <v>6</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <f t="shared" si="27"/>
         <v>8.8888888888888851E-2</v>
       </c>
-      <c r="Q16" s="101" t="s">
+      <c r="R16" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="R16" s="97" t="s">
+      <c r="S16" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S16" s="97">
+      <c r="T16" s="96">
         <v>0.24</v>
       </c>
-      <c r="T16" s="97" t="s">
+      <c r="U16" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="97"/>
-      <c r="V16" s="19">
-        <v>1.486111111111111E-2</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="96"/>
+      <c r="W16" s="19">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="X16" s="20">
@@ -5538,1833 +5605,1854 @@
         <v>1.486111111111111E-2</v>
       </c>
       <c r="AB16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="AC16" s="20">
         <f t="shared" si="28"/>
         <v>8.9166666666666644E-2</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AD16" s="20">
         <v>4.1203703703703706E-3</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AE16" s="20">
         <v>4.1111111111111112E-2</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AF16" s="20">
         <f t="shared" si="29"/>
         <v>4.393518518518516E-2</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="33" t="str">
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="33" t="str">
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="33" t="str">
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="33" t="str">
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="33" t="str">
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="33" t="str">
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="33" t="str">
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="33" t="str">
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="57" t="str">
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="57" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL16" s="41">
+      <c r="BM16" s="41">
         <v>10</v>
       </c>
-      <c r="BM16" s="34">
+      <c r="BN16" s="34">
         <v>4.2476851851851851E-3</v>
       </c>
-      <c r="BN16" s="33">
+      <c r="BO16" s="33">
         <f t="shared" si="37"/>
         <v>1.2731481481481448E-4</v>
       </c>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="33" t="str">
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="31">
+      <c r="BS16" s="31">
         <v>1</v>
       </c>
-      <c r="BS16" s="34">
+      <c r="BT16" s="34">
         <v>9.5486111111111101E-3</v>
       </c>
-      <c r="BT16" s="33">
+      <c r="BU16" s="33">
         <f t="shared" si="39"/>
         <v>5.4282407407407396E-3</v>
       </c>
-      <c r="BU16" s="41"/>
-      <c r="BV16" s="57"/>
-      <c r="BW16" s="33" t="str">
+      <c r="BV16" s="41"/>
+      <c r="BW16" s="57"/>
+      <c r="BX16" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="57"/>
-      <c r="BZ16" s="33" t="str">
+      <c r="BY16" s="41"/>
+      <c r="BZ16" s="57"/>
+      <c r="CA16" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="32"/>
-      <c r="CC16" s="33" t="str">
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="32"/>
+      <c r="CD16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="41"/>
-      <c r="CE16" s="57"/>
-      <c r="CF16" s="33" t="str">
+      <c r="CE16" s="41"/>
+      <c r="CF16" s="57"/>
+      <c r="CG16" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG16" s="31"/>
-      <c r="CH16" s="34"/>
-      <c r="CI16" s="33" t="str">
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="34"/>
+      <c r="CJ16" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ16" s="31"/>
-      <c r="CK16" s="34"/>
-      <c r="CL16" s="33" t="str">
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="34"/>
+      <c r="CM16" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM16" s="31"/>
-      <c r="CN16" s="34"/>
-      <c r="CO16" s="33" t="str">
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP16" s="31"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="33" t="str">
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="34"/>
+      <c r="CS16" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS16" s="31"/>
-      <c r="CT16" s="34"/>
-      <c r="CU16" s="33" t="str">
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="34"/>
+      <c r="CV16" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV16" s="31"/>
-      <c r="CW16" s="34"/>
-      <c r="CX16" s="33" t="str">
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="34"/>
+      <c r="CY16" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY16" s="31"/>
-      <c r="CZ16" s="34"/>
-      <c r="DA16" s="33" t="str">
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="34"/>
+      <c r="DB16" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB16" s="31"/>
-      <c r="DC16" s="34"/>
-      <c r="DD16" s="33" t="str">
+      <c r="DC16" s="31"/>
+      <c r="DD16" s="34"/>
+      <c r="DE16" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE16" s="31"/>
-      <c r="DF16" s="34"/>
-      <c r="DG16" s="33" t="str">
+      <c r="DF16" s="31"/>
+      <c r="DG16" s="34"/>
+      <c r="DH16" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH16" s="35"/>
+      <c r="DI16" s="35"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A17" s="98" t="s">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A17" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="D17" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="97">
+      <c r="E17" s="96">
         <v>6</v>
       </c>
-      <c r="E17" s="76" t="str">
+      <c r="F17" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E6</v>
       </c>
-      <c r="F17" s="97">
+      <c r="G17" s="96">
         <v>5</v>
       </c>
-      <c r="G17" s="97">
+      <c r="H17" s="96">
         <v>14</v>
       </c>
-      <c r="H17" s="101">
+      <c r="I17" s="98">
         <v>0.44791666666666669</v>
       </c>
-      <c r="I17" s="101">
+      <c r="J17" s="98">
         <v>0.5</v>
       </c>
-      <c r="J17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
+      <c r="K17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
         <v>-5.463902</v>
       </c>
-      <c r="K17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
+      <c r="L17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
         <v>119.28802</v>
       </c>
-      <c r="L17" s="97">
+      <c r="M17" s="96">
         <v>48</v>
       </c>
-      <c r="M17" s="97">
+      <c r="N17" s="96">
         <v>41</v>
       </c>
-      <c r="N17" s="97" t="s">
+      <c r="O17" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="O17" s="97">
+      <c r="P17" s="96">
         <v>3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <f t="shared" si="27"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="Q17" s="101" t="s">
+      <c r="R17" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="97" t="s">
+      <c r="S17" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="S17" s="97">
+      <c r="T17" s="96">
         <v>0.26</v>
       </c>
-      <c r="T17" s="97" t="s">
+      <c r="U17" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U17" s="97" t="s">
+      <c r="V17" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="V17" s="19">
+      <c r="W17" s="19">
         <v>1.832175925925926E-2</v>
       </c>
-      <c r="W17" s="20">
+      <c r="X17" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X17" s="20">
+      <c r="Y17" s="20">
         <v>8.6458333333333335E-3</v>
       </c>
-      <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="28"/>
         <v>4.4826388888888888E-2</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AD17" s="20">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20">
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
         <f t="shared" si="29"/>
         <v>4.1006944444444443E-2</v>
       </c>
-      <c r="AF17" s="21">
+      <c r="AG17" s="21">
         <v>100</v>
       </c>
-      <c r="AG17" s="21">
+      <c r="AH17" s="21">
         <v>25</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="29">
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="29">
         <v>4</v>
       </c>
-      <c r="AJ17" s="30">
+      <c r="AK17" s="30">
         <v>3</v>
       </c>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="33" t="str">
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="33" t="str">
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="33" t="str">
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="33" t="str">
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="33" t="str">
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="33" t="str">
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC17" s="31">
+      <c r="BD17" s="31">
         <v>1</v>
       </c>
-      <c r="BD17" s="34">
+      <c r="BE17" s="34">
         <v>1.5416666666666667E-2</v>
       </c>
-      <c r="BE17" s="33">
+      <c r="BF17" s="33">
         <f t="shared" si="34"/>
         <v>1.1597222222222222E-2</v>
       </c>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="33" t="str">
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="33" t="str">
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL17" s="41">
+      <c r="BM17" s="41">
         <v>10</v>
       </c>
-      <c r="BM17" s="34">
+      <c r="BN17" s="34">
         <v>4.2476851851851851E-3</v>
       </c>
-      <c r="BN17" s="33">
+      <c r="BO17" s="33">
         <f t="shared" si="37"/>
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="BO17" s="41"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="33" t="str">
+      <c r="BP17" s="41"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="41"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="33" t="str">
+      <c r="BS17" s="41"/>
+      <c r="BT17" s="34"/>
+      <c r="BU17" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU17" s="41"/>
-      <c r="BV17" s="34"/>
-      <c r="BW17" s="33" t="str">
+      <c r="BV17" s="41"/>
+      <c r="BW17" s="34"/>
+      <c r="BX17" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="41">
+      <c r="BY17" s="41">
         <v>6</v>
       </c>
-      <c r="BY17" s="34">
+      <c r="BZ17" s="34">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="BZ17" s="33">
+      <c r="CA17" s="33">
         <f t="shared" si="40"/>
         <v>2.3148148148148138E-4</v>
       </c>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="32"/>
-      <c r="CC17" s="33" t="str">
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="32"/>
+      <c r="CD17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="41"/>
-      <c r="CE17" s="57"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CE17" s="41"/>
+      <c r="CF17" s="57"/>
+      <c r="CG17" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="33" t="str">
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="34"/>
+      <c r="CJ17" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ17" s="31">
+      <c r="CK17" s="31">
         <v>1</v>
       </c>
-      <c r="CK17" s="34">
+      <c r="CL17" s="34">
         <v>1.0937500000000001E-2</v>
       </c>
-      <c r="CL17" s="33">
+      <c r="CM17" s="33">
         <f t="shared" si="18"/>
         <v>7.1180555555555563E-3</v>
       </c>
-      <c r="CM17" s="31"/>
-      <c r="CN17" s="34"/>
-      <c r="CO17" s="33" t="str">
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="34"/>
-      <c r="CR17" s="33" t="str">
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="34"/>
+      <c r="CS17" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="34"/>
-      <c r="CU17" s="33" t="str">
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="34"/>
+      <c r="CV17" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="31"/>
-      <c r="CW17" s="34"/>
-      <c r="CX17" s="33" t="str">
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="34"/>
+      <c r="CY17" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY17" s="31"/>
-      <c r="CZ17" s="34"/>
-      <c r="DA17" s="33" t="str">
+      <c r="CZ17" s="31"/>
+      <c r="DA17" s="34"/>
+      <c r="DB17" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB17" s="31"/>
-      <c r="DC17" s="34"/>
-      <c r="DD17" s="33" t="str">
+      <c r="DC17" s="31"/>
+      <c r="DD17" s="34"/>
+      <c r="DE17" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE17" s="31"/>
-      <c r="DF17" s="34"/>
-      <c r="DG17" s="33" t="str">
+      <c r="DF17" s="31"/>
+      <c r="DG17" s="34"/>
+      <c r="DH17" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH17" s="35"/>
+      <c r="DI17" s="35"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A18" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A18" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="D18" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="97">
+      <c r="E18" s="96">
         <v>2</v>
       </c>
-      <c r="E18" s="76" t="str">
+      <c r="F18" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D2</v>
       </c>
-      <c r="F18" s="97">
+      <c r="G18" s="96">
         <v>1</v>
       </c>
-      <c r="G18" s="97">
+      <c r="H18" s="96">
         <v>1</v>
       </c>
-      <c r="H18" s="101">
+      <c r="I18" s="98">
         <v>0.51250000000000007</v>
       </c>
-      <c r="I18" s="101">
+      <c r="J18" s="98">
         <v>0.62777777777777777</v>
       </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
+      <c r="K18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4880659999999999</v>
       </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
+      <c r="L18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
         <v>119.31312699999999</v>
       </c>
-      <c r="L18" s="97">
+      <c r="M18" s="96">
         <v>45</v>
       </c>
-      <c r="M18" s="97">
+      <c r="N18" s="96">
         <v>41</v>
       </c>
-      <c r="N18" s="97" t="s">
+      <c r="O18" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="O18" s="97">
+      <c r="P18" s="96">
         <v>3</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <f t="shared" si="27"/>
         <v>0.1152777777777777</v>
       </c>
-      <c r="Q18" s="101" t="s">
+      <c r="R18" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="R18" s="97" t="s">
+      <c r="S18" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="S18" s="97">
+      <c r="T18" s="96">
         <v>0.32</v>
       </c>
-      <c r="T18" s="97" t="s">
+      <c r="U18" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U18" s="97"/>
-      <c r="V18" s="19">
+      <c r="V18" s="96"/>
+      <c r="W18" s="19">
         <v>2.3321759259259261E-2</v>
       </c>
-      <c r="W18" s="20">
+      <c r="X18" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X18" s="20">
+      <c r="Y18" s="20">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="28"/>
         <v>4.4664351851851851E-2</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AD18" s="20">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20">
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20">
         <f t="shared" si="29"/>
         <v>4.0497685185185185E-2</v>
       </c>
-      <c r="AF18" s="21">
+      <c r="AG18" s="21">
         <v>100</v>
       </c>
-      <c r="AG18" s="21">
+      <c r="AH18" s="21">
         <v>70</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="29">
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="29">
         <v>8</v>
       </c>
-      <c r="AJ18" s="30">
+      <c r="AK18" s="30">
         <v>8</v>
       </c>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33" t="str">
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="31">
+      <c r="AO18" s="31">
         <v>1</v>
       </c>
-      <c r="AO18" s="34">
+      <c r="AP18" s="34">
         <v>2.3252314814814812E-2</v>
       </c>
-      <c r="AP18" s="33">
+      <c r="AQ18" s="33">
         <f t="shared" si="31"/>
         <v>1.9085648148148147E-2</v>
       </c>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="33" t="str">
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="33" t="str">
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="33" t="str">
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="33" t="str">
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC18" s="31">
+      <c r="BD18" s="31">
         <v>1</v>
       </c>
-      <c r="BD18" s="34">
+      <c r="BE18" s="34">
         <v>3.1828703703703706E-2</v>
       </c>
-      <c r="BE18" s="33">
+      <c r="BF18" s="33">
         <f t="shared" si="34"/>
         <v>2.7662037037037041E-2</v>
       </c>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="33" t="str">
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="33" t="str">
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL18" s="31">
+      <c r="BM18" s="31">
         <v>1</v>
       </c>
-      <c r="BM18" s="34">
+      <c r="BN18" s="34">
         <v>2.6643518518518521E-2</v>
       </c>
-      <c r="BN18" s="33">
+      <c r="BO18" s="33">
         <f t="shared" si="37"/>
         <v>2.2476851851851855E-2</v>
       </c>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="33" t="str">
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="33" t="str">
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU18" s="41">
+      <c r="BV18" s="41">
         <v>1</v>
       </c>
-      <c r="BV18" s="34">
+      <c r="BW18" s="34">
         <v>2.5289351851851851E-2</v>
       </c>
-      <c r="BW18" s="33">
+      <c r="BX18" s="33">
         <f t="shared" si="13"/>
         <v>2.1122685185185185E-2</v>
       </c>
-      <c r="BX18" s="41">
+      <c r="BY18" s="41">
         <v>1</v>
       </c>
-      <c r="BY18" s="34">
+      <c r="BZ18" s="34">
         <v>3.5891203703703703E-2</v>
       </c>
-      <c r="BZ18" s="33">
+      <c r="CA18" s="33">
         <f t="shared" si="40"/>
         <v>3.1724537037037037E-2</v>
       </c>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="33" t="str">
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="32"/>
+      <c r="CD18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="41"/>
-      <c r="CE18" s="57"/>
-      <c r="CF18" s="33" t="str">
+      <c r="CE18" s="41"/>
+      <c r="CF18" s="57"/>
+      <c r="CG18" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG18" s="31">
+      <c r="CH18" s="31">
         <v>1</v>
       </c>
-      <c r="CH18" s="34">
+      <c r="CI18" s="34">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="CI18" s="33">
+      <c r="CJ18" s="33">
         <f t="shared" si="17"/>
         <v>2.013888888888889E-2</v>
       </c>
-      <c r="CJ18" s="31">
+      <c r="CK18" s="31">
         <v>1</v>
       </c>
-      <c r="CK18" s="34">
+      <c r="CL18" s="34">
         <v>1.7534722222222222E-2</v>
       </c>
-      <c r="CL18" s="33">
+      <c r="CM18" s="33">
         <f t="shared" si="18"/>
         <v>1.3368055555555557E-2</v>
       </c>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="33" t="str">
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP18" s="31"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="33" t="str">
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="34"/>
-      <c r="CU18" s="33" t="str">
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="31"/>
-      <c r="CW18" s="34"/>
-      <c r="CX18" s="33" t="str">
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="34"/>
+      <c r="CY18" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY18" s="31"/>
-      <c r="CZ18" s="34"/>
-      <c r="DA18" s="33" t="str">
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="34"/>
+      <c r="DB18" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB18" s="31"/>
-      <c r="DC18" s="34"/>
-      <c r="DD18" s="33" t="str">
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="34"/>
+      <c r="DE18" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE18" s="31">
+      <c r="DF18" s="31">
         <v>4</v>
       </c>
-      <c r="DF18" s="34">
+      <c r="DG18" s="34">
         <v>1.3587962962962963E-2</v>
       </c>
-      <c r="DG18" s="33">
+      <c r="DH18" s="33">
         <f t="shared" si="41"/>
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="DH18" s="35"/>
+      <c r="DI18" s="35"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A19" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A19" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="D19" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="97">
+      <c r="E19" s="96">
         <v>3</v>
       </c>
-      <c r="E19" s="76" t="str">
+      <c r="F19" s="76" t="str">
         <f t="shared" si="26"/>
         <v>D3</v>
       </c>
-      <c r="F19" s="97">
+      <c r="G19" s="96">
         <v>2</v>
       </c>
-      <c r="G19" s="97">
+      <c r="H19" s="96">
         <v>12</v>
       </c>
-      <c r="H19" s="101">
+      <c r="I19" s="98">
         <v>0.52361111111111114</v>
       </c>
-      <c r="I19" s="101">
+      <c r="J19" s="98">
         <v>0.62361111111111112</v>
       </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
+      <c r="K19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4889159999999997</v>
       </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
+      <c r="L19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
         <v>119.309448</v>
       </c>
-      <c r="L19" s="97">
+      <c r="M19" s="96">
         <v>32</v>
       </c>
-      <c r="M19" s="97">
+      <c r="N19" s="96">
         <v>53</v>
       </c>
-      <c r="N19" s="97" t="s">
+      <c r="O19" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="O19" s="97">
+      <c r="P19" s="96">
         <v>3</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <f t="shared" si="27"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="Q19" s="101" t="s">
+      <c r="R19" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="R19" s="97" t="s">
+      <c r="S19" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="S19" s="97">
+      <c r="T19" s="96">
         <v>0.32</v>
       </c>
-      <c r="T19" s="97" t="s">
+      <c r="U19" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U19" s="97"/>
-      <c r="V19" s="19">
+      <c r="V19" s="96"/>
+      <c r="W19" s="19">
         <v>1.9571759259259257E-2</v>
       </c>
-      <c r="W19" s="20">
+      <c r="X19" s="20">
         <v>1.9872685185185184E-2</v>
       </c>
-      <c r="X19" s="20">
+      <c r="Y19" s="20">
         <v>6.5046296296296302E-3</v>
       </c>
-      <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="28"/>
         <v>4.5949074074074073E-2</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AD19" s="20">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
         <f t="shared" si="29"/>
         <v>4.1840277777777775E-2</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AG19" s="21">
         <v>100</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AH19" s="21">
         <v>80</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="29">
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="29">
         <v>7</v>
       </c>
-      <c r="AJ19" s="30">
+      <c r="AK19" s="30">
         <v>5</v>
       </c>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="33" t="str">
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="31">
+      <c r="AO19" s="31">
         <v>1</v>
       </c>
-      <c r="AO19" s="34">
+      <c r="AP19" s="34">
         <v>9.6064814814814815E-3</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AQ19" s="33">
         <f t="shared" si="31"/>
         <v>5.4976851851851844E-3</v>
       </c>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="33" t="str">
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="33" t="str">
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="33" t="str">
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="33" t="str">
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="33" t="str">
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="33" t="str">
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="33" t="str">
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL19" s="31">
+      <c r="BM19" s="31">
         <v>3</v>
       </c>
-      <c r="BM19" s="34">
+      <c r="BN19" s="34">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="BN19" s="33">
+      <c r="BO19" s="33">
         <f t="shared" si="37"/>
         <v>9.8379629629629511E-4</v>
       </c>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="33" t="str">
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="33" t="str">
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="34"/>
+      <c r="BU19" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU19" s="41"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="33" t="str">
+      <c r="BV19" s="41"/>
+      <c r="BW19" s="34"/>
+      <c r="BX19" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="41">
+      <c r="BY19" s="41">
         <v>1</v>
       </c>
-      <c r="BY19" s="34">
+      <c r="BZ19" s="34">
         <v>1.0231481481481482E-2</v>
       </c>
-      <c r="BZ19" s="33">
+      <c r="CA19" s="33">
         <f t="shared" si="40"/>
         <v>6.122685185185185E-3</v>
       </c>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="32"/>
-      <c r="CC19" s="33" t="str">
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="32"/>
+      <c r="CD19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="41"/>
-      <c r="CE19" s="57"/>
-      <c r="CF19" s="33" t="str">
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="57"/>
+      <c r="CG19" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="33" t="str">
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="34"/>
+      <c r="CJ19" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ19" s="31"/>
-      <c r="CK19" s="34"/>
-      <c r="CL19" s="33" t="str">
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="34"/>
+      <c r="CM19" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM19" s="31"/>
-      <c r="CN19" s="34"/>
-      <c r="CO19" s="33" t="str">
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="33" t="str">
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="34"/>
+      <c r="CS19" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="33" t="str">
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="34"/>
+      <c r="CV19" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="31"/>
-      <c r="CW19" s="34"/>
-      <c r="CX19" s="33" t="str">
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="34"/>
+      <c r="CY19" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY19" s="31"/>
-      <c r="CZ19" s="34"/>
-      <c r="DA19" s="33" t="str">
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="34"/>
+      <c r="DB19" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB19" s="31">
+      <c r="DC19" s="31">
         <v>1</v>
       </c>
-      <c r="DC19" s="34">
+      <c r="DD19" s="34">
         <v>3.5196759259259254E-2</v>
       </c>
-      <c r="DD19" s="33">
+      <c r="DE19" s="33">
         <f t="shared" si="24"/>
         <v>3.1087962962962956E-2</v>
       </c>
-      <c r="DE19" s="31"/>
-      <c r="DF19" s="34"/>
-      <c r="DG19" s="33" t="str">
+      <c r="DF19" s="31"/>
+      <c r="DG19" s="34"/>
+      <c r="DH19" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH19" s="35"/>
+      <c r="DI19" s="35"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A20" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A20" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="D20" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="97">
+      <c r="E20" s="96">
         <v>2</v>
       </c>
-      <c r="E20" s="76" t="str">
+      <c r="F20" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E2</v>
       </c>
-      <c r="F20" s="97">
+      <c r="G20" s="96">
         <v>3</v>
       </c>
-      <c r="G20" s="97">
+      <c r="H20" s="96">
         <v>11</v>
       </c>
-      <c r="H20" s="101">
+      <c r="I20" s="98">
         <v>0.54097222222222219</v>
       </c>
-      <c r="I20" s="101">
+      <c r="J20" s="98">
         <v>0.61458333333333337</v>
       </c>
-      <c r="J20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
+      <c r="K20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,2)</f>
         <v>-5.491987</v>
       </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
+      <c r="L20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,3)</f>
         <v>119.312573</v>
       </c>
-      <c r="L20" s="97">
+      <c r="M20" s="96">
         <v>73</v>
       </c>
-      <c r="M20" s="97">
+      <c r="N20" s="96">
         <v>73</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="O20" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="O20" s="97">
+      <c r="P20" s="96">
         <v>3</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <f t="shared" si="27"/>
         <v>7.3611111111111183E-2</v>
       </c>
-      <c r="Q20" s="101" t="s">
+      <c r="R20" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="R20" s="97" t="s">
+      <c r="S20" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="S20" s="97">
+      <c r="T20" s="96">
         <v>0.34</v>
       </c>
-      <c r="T20" s="97" t="s">
+      <c r="U20" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U20" s="97"/>
-      <c r="V20" s="19">
-        <v>1.7858796296296296E-2</v>
-      </c>
-      <c r="W20" s="20">
+      <c r="V20" s="96"/>
+      <c r="W20" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="X20" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f t="shared" si="28"/>
         <v>5.3576388888888889E-2</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AD20" s="20">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AE20" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AF20" s="20">
         <f t="shared" si="29"/>
         <v>4.2638888888888893E-2</v>
       </c>
-      <c r="AF20" s="21">
-        <v>100</v>
-      </c>
       <c r="AG20" s="21">
         <v>100</v>
       </c>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="29">
+      <c r="AH20" s="21">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="29">
         <v>6</v>
       </c>
-      <c r="AJ20" s="30">
+      <c r="AK20" s="30">
         <v>3</v>
       </c>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="33" t="str">
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN20" s="31">
+      <c r="AO20" s="31">
         <v>16</v>
       </c>
-      <c r="AO20" s="34">
+      <c r="AP20" s="34">
         <v>2.344907407407407E-2</v>
       </c>
-      <c r="AP20" s="33">
+      <c r="AQ20" s="33">
         <f t="shared" si="31"/>
         <v>1.9456018518518515E-2</v>
       </c>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="33" t="str">
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="33" t="str">
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="33" t="str">
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="33" t="str">
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="34"/>
+      <c r="BC20" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="33" t="str">
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="33" t="str">
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="33" t="str">
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL20" s="31">
+      <c r="BM20" s="31">
         <v>17</v>
       </c>
-      <c r="BM20" s="34">
+      <c r="BN20" s="34">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="BN20" s="33">
+      <c r="BO20" s="33">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="33" t="str">
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="33" t="str">
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU20" s="41"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="33" t="str">
+      <c r="BV20" s="41"/>
+      <c r="BW20" s="34"/>
+      <c r="BX20" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="34"/>
-      <c r="BZ20" s="33" t="str">
+      <c r="BY20" s="41"/>
+      <c r="BZ20" s="34"/>
+      <c r="CA20" s="33" t="str">
         <f t="shared" si="40"/>
         <v>NA</v>
       </c>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="33" t="str">
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="41"/>
-      <c r="CE20" s="57"/>
-      <c r="CF20" s="33" t="str">
+      <c r="CE20" s="41"/>
+      <c r="CF20" s="57"/>
+      <c r="CG20" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="33" t="str">
+      <c r="CH20" s="31"/>
+      <c r="CI20" s="34"/>
+      <c r="CJ20" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ20" s="31"/>
-      <c r="CK20" s="34"/>
-      <c r="CL20" s="33" t="str">
+      <c r="CK20" s="31"/>
+      <c r="CL20" s="34"/>
+      <c r="CM20" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM20" s="31"/>
-      <c r="CN20" s="34"/>
-      <c r="CO20" s="33" t="str">
+      <c r="CN20" s="31"/>
+      <c r="CO20" s="34"/>
+      <c r="CP20" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP20" s="31"/>
-      <c r="CQ20" s="34"/>
-      <c r="CR20" s="33" t="str">
+      <c r="CQ20" s="31"/>
+      <c r="CR20" s="34"/>
+      <c r="CS20" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="31"/>
-      <c r="CT20" s="34"/>
-      <c r="CU20" s="33" t="str">
+      <c r="CT20" s="31"/>
+      <c r="CU20" s="34"/>
+      <c r="CV20" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="31"/>
-      <c r="CW20" s="34"/>
-      <c r="CX20" s="33" t="str">
+      <c r="CW20" s="31"/>
+      <c r="CX20" s="34"/>
+      <c r="CY20" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY20" s="31"/>
-      <c r="CZ20" s="34"/>
-      <c r="DA20" s="33" t="str">
+      <c r="CZ20" s="31"/>
+      <c r="DA20" s="34"/>
+      <c r="DB20" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB20" s="31">
+      <c r="DC20" s="31">
         <v>1</v>
       </c>
-      <c r="DC20" s="34">
+      <c r="DD20" s="34">
         <v>1.6793981481481483E-2</v>
       </c>
-      <c r="DD20" s="33">
+      <c r="DE20" s="33">
         <f t="shared" si="24"/>
         <v>1.2800925925925927E-2</v>
       </c>
-      <c r="DE20" s="31"/>
-      <c r="DF20" s="34"/>
-      <c r="DG20" s="33" t="str">
+      <c r="DF20" s="31"/>
+      <c r="DG20" s="34"/>
+      <c r="DH20" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH20" s="35"/>
+      <c r="DI20" s="35"/>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.35">
-      <c r="A21" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.35">
+      <c r="A21" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="D21" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="97">
+      <c r="E21" s="96">
         <v>3</v>
       </c>
-      <c r="E21" s="76" t="str">
+      <c r="F21" s="76" t="str">
         <f t="shared" si="26"/>
         <v>E3</v>
       </c>
-      <c r="F21" s="97">
+      <c r="G21" s="96">
         <v>4</v>
       </c>
-      <c r="G21" s="97" t="s">
+      <c r="H21" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="101">
+      <c r="I21" s="98">
         <v>0.54652777777777783</v>
       </c>
-      <c r="I21" s="101">
+      <c r="J21" s="98">
         <v>0.61458333333333337</v>
       </c>
-      <c r="J21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
+      <c r="K21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,2)</f>
         <v>-5.49282</v>
       </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
+      <c r="L21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,3)</f>
         <v>119.31198000000001</v>
       </c>
-      <c r="L21" s="97">
+      <c r="M21" s="96">
         <v>58</v>
       </c>
-      <c r="M21" s="97">
+      <c r="N21" s="96">
         <v>62</v>
       </c>
-      <c r="N21" s="97" t="s">
+      <c r="O21" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="O21" s="97">
+      <c r="P21" s="96">
         <v>3</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <f t="shared" si="27"/>
         <v>6.8055555555555536E-2</v>
       </c>
-      <c r="Q21" s="101" t="s">
+      <c r="R21" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="R21" s="97" t="s">
+      <c r="S21" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="S21" s="97">
+      <c r="T21" s="96">
         <v>0.34</v>
       </c>
-      <c r="T21" s="97" t="s">
+      <c r="U21" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="U21" s="97"/>
-      <c r="V21" s="78">
+      <c r="V21" s="96"/>
+      <c r="W21" s="78">
         <v>1.5891203703703703E-2</v>
       </c>
-      <c r="W21" s="79">
+      <c r="X21" s="79">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="X21" s="79">
+      <c r="Y21" s="79">
         <v>3.1134259259259257E-3</v>
       </c>
-      <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
-      <c r="AB21" s="20">
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="20">
         <f t="shared" si="28"/>
         <v>3.3865740740740738E-2</v>
       </c>
-      <c r="AC21" s="80">
+      <c r="AD21" s="80">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="20">
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="20">
         <f t="shared" si="29"/>
         <v>2.9699074074074072E-2</v>
       </c>
-      <c r="AF21" s="21">
+      <c r="AG21" s="21">
         <v>90</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AH21" s="21">
         <v>65</v>
       </c>
-      <c r="AH21" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI21" s="29">
+      <c r="AI21" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ21" s="29">
         <v>4</v>
       </c>
-      <c r="AJ21" s="30">
+      <c r="AK21" s="30">
         <v>3</v>
       </c>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="33" t="str">
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33" t="str">
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="33" t="str">
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33" t="str">
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="33" t="str">
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="33" t="str">
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="33" t="str">
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="34"/>
+      <c r="BF21" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="33" t="str">
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="33" t="str">
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BL21" s="31">
+      <c r="BM21" s="31">
         <v>1</v>
       </c>
-      <c r="BM21" s="57">
+      <c r="BN21" s="57">
         <v>3.2858796296296296E-2</v>
       </c>
-      <c r="BN21" s="33">
+      <c r="BO21" s="33">
         <f t="shared" si="37"/>
         <v>2.869212962962963E-2</v>
       </c>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="33" t="str">
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="33" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="33" t="str">
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="33" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU21" s="41"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="33" t="str">
+      <c r="BV21" s="41"/>
+      <c r="BW21" s="34"/>
+      <c r="BX21" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX21" s="41">
+      <c r="BY21" s="41">
         <v>1</v>
       </c>
-      <c r="BY21" s="34">
+      <c r="BZ21" s="34">
         <v>2.1956018518518517E-2</v>
       </c>
-      <c r="BZ21" s="33">
+      <c r="CA21" s="33">
         <f t="shared" si="40"/>
         <v>1.7789351851851851E-2</v>
       </c>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="33" t="str">
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="41"/>
-      <c r="CE21" s="34"/>
-      <c r="CF21" s="33" t="str">
+      <c r="CE21" s="41"/>
+      <c r="CF21" s="34"/>
+      <c r="CG21" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="33" t="str">
+      <c r="CH21" s="31"/>
+      <c r="CI21" s="32"/>
+      <c r="CJ21" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ21" s="31">
+      <c r="CK21" s="31">
         <v>2</v>
       </c>
-      <c r="CK21" s="34">
+      <c r="CL21" s="34">
         <v>1.7615740740740741E-2</v>
       </c>
-      <c r="CL21" s="33">
+      <c r="CM21" s="33">
         <f t="shared" si="18"/>
         <v>1.3449074074074075E-2</v>
       </c>
-      <c r="CM21" s="31"/>
-      <c r="CN21" s="32"/>
-      <c r="CO21" s="33" t="str">
+      <c r="CN21" s="31"/>
+      <c r="CO21" s="32"/>
+      <c r="CP21" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP21" s="31"/>
-      <c r="CQ21" s="32"/>
-      <c r="CR21" s="33" t="str">
+      <c r="CQ21" s="31"/>
+      <c r="CR21" s="34"/>
+      <c r="CS21" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="31"/>
-      <c r="CT21" s="32"/>
-      <c r="CU21" s="33" t="str">
+      <c r="CT21" s="31"/>
+      <c r="CU21" s="32"/>
+      <c r="CV21" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV21" s="31"/>
-      <c r="CW21" s="32"/>
-      <c r="CX21" s="33" t="str">
+      <c r="CW21" s="31"/>
+      <c r="CX21" s="32"/>
+      <c r="CY21" s="33" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY21" s="31"/>
-      <c r="CZ21" s="32"/>
-      <c r="DA21" s="33" t="str">
+      <c r="CZ21" s="31"/>
+      <c r="DA21" s="32"/>
+      <c r="DB21" s="33" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB21" s="31"/>
-      <c r="DC21" s="57"/>
-      <c r="DD21" s="33" t="str">
+      <c r="DC21" s="31"/>
+      <c r="DD21" s="57"/>
+      <c r="DE21" s="33" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE21" s="31"/>
-      <c r="DF21" s="57"/>
-      <c r="DG21" s="33" t="str">
+      <c r="DF21" s="31"/>
+      <c r="DG21" s="57"/>
+      <c r="DH21" s="33" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH21" s="35"/>
+      <c r="DI21" s="35"/>
     </row>
-    <row r="22" spans="1:112" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:113" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="77" t="str">
+      <c r="F22" s="77" t="str">
         <f t="shared" si="26"/>
         <v>E1</v>
       </c>
-      <c r="F22" s="11">
-        <v>5</v>
-      </c>
       <c r="G22" s="11">
         <v>5</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="12">
         <v>0.55902777777777779</v>
       </c>
-      <c r="I22" s="12">
+      <c r="J22" s="12">
         <v>0.61111111111111105</v>
       </c>
-      <c r="J22" s="13">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
+      <c r="K22" s="13">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4901910000000003</v>
       </c>
-      <c r="K22" s="13">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
+      <c r="L22" s="13">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,3)</f>
         <v>119.311859</v>
-      </c>
-      <c r="L22" s="11">
-        <v>80</v>
       </c>
       <c r="M22" s="11">
         <v>80</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="11">
+        <v>80</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="11">
+      <c r="P22" s="11">
         <v>3</v>
       </c>
-      <c r="P22" s="12">
+      <c r="Q22" s="12">
         <f t="shared" si="27"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="S22" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="S22" s="11">
+      <c r="T22" s="11">
         <v>0.36</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="U22" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="81">
+      <c r="V22" s="11"/>
+      <c r="W22" s="81">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W22" s="70">
+      <c r="X22" s="70">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="X22" s="70">
+      <c r="Y22" s="70">
         <v>1.7175925925925924E-2</v>
       </c>
-      <c r="Y22" s="70"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
-      <c r="AB22" s="23">
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="23">
         <f t="shared" si="28"/>
         <v>5.289351851851852E-2</v>
       </c>
-      <c r="AC22" s="82">
+      <c r="AD22" s="82">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="AD22" s="82">
+      <c r="AE22" s="82">
         <v>1.1388888888888888E-2</v>
       </c>
-      <c r="AE22" s="23">
+      <c r="AF22" s="23">
         <f t="shared" si="29"/>
         <v>3.6180555555555556E-2</v>
       </c>
-      <c r="AF22" s="24">
+      <c r="AG22" s="24">
         <v>100</v>
       </c>
-      <c r="AG22" s="24">
+      <c r="AH22" s="24">
         <v>85</v>
       </c>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="36">
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="36">
         <v>8</v>
       </c>
-      <c r="AJ22" s="37">
+      <c r="AK22" s="37">
         <v>7</v>
       </c>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="42" t="str">
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="42" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="42" t="str">
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="42" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="42" t="str">
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="42" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="42" t="str">
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="42" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="42" t="str">
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="42" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ22" s="38">
+      <c r="BA22" s="38">
         <v>22</v>
       </c>
-      <c r="BA22" s="40">
+      <c r="BB22" s="40">
         <v>1.5740740740740743E-2</v>
       </c>
-      <c r="BB22" s="42">
+      <c r="BC22" s="42">
         <f t="shared" si="6"/>
         <v>1.0416666666666668E-2</v>
       </c>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="40"/>
-      <c r="BE22" s="42" t="str">
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="42" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="42" t="str">
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="85"/>
+      <c r="BI22" s="42" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BI22" s="38">
+      <c r="BJ22" s="38">
         <v>1</v>
       </c>
-      <c r="BJ22" s="40">
+      <c r="BK22" s="40">
         <v>8.1018518518518514E-3</v>
       </c>
-      <c r="BK22" s="42">
+      <c r="BL22" s="42">
         <f t="shared" si="36"/>
         <v>2.7777777777777766E-3</v>
       </c>
-      <c r="BL22" s="38">
+      <c r="BM22" s="38">
         <v>5</v>
       </c>
-      <c r="BM22" s="40">
+      <c r="BN22" s="40">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="BN22" s="42">
+      <c r="BO22" s="42">
         <f t="shared" si="37"/>
         <v>4.6296296296295149E-5</v>
       </c>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="85"/>
-      <c r="BQ22" s="42" t="str">
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="85"/>
+      <c r="BR22" s="42" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="BR22" s="38"/>
-      <c r="BS22" s="85"/>
-      <c r="BT22" s="42" t="str">
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="42" t="str">
         <f t="shared" si="39"/>
         <v>NA</v>
       </c>
-      <c r="BU22" s="86"/>
-      <c r="BV22" s="40"/>
-      <c r="BW22" s="42" t="str">
+      <c r="BV22" s="86"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="42" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX22" s="86">
+      <c r="BY22" s="86">
         <v>1</v>
       </c>
-      <c r="BY22" s="40">
+      <c r="BZ22" s="40">
         <v>3.0173611111111113E-2</v>
       </c>
-      <c r="BZ22" s="42">
+      <c r="CA22" s="42">
         <f t="shared" si="40"/>
         <v>2.4849537037037038E-2</v>
       </c>
-      <c r="CA22" s="38"/>
-      <c r="CB22" s="85"/>
-      <c r="CC22" s="42" t="str">
+      <c r="CB22" s="38"/>
+      <c r="CC22" s="85"/>
+      <c r="CD22" s="42" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="86"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="42" t="str">
+      <c r="CE22" s="86"/>
+      <c r="CF22" s="85"/>
+      <c r="CG22" s="42" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG22" s="38">
+      <c r="CH22" s="38">
         <v>2</v>
       </c>
-      <c r="CH22" s="40">
+      <c r="CI22" s="40">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="CI22" s="42">
+      <c r="CJ22" s="42">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="CJ22" s="38"/>
-      <c r="CK22" s="85"/>
-      <c r="CL22" s="42" t="str">
+      <c r="CK22" s="38"/>
+      <c r="CL22" s="85"/>
+      <c r="CM22" s="42" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM22" s="38">
+      <c r="CN22" s="38">
         <v>1</v>
       </c>
-      <c r="CN22" s="40">
+      <c r="CO22" s="40">
         <v>2.1331018518518517E-2</v>
       </c>
-      <c r="CO22" s="42">
+      <c r="CP22" s="42">
         <f t="shared" si="19"/>
         <v>1.6006944444444442E-2</v>
       </c>
-      <c r="CP22" s="38"/>
-      <c r="CQ22" s="85"/>
-      <c r="CR22" s="42" t="str">
+      <c r="CQ22" s="38"/>
+      <c r="CR22" s="40"/>
+      <c r="CS22" s="42" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS22" s="38"/>
-      <c r="CT22" s="85"/>
-      <c r="CU22" s="42" t="str">
+      <c r="CT22" s="38"/>
+      <c r="CU22" s="85"/>
+      <c r="CV22" s="42" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV22" s="38"/>
-      <c r="CW22" s="85"/>
-      <c r="CX22" s="42" t="str">
+      <c r="CW22" s="38"/>
+      <c r="CX22" s="85"/>
+      <c r="CY22" s="42" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY22" s="38"/>
-      <c r="CZ22" s="40"/>
-      <c r="DA22" s="42" t="str">
+      <c r="CZ22" s="38"/>
+      <c r="DA22" s="40"/>
+      <c r="DB22" s="42" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB22" s="38"/>
-      <c r="DC22" s="40"/>
-      <c r="DD22" s="42" t="str">
+      <c r="DC22" s="38"/>
+      <c r="DD22" s="40"/>
+      <c r="DE22" s="42" t="str">
         <f t="shared" si="24"/>
         <v>NA</v>
       </c>
-      <c r="DE22" s="38"/>
-      <c r="DF22" s="40"/>
-      <c r="DG22" s="42" t="str">
+      <c r="DF22" s="38"/>
+      <c r="DG22" s="40"/>
+      <c r="DH22" s="42" t="str">
         <f t="shared" si="41"/>
         <v>NA</v>
       </c>
-      <c r="DH22" s="39"/>
+      <c r="DI22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/04.2024/April_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899ADC4A-714C-4632-A03A-E8EB9A376C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768C7067-C855-472F-8488-532D006AF8F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="980" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordingData_04.2024" sheetId="2" r:id="rId1"/>
@@ -1396,10 +1396,10 @@
   <dimension ref="A1:DI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2901,8 +2901,12 @@
         <f t="shared" si="0"/>
         <v>3.5937500000000004E-2</v>
       </c>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+      <c r="AG6" s="21">
+        <v>70</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>100</v>
+      </c>
       <c r="AI6" s="22"/>
       <c r="AJ6" s="29">
         <v>4</v>
@@ -5067,8 +5071,12 @@
         <f t="shared" ref="AF14:AF22" si="29">AC14-AD14-AE14</f>
         <v>4.1828703703703701E-2</v>
       </c>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
+      <c r="AG14" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>75</v>
+      </c>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="29">
         <v>4</v>
@@ -5621,11 +5629,19 @@
         <f t="shared" si="29"/>
         <v>4.393518518518516E-2</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
+      <c r="AG16" s="21">
+        <v>70</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>50</v>
+      </c>
       <c r="AI16" s="22"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="30"/>
+      <c r="AJ16" s="29">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="30">
+        <v>2</v>
+      </c>
       <c r="AL16" s="31"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="33" t="str">
@@ -5952,15 +5968,11 @@
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BM17" s="41">
-        <v>10</v>
-      </c>
-      <c r="BN17" s="34">
-        <v>4.2476851851851851E-3</v>
-      </c>
-      <c r="BO17" s="33">
+      <c r="BM17" s="41"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="33" t="str">
         <f t="shared" si="37"/>
-        <v>4.2824074074074075E-4</v>
+        <v>NA</v>
       </c>
       <c r="BP17" s="41"/>
       <c r="BQ17" s="34"/>
